--- a/DataGenerator/XLSXS/EventResult.xlsx
+++ b/DataGenerator/XLSXS/EventResult.xlsx
@@ -68,83 +68,83 @@
 해당 결과에 알맞은 스탯 추가량과 스트레스 변화량을 기입하여 사용합니다.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B41">
+    <comment authorId="0" ref="B50">
       <text>
         <t xml:space="preserve">해커톤 성공</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B42">
+    <comment authorId="0" ref="B51">
       <text>
         <t xml:space="preserve">해커톤 실패</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B43">
+    <comment authorId="0" ref="B52">
       <text>
         <t xml:space="preserve">1학기 중간고사  성공
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="B44">
+    <comment authorId="0" ref="B53">
       <text>
         <t xml:space="preserve">1학기 중간고사  실패</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B45">
+    <comment authorId="0" ref="B54">
       <text>
         <t xml:space="preserve">체육대회 성공</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B46">
+    <comment authorId="0" ref="B55">
       <text>
         <t xml:space="preserve">체육대회 실패</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B47">
+    <comment authorId="0" ref="B56">
       <text>
         <t xml:space="preserve">1학기 기말고사 성공</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B48">
+    <comment authorId="0" ref="B57">
       <text>
         <t xml:space="preserve">1학기 기말고사 실패</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B49">
+    <comment authorId="0" ref="B58">
       <text>
         <t xml:space="preserve">축제 성공</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B50">
+    <comment authorId="0" ref="B59">
       <text>
         <t xml:space="preserve">축제 실패</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B51">
+    <comment authorId="0" ref="B60">
       <text>
         <t xml:space="preserve">2학기 중간고사 성공</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B52">
+    <comment authorId="0" ref="B61">
       <text>
         <t xml:space="preserve">2학기 중간고사 실패</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B53">
+    <comment authorId="0" ref="B62">
       <text>
         <t xml:space="preserve">지스타 성공</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B54">
+    <comment authorId="0" ref="B63">
       <text>
         <t xml:space="preserve">지스타 실패</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B55">
+    <comment authorId="0" ref="B64">
       <text>
         <t xml:space="preserve">2학기 기말고사 성공</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B56">
+    <comment authorId="0" ref="B65">
       <text>
         <t xml:space="preserve">2학기 기말고사 실패</t>
       </text>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>인덱스</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border/>
     <border>
       <right style="thin">
@@ -315,11 +318,40 @@
         <color rgb="FF999999"/>
       </left>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -390,23 +422,29 @@
     <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -417,15 +455,12 @@
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1134,7 +1169,9 @@
       <c r="G12" s="19">
         <v>0.0</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1335,8 +1372,8 @@
       <c r="D17" s="18">
         <v>0.0</v>
       </c>
-      <c r="E17" s="18">
-        <v>5.0</v>
+      <c r="E17" s="25">
+        <v>10.0</v>
       </c>
       <c r="F17" s="18">
         <v>0.0</v>
@@ -2289,25 +2326,25 @@
       <c r="Z39" s="6"/>
     </row>
     <row r="40">
-      <c r="A40" s="24">
+      <c r="A40" s="18">
         <v>36.0</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="17">
         <v>1226.0</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="18">
         <v>0.0</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="18">
         <v>5.0</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="18">
         <v>0.0</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="18">
         <v>0.0</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="18">
         <v>0.0</v>
       </c>
       <c r="H40" s="11"/>
@@ -2331,16 +2368,16 @@
       <c r="Z40" s="6"/>
     </row>
     <row r="41">
-      <c r="A41" s="16">
+      <c r="A41" s="25">
         <v>37.0</v>
       </c>
-      <c r="B41" s="28">
-        <v>58.0</v>
+      <c r="B41" s="26">
+        <v>1235.0</v>
       </c>
       <c r="C41" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="D41" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="25">
         <v>0.0</v>
       </c>
       <c r="E41" s="18">
@@ -2349,8 +2386,8 @@
       <c r="F41" s="18">
         <v>0.0</v>
       </c>
-      <c r="G41" s="19">
-        <v>-10.0</v>
+      <c r="G41" s="25">
+        <v>-5.0</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="6"/>
@@ -2373,17 +2410,17 @@
       <c r="Z41" s="6"/>
     </row>
     <row r="42">
-      <c r="A42" s="16">
+      <c r="A42" s="25">
         <v>38.0</v>
       </c>
-      <c r="B42" s="28">
-        <v>60.0</v>
+      <c r="B42" s="26">
+        <v>1241.0</v>
       </c>
       <c r="C42" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="18">
         <v>5.0</v>
-      </c>
-      <c r="D42" s="18">
-        <v>0.0</v>
       </c>
       <c r="E42" s="18">
         <v>0.0</v>
@@ -2391,8 +2428,8 @@
       <c r="F42" s="18">
         <v>0.0</v>
       </c>
-      <c r="G42" s="19">
-        <v>5.0</v>
+      <c r="G42" s="18">
+        <v>0.0</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="6"/>
@@ -2415,26 +2452,26 @@
       <c r="Z42" s="6"/>
     </row>
     <row r="43">
-      <c r="A43" s="29">
+      <c r="A43" s="25">
         <v>39.0</v>
       </c>
-      <c r="B43" s="30">
-        <v>86.0</v>
-      </c>
-      <c r="C43" s="31">
+      <c r="B43" s="26">
+        <v>1249.0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="D43" s="25">
         <v>0.0</v>
       </c>
-      <c r="D43" s="31">
+      <c r="E43" s="18">
         <v>0.0</v>
       </c>
-      <c r="E43" s="31">
+      <c r="F43" s="18">
         <v>0.0</v>
       </c>
-      <c r="F43" s="31">
+      <c r="G43" s="25">
         <v>0.0</v>
-      </c>
-      <c r="G43" s="32">
-        <v>-20.0</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="6"/>
@@ -2457,26 +2494,26 @@
       <c r="Z43" s="6"/>
     </row>
     <row r="44">
-      <c r="A44" s="29">
+      <c r="A44" s="25">
         <v>40.0</v>
       </c>
-      <c r="B44" s="30">
-        <v>98.0</v>
-      </c>
-      <c r="C44" s="31">
+      <c r="B44" s="26">
+        <v>1259.0</v>
+      </c>
+      <c r="C44" s="25">
         <v>0.0</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="25">
         <v>0.0</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="25">
+        <v>10.0</v>
+      </c>
+      <c r="F44" s="18">
         <v>0.0</v>
       </c>
-      <c r="F44" s="31">
+      <c r="G44" s="25">
         <v>0.0</v>
-      </c>
-      <c r="G44" s="32">
-        <v>-5.0</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="6"/>
@@ -2499,26 +2536,26 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45">
-      <c r="A45" s="29">
+      <c r="A45" s="25">
         <v>41.0</v>
       </c>
-      <c r="B45" s="28">
-        <v>112.0</v>
-      </c>
-      <c r="C45" s="31">
+      <c r="B45" s="26">
+        <v>1262.0</v>
+      </c>
+      <c r="C45" s="25">
         <v>0.0</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="25">
         <v>0.0</v>
       </c>
-      <c r="E45" s="31">
-        <v>5.0</v>
-      </c>
-      <c r="F45" s="31">
+      <c r="E45" s="18">
         <v>0.0</v>
       </c>
-      <c r="G45" s="32">
-        <v>-10.0</v>
+      <c r="F45" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="G45" s="25">
+        <v>-5.0</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="6"/>
@@ -2541,26 +2578,26 @@
       <c r="Z45" s="6"/>
     </row>
     <row r="46">
-      <c r="A46" s="29">
+      <c r="A46" s="25">
         <v>42.0</v>
       </c>
-      <c r="B46" s="28">
-        <v>114.0</v>
-      </c>
-      <c r="C46" s="31">
+      <c r="B46" s="26">
+        <v>1275.0</v>
+      </c>
+      <c r="C46" s="25">
         <v>0.0</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="25">
         <v>0.0</v>
       </c>
-      <c r="E46" s="31">
-        <v>5.0</v>
-      </c>
-      <c r="F46" s="31">
+      <c r="E46" s="18">
         <v>0.0</v>
       </c>
-      <c r="G46" s="32">
-        <v>5.0</v>
+      <c r="F46" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="G46" s="25">
+        <v>-5.0</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="6"/>
@@ -2583,26 +2620,26 @@
       <c r="Z46" s="6"/>
     </row>
     <row r="47">
-      <c r="A47" s="29">
+      <c r="A47" s="25">
         <v>43.0</v>
       </c>
-      <c r="B47" s="28">
-        <v>130.0</v>
-      </c>
-      <c r="C47" s="31">
+      <c r="B47" s="26">
+        <v>1279.0</v>
+      </c>
+      <c r="C47" s="25">
         <v>0.0</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="25">
         <v>0.0</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="18">
         <v>0.0</v>
       </c>
-      <c r="F47" s="31">
+      <c r="F47" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="G47" s="25">
         <v>0.0</v>
-      </c>
-      <c r="G47" s="32">
-        <v>-20.0</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="6"/>
@@ -2625,26 +2662,26 @@
       <c r="Z47" s="6"/>
     </row>
     <row r="48">
-      <c r="A48" s="29">
+      <c r="A48" s="25">
         <v>44.0</v>
       </c>
-      <c r="B48" s="28">
-        <v>142.0</v>
-      </c>
-      <c r="C48" s="31">
+      <c r="B48" s="26">
+        <v>1256.0</v>
+      </c>
+      <c r="C48" s="25">
         <v>0.0</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="25">
         <v>0.0</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="18">
         <v>0.0</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="18">
         <v>0.0</v>
       </c>
-      <c r="G48" s="32">
-        <v>-5.0</v>
+      <c r="G48" s="25">
+        <v>0.0</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="6"/>
@@ -2667,26 +2704,26 @@
       <c r="Z48" s="6"/>
     </row>
     <row r="49">
-      <c r="A49" s="29">
+      <c r="A49" s="25">
         <v>45.0</v>
       </c>
-      <c r="B49" s="28">
-        <v>167.0</v>
-      </c>
-      <c r="C49" s="31">
+      <c r="B49" s="26">
+        <v>1288.0</v>
+      </c>
+      <c r="C49" s="25">
         <v>0.0</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="25">
         <v>0.0</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="18">
         <v>0.0</v>
       </c>
-      <c r="F49" s="31">
-        <v>5.0</v>
-      </c>
-      <c r="G49" s="32">
-        <v>-10.0</v>
+      <c r="F49" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="G49" s="25">
+        <v>-5.0</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="6"/>
@@ -2709,26 +2746,26 @@
       <c r="Z49" s="6"/>
     </row>
     <row r="50">
-      <c r="A50" s="29">
+      <c r="A50" s="27">
         <v>46.0</v>
       </c>
       <c r="B50" s="28">
-        <v>169.0</v>
-      </c>
-      <c r="C50" s="31">
+        <v>58.0</v>
+      </c>
+      <c r="C50" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="D50" s="29">
         <v>0.0</v>
       </c>
-      <c r="D50" s="31">
+      <c r="E50" s="29">
         <v>0.0</v>
       </c>
-      <c r="E50" s="31">
+      <c r="F50" s="29">
         <v>0.0</v>
       </c>
-      <c r="F50" s="31">
-        <v>5.0</v>
-      </c>
-      <c r="G50" s="32">
-        <v>5.0</v>
+      <c r="G50" s="30">
+        <v>-10.0</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="6"/>
@@ -2751,26 +2788,26 @@
       <c r="Z50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="29">
+      <c r="A51" s="31">
         <v>47.0</v>
       </c>
-      <c r="B51" s="28">
-        <v>195.0</v>
-      </c>
-      <c r="C51" s="31">
+      <c r="B51" s="26">
+        <v>60.0</v>
+      </c>
+      <c r="C51" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="D51" s="18">
         <v>0.0</v>
       </c>
-      <c r="D51" s="31">
+      <c r="E51" s="18">
         <v>0.0</v>
       </c>
-      <c r="E51" s="31">
+      <c r="F51" s="18">
         <v>0.0</v>
       </c>
-      <c r="F51" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="G51" s="32">
-        <v>-20.0</v>
+      <c r="G51" s="19">
+        <v>5.0</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="6"/>
@@ -2793,26 +2830,26 @@
       <c r="Z51" s="6"/>
     </row>
     <row r="52">
-      <c r="A52" s="29">
+      <c r="A52" s="31">
         <v>48.0</v>
       </c>
-      <c r="B52" s="28">
-        <v>207.0</v>
-      </c>
-      <c r="C52" s="31">
+      <c r="B52" s="32">
+        <v>86.0</v>
+      </c>
+      <c r="C52" s="33">
         <v>0.0</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="33">
         <v>0.0</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="33">
         <v>0.0</v>
       </c>
-      <c r="F52" s="31">
+      <c r="F52" s="33">
         <v>0.0</v>
       </c>
-      <c r="G52" s="32">
-        <v>-5.0</v>
+      <c r="G52" s="34">
+        <v>-20.0</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="6"/>
@@ -2835,26 +2872,26 @@
       <c r="Z52" s="6"/>
     </row>
     <row r="53">
-      <c r="A53" s="29">
+      <c r="A53" s="31">
         <v>49.0</v>
       </c>
-      <c r="B53" s="28">
-        <v>221.0</v>
-      </c>
-      <c r="C53" s="31">
+      <c r="B53" s="32">
+        <v>98.0</v>
+      </c>
+      <c r="C53" s="33">
         <v>0.0</v>
       </c>
-      <c r="D53" s="31">
-        <v>5.0</v>
-      </c>
-      <c r="E53" s="31">
+      <c r="D53" s="33">
         <v>0.0</v>
       </c>
-      <c r="F53" s="31">
+      <c r="E53" s="33">
         <v>0.0</v>
       </c>
-      <c r="G53" s="32">
-        <v>-10.0</v>
+      <c r="F53" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="G53" s="34">
+        <v>-5.0</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="6"/>
@@ -2877,26 +2914,26 @@
       <c r="Z53" s="6"/>
     </row>
     <row r="54">
-      <c r="A54" s="29">
+      <c r="A54" s="31">
         <v>50.0</v>
       </c>
-      <c r="B54" s="28">
-        <v>223.0</v>
-      </c>
-      <c r="C54" s="31">
+      <c r="B54" s="26">
+        <v>112.0</v>
+      </c>
+      <c r="C54" s="33">
         <v>0.0</v>
       </c>
-      <c r="D54" s="31">
+      <c r="D54" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="E54" s="33">
         <v>5.0</v>
       </c>
-      <c r="E54" s="31">
+      <c r="F54" s="33">
         <v>0.0</v>
       </c>
-      <c r="F54" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="G54" s="32">
-        <v>5.0</v>
+      <c r="G54" s="34">
+        <v>-10.0</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="6"/>
@@ -2919,26 +2956,26 @@
       <c r="Z54" s="6"/>
     </row>
     <row r="55">
-      <c r="A55" s="33">
+      <c r="A55" s="31">
         <v>51.0</v>
       </c>
-      <c r="B55" s="34">
-        <v>239.0</v>
-      </c>
-      <c r="C55" s="31">
+      <c r="B55" s="26">
+        <v>114.0</v>
+      </c>
+      <c r="C55" s="33">
         <v>0.0</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="33">
         <v>0.0</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="F55" s="33">
         <v>0.0</v>
       </c>
-      <c r="F55" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="G55" s="32">
-        <v>-20.0</v>
+      <c r="G55" s="34">
+        <v>5.0</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -2961,26 +2998,26 @@
       <c r="Z55" s="6"/>
     </row>
     <row r="56">
-      <c r="A56" s="33">
+      <c r="A56" s="31">
         <v>52.0</v>
       </c>
-      <c r="B56" s="34">
-        <v>251.0</v>
-      </c>
-      <c r="C56" s="31">
+      <c r="B56" s="26">
+        <v>130.0</v>
+      </c>
+      <c r="C56" s="33">
         <v>0.0</v>
       </c>
-      <c r="D56" s="31">
+      <c r="D56" s="33">
         <v>0.0</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="33">
         <v>0.0</v>
       </c>
-      <c r="F56" s="31">
+      <c r="F56" s="33">
         <v>0.0</v>
       </c>
-      <c r="G56" s="32">
-        <v>-5.0</v>
+      <c r="G56" s="34">
+        <v>-20.0</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -3003,13 +3040,27 @@
       <c r="Z56" s="6"/>
     </row>
     <row r="57">
-      <c r="A57" s="35"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="37"/>
+      <c r="A57" s="31">
+        <v>53.0</v>
+      </c>
+      <c r="B57" s="26">
+        <v>142.0</v>
+      </c>
+      <c r="C57" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="D57" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="E57" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="F57" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="G57" s="34">
+        <v>-5.0</v>
+      </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -3031,13 +3082,27 @@
       <c r="Z57" s="6"/>
     </row>
     <row r="58">
-      <c r="A58" s="35"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="37"/>
+      <c r="A58" s="31">
+        <v>54.0</v>
+      </c>
+      <c r="B58" s="26">
+        <v>167.0</v>
+      </c>
+      <c r="C58" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="D58" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="E58" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="F58" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="G58" s="34">
+        <v>-10.0</v>
+      </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -3059,13 +3124,27 @@
       <c r="Z58" s="6"/>
     </row>
     <row r="59">
-      <c r="A59" s="35"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="37"/>
+      <c r="A59" s="31">
+        <v>55.0</v>
+      </c>
+      <c r="B59" s="26">
+        <v>169.0</v>
+      </c>
+      <c r="C59" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="D59" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="E59" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="F59" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="G59" s="34">
+        <v>5.0</v>
+      </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -3087,13 +3166,27 @@
       <c r="Z59" s="6"/>
     </row>
     <row r="60">
-      <c r="A60" s="35"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="37"/>
+      <c r="A60" s="31">
+        <v>56.0</v>
+      </c>
+      <c r="B60" s="26">
+        <v>195.0</v>
+      </c>
+      <c r="C60" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="D60" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="E60" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="F60" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="G60" s="34">
+        <v>-20.0</v>
+      </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -3115,13 +3208,27 @@
       <c r="Z60" s="6"/>
     </row>
     <row r="61">
-      <c r="A61" s="35"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="37"/>
+      <c r="A61" s="31">
+        <v>57.0</v>
+      </c>
+      <c r="B61" s="26">
+        <v>207.0</v>
+      </c>
+      <c r="C61" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="D61" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="E61" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="F61" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="G61" s="34">
+        <v>-5.0</v>
+      </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -3143,13 +3250,27 @@
       <c r="Z61" s="6"/>
     </row>
     <row r="62">
-      <c r="A62" s="35"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="37"/>
+      <c r="A62" s="31">
+        <v>58.0</v>
+      </c>
+      <c r="B62" s="26">
+        <v>221.0</v>
+      </c>
+      <c r="C62" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="D62" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="E62" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="F62" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="G62" s="34">
+        <v>-10.0</v>
+      </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -3171,13 +3292,27 @@
       <c r="Z62" s="6"/>
     </row>
     <row r="63">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="37"/>
+      <c r="A63" s="31">
+        <v>59.0</v>
+      </c>
+      <c r="B63" s="26">
+        <v>223.0</v>
+      </c>
+      <c r="C63" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="D63" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="E63" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="F63" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="G63" s="34">
+        <v>5.0</v>
+      </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -3199,13 +3334,27 @@
       <c r="Z63" s="6"/>
     </row>
     <row r="64">
-      <c r="A64" s="35"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="37"/>
+      <c r="A64" s="31">
+        <v>60.0</v>
+      </c>
+      <c r="B64" s="35">
+        <v>239.0</v>
+      </c>
+      <c r="C64" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="D64" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="E64" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="F64" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="G64" s="34">
+        <v>-20.0</v>
+      </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -3227,13 +3376,27 @@
       <c r="Z64" s="6"/>
     </row>
     <row r="65">
-      <c r="A65" s="35"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="37"/>
+      <c r="A65" s="31">
+        <v>61.0</v>
+      </c>
+      <c r="B65" s="35">
+        <v>251.0</v>
+      </c>
+      <c r="C65" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="D65" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="E65" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="F65" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="G65" s="34">
+        <v>-5.0</v>
+      </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -3255,11 +3418,7 @@
       <c r="Z65" s="6"/>
     </row>
     <row r="66">
-      <c r="A66" s="35"/>
       <c r="B66" s="36"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="37"/>
       <c r="H66" s="6"/>
@@ -3283,11 +3442,7 @@
       <c r="Z66" s="6"/>
     </row>
     <row r="67">
-      <c r="A67" s="35"/>
       <c r="B67" s="36"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="37"/>
       <c r="H67" s="6"/>
@@ -3311,11 +3466,7 @@
       <c r="Z67" s="6"/>
     </row>
     <row r="68">
-      <c r="A68" s="35"/>
       <c r="B68" s="36"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="37"/>
       <c r="H68" s="6"/>
@@ -3339,11 +3490,7 @@
       <c r="Z68" s="6"/>
     </row>
     <row r="69">
-      <c r="A69" s="35"/>
       <c r="B69" s="36"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="37"/>
       <c r="H69" s="6"/>
@@ -3367,11 +3514,7 @@
       <c r="Z69" s="6"/>
     </row>
     <row r="70">
-      <c r="A70" s="35"/>
       <c r="B70" s="36"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="37"/>
       <c r="H70" s="6"/>
@@ -3395,7 +3538,7 @@
       <c r="Z70" s="6"/>
     </row>
     <row r="71">
-      <c r="A71" s="35"/>
+      <c r="A71" s="38"/>
       <c r="B71" s="36"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -3423,7 +3566,7 @@
       <c r="Z71" s="6"/>
     </row>
     <row r="72">
-      <c r="A72" s="35"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="36"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -3451,7 +3594,7 @@
       <c r="Z72" s="6"/>
     </row>
     <row r="73">
-      <c r="A73" s="35"/>
+      <c r="A73" s="38"/>
       <c r="B73" s="36"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -3479,7 +3622,7 @@
       <c r="Z73" s="6"/>
     </row>
     <row r="74">
-      <c r="A74" s="35"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="36"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -3507,7 +3650,7 @@
       <c r="Z74" s="6"/>
     </row>
     <row r="75">
-      <c r="A75" s="35"/>
+      <c r="A75" s="38"/>
       <c r="B75" s="36"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -3535,7 +3678,7 @@
       <c r="Z75" s="6"/>
     </row>
     <row r="76">
-      <c r="A76" s="35"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="36"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -3563,7 +3706,7 @@
       <c r="Z76" s="6"/>
     </row>
     <row r="77">
-      <c r="A77" s="35"/>
+      <c r="A77" s="38"/>
       <c r="B77" s="36"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -3591,7 +3734,7 @@
       <c r="Z77" s="6"/>
     </row>
     <row r="78">
-      <c r="A78" s="35"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="36"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -3619,7 +3762,7 @@
       <c r="Z78" s="6"/>
     </row>
     <row r="79">
-      <c r="A79" s="35"/>
+      <c r="A79" s="38"/>
       <c r="B79" s="36"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -3647,7 +3790,7 @@
       <c r="Z79" s="6"/>
     </row>
     <row r="80">
-      <c r="A80" s="35"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="36"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3675,7 +3818,7 @@
       <c r="Z80" s="6"/>
     </row>
     <row r="81">
-      <c r="A81" s="35"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="36"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -3703,7 +3846,7 @@
       <c r="Z81" s="6"/>
     </row>
     <row r="82">
-      <c r="A82" s="35"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="36"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -3731,7 +3874,7 @@
       <c r="Z82" s="6"/>
     </row>
     <row r="83">
-      <c r="A83" s="35"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="36"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -3759,7 +3902,7 @@
       <c r="Z83" s="6"/>
     </row>
     <row r="84">
-      <c r="A84" s="35"/>
+      <c r="A84" s="38"/>
       <c r="B84" s="36"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -3787,7 +3930,7 @@
       <c r="Z84" s="6"/>
     </row>
     <row r="85">
-      <c r="A85" s="35"/>
+      <c r="A85" s="38"/>
       <c r="B85" s="36"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -3815,7 +3958,7 @@
       <c r="Z85" s="6"/>
     </row>
     <row r="86">
-      <c r="A86" s="35"/>
+      <c r="A86" s="38"/>
       <c r="B86" s="36"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -3843,7 +3986,7 @@
       <c r="Z86" s="6"/>
     </row>
     <row r="87">
-      <c r="A87" s="35"/>
+      <c r="A87" s="38"/>
       <c r="B87" s="36"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -3871,7 +4014,7 @@
       <c r="Z87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="35"/>
+      <c r="A88" s="38"/>
       <c r="B88" s="36"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -3899,7 +4042,7 @@
       <c r="Z88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="35"/>
+      <c r="A89" s="38"/>
       <c r="B89" s="36"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3927,7 +4070,7 @@
       <c r="Z89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="35"/>
+      <c r="A90" s="38"/>
       <c r="B90" s="36"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3955,7 +4098,7 @@
       <c r="Z90" s="6"/>
     </row>
     <row r="91">
-      <c r="A91" s="35"/>
+      <c r="A91" s="38"/>
       <c r="B91" s="36"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3983,7 +4126,7 @@
       <c r="Z91" s="6"/>
     </row>
     <row r="92">
-      <c r="A92" s="35"/>
+      <c r="A92" s="38"/>
       <c r="B92" s="36"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -4011,7 +4154,7 @@
       <c r="Z92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="35"/>
+      <c r="A93" s="38"/>
       <c r="B93" s="36"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -4039,7 +4182,7 @@
       <c r="Z93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="35"/>
+      <c r="A94" s="38"/>
       <c r="B94" s="36"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -4067,7 +4210,7 @@
       <c r="Z94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="35"/>
+      <c r="A95" s="38"/>
       <c r="B95" s="36"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -4095,7 +4238,7 @@
       <c r="Z95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="35"/>
+      <c r="A96" s="38"/>
       <c r="B96" s="36"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -4123,7 +4266,7 @@
       <c r="Z96" s="6"/>
     </row>
     <row r="97">
-      <c r="A97" s="35"/>
+      <c r="A97" s="38"/>
       <c r="B97" s="36"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -4151,7 +4294,7 @@
       <c r="Z97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="35"/>
+      <c r="A98" s="38"/>
       <c r="B98" s="36"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -4179,7 +4322,7 @@
       <c r="Z98" s="6"/>
     </row>
     <row r="99">
-      <c r="A99" s="35"/>
+      <c r="A99" s="38"/>
       <c r="B99" s="36"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -4207,7 +4350,7 @@
       <c r="Z99" s="6"/>
     </row>
     <row r="100">
-      <c r="A100" s="35"/>
+      <c r="A100" s="38"/>
       <c r="B100" s="36"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -4235,7 +4378,7 @@
       <c r="Z100" s="6"/>
     </row>
     <row r="101">
-      <c r="A101" s="35"/>
+      <c r="A101" s="38"/>
       <c r="B101" s="36"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -4263,7 +4406,7 @@
       <c r="Z101" s="6"/>
     </row>
     <row r="102">
-      <c r="A102" s="35"/>
+      <c r="A102" s="38"/>
       <c r="B102" s="36"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -4291,7 +4434,7 @@
       <c r="Z102" s="6"/>
     </row>
     <row r="103">
-      <c r="A103" s="35"/>
+      <c r="A103" s="38"/>
       <c r="B103" s="36"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -4319,7 +4462,7 @@
       <c r="Z103" s="6"/>
     </row>
     <row r="104">
-      <c r="A104" s="35"/>
+      <c r="A104" s="38"/>
       <c r="B104" s="36"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -4347,7 +4490,7 @@
       <c r="Z104" s="6"/>
     </row>
     <row r="105">
-      <c r="A105" s="35"/>
+      <c r="A105" s="38"/>
       <c r="B105" s="36"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -4375,7 +4518,7 @@
       <c r="Z105" s="6"/>
     </row>
     <row r="106">
-      <c r="A106" s="35"/>
+      <c r="A106" s="38"/>
       <c r="B106" s="36"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -4403,7 +4546,7 @@
       <c r="Z106" s="6"/>
     </row>
     <row r="107">
-      <c r="A107" s="35"/>
+      <c r="A107" s="38"/>
       <c r="B107" s="36"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -4431,7 +4574,7 @@
       <c r="Z107" s="6"/>
     </row>
     <row r="108">
-      <c r="A108" s="35"/>
+      <c r="A108" s="38"/>
       <c r="B108" s="36"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -4459,7 +4602,7 @@
       <c r="Z108" s="6"/>
     </row>
     <row r="109">
-      <c r="A109" s="35"/>
+      <c r="A109" s="38"/>
       <c r="B109" s="36"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -4487,7 +4630,7 @@
       <c r="Z109" s="6"/>
     </row>
     <row r="110">
-      <c r="A110" s="35"/>
+      <c r="A110" s="38"/>
       <c r="B110" s="36"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -4515,7 +4658,7 @@
       <c r="Z110" s="6"/>
     </row>
     <row r="111">
-      <c r="A111" s="35"/>
+      <c r="A111" s="38"/>
       <c r="B111" s="36"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -4543,7 +4686,7 @@
       <c r="Z111" s="6"/>
     </row>
     <row r="112">
-      <c r="A112" s="35"/>
+      <c r="A112" s="38"/>
       <c r="B112" s="36"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -4571,7 +4714,7 @@
       <c r="Z112" s="6"/>
     </row>
     <row r="113">
-      <c r="A113" s="35"/>
+      <c r="A113" s="38"/>
       <c r="B113" s="36"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -4599,7 +4742,7 @@
       <c r="Z113" s="6"/>
     </row>
     <row r="114">
-      <c r="A114" s="35"/>
+      <c r="A114" s="38"/>
       <c r="B114" s="36"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -4627,7 +4770,7 @@
       <c r="Z114" s="6"/>
     </row>
     <row r="115">
-      <c r="A115" s="35"/>
+      <c r="A115" s="38"/>
       <c r="B115" s="36"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -4655,7 +4798,7 @@
       <c r="Z115" s="6"/>
     </row>
     <row r="116">
-      <c r="A116" s="35"/>
+      <c r="A116" s="38"/>
       <c r="B116" s="36"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -4683,7 +4826,7 @@
       <c r="Z116" s="6"/>
     </row>
     <row r="117">
-      <c r="A117" s="35"/>
+      <c r="A117" s="38"/>
       <c r="B117" s="36"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -4711,7 +4854,7 @@
       <c r="Z117" s="6"/>
     </row>
     <row r="118">
-      <c r="A118" s="35"/>
+      <c r="A118" s="38"/>
       <c r="B118" s="36"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -4739,7 +4882,7 @@
       <c r="Z118" s="6"/>
     </row>
     <row r="119">
-      <c r="A119" s="35"/>
+      <c r="A119" s="38"/>
       <c r="B119" s="36"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -4767,7 +4910,7 @@
       <c r="Z119" s="6"/>
     </row>
     <row r="120">
-      <c r="A120" s="35"/>
+      <c r="A120" s="38"/>
       <c r="B120" s="36"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -4795,7 +4938,7 @@
       <c r="Z120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="35"/>
+      <c r="A121" s="38"/>
       <c r="B121" s="36"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -4823,7 +4966,7 @@
       <c r="Z121" s="6"/>
     </row>
     <row r="122">
-      <c r="A122" s="35"/>
+      <c r="A122" s="38"/>
       <c r="B122" s="36"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -4851,7 +4994,7 @@
       <c r="Z122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="35"/>
+      <c r="A123" s="38"/>
       <c r="B123" s="36"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -4879,7 +5022,7 @@
       <c r="Z123" s="6"/>
     </row>
     <row r="124">
-      <c r="A124" s="35"/>
+      <c r="A124" s="38"/>
       <c r="B124" s="36"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -4907,7 +5050,7 @@
       <c r="Z124" s="6"/>
     </row>
     <row r="125">
-      <c r="A125" s="35"/>
+      <c r="A125" s="38"/>
       <c r="B125" s="36"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -4935,7 +5078,7 @@
       <c r="Z125" s="6"/>
     </row>
     <row r="126">
-      <c r="A126" s="35"/>
+      <c r="A126" s="38"/>
       <c r="B126" s="36"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -4963,7 +5106,7 @@
       <c r="Z126" s="6"/>
     </row>
     <row r="127">
-      <c r="A127" s="35"/>
+      <c r="A127" s="38"/>
       <c r="B127" s="36"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -4991,7 +5134,7 @@
       <c r="Z127" s="6"/>
     </row>
     <row r="128">
-      <c r="A128" s="35"/>
+      <c r="A128" s="38"/>
       <c r="B128" s="36"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -5019,7 +5162,7 @@
       <c r="Z128" s="6"/>
     </row>
     <row r="129">
-      <c r="A129" s="35"/>
+      <c r="A129" s="38"/>
       <c r="B129" s="36"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -5047,7 +5190,7 @@
       <c r="Z129" s="6"/>
     </row>
     <row r="130">
-      <c r="A130" s="35"/>
+      <c r="A130" s="38"/>
       <c r="B130" s="36"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -5075,7 +5218,7 @@
       <c r="Z130" s="6"/>
     </row>
     <row r="131">
-      <c r="A131" s="35"/>
+      <c r="A131" s="38"/>
       <c r="B131" s="36"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -5103,7 +5246,7 @@
       <c r="Z131" s="6"/>
     </row>
     <row r="132">
-      <c r="A132" s="35"/>
+      <c r="A132" s="38"/>
       <c r="B132" s="36"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -5131,7 +5274,7 @@
       <c r="Z132" s="6"/>
     </row>
     <row r="133">
-      <c r="A133" s="35"/>
+      <c r="A133" s="38"/>
       <c r="B133" s="36"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -5159,7 +5302,7 @@
       <c r="Z133" s="6"/>
     </row>
     <row r="134">
-      <c r="A134" s="35"/>
+      <c r="A134" s="38"/>
       <c r="B134" s="36"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -5187,7 +5330,7 @@
       <c r="Z134" s="6"/>
     </row>
     <row r="135">
-      <c r="A135" s="35"/>
+      <c r="A135" s="38"/>
       <c r="B135" s="36"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -5215,7 +5358,7 @@
       <c r="Z135" s="6"/>
     </row>
     <row r="136">
-      <c r="A136" s="35"/>
+      <c r="A136" s="38"/>
       <c r="B136" s="36"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -5243,7 +5386,7 @@
       <c r="Z136" s="6"/>
     </row>
     <row r="137">
-      <c r="A137" s="35"/>
+      <c r="A137" s="38"/>
       <c r="B137" s="36"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -5271,7 +5414,7 @@
       <c r="Z137" s="6"/>
     </row>
     <row r="138">
-      <c r="A138" s="35"/>
+      <c r="A138" s="38"/>
       <c r="B138" s="36"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -5299,7 +5442,7 @@
       <c r="Z138" s="6"/>
     </row>
     <row r="139">
-      <c r="A139" s="35"/>
+      <c r="A139" s="38"/>
       <c r="B139" s="36"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -5327,7 +5470,7 @@
       <c r="Z139" s="6"/>
     </row>
     <row r="140">
-      <c r="A140" s="35"/>
+      <c r="A140" s="38"/>
       <c r="B140" s="36"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -5355,7 +5498,7 @@
       <c r="Z140" s="6"/>
     </row>
     <row r="141">
-      <c r="A141" s="35"/>
+      <c r="A141" s="38"/>
       <c r="B141" s="36"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -5383,7 +5526,7 @@
       <c r="Z141" s="6"/>
     </row>
     <row r="142">
-      <c r="A142" s="35"/>
+      <c r="A142" s="38"/>
       <c r="B142" s="36"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -5411,7 +5554,7 @@
       <c r="Z142" s="6"/>
     </row>
     <row r="143">
-      <c r="A143" s="35"/>
+      <c r="A143" s="38"/>
       <c r="B143" s="36"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -5439,7 +5582,7 @@
       <c r="Z143" s="6"/>
     </row>
     <row r="144">
-      <c r="A144" s="35"/>
+      <c r="A144" s="38"/>
       <c r="B144" s="36"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -5467,7 +5610,7 @@
       <c r="Z144" s="6"/>
     </row>
     <row r="145">
-      <c r="A145" s="35"/>
+      <c r="A145" s="38"/>
       <c r="B145" s="36"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -5495,7 +5638,7 @@
       <c r="Z145" s="6"/>
     </row>
     <row r="146">
-      <c r="A146" s="35"/>
+      <c r="A146" s="38"/>
       <c r="B146" s="36"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -5523,7 +5666,7 @@
       <c r="Z146" s="6"/>
     </row>
     <row r="147">
-      <c r="A147" s="35"/>
+      <c r="A147" s="38"/>
       <c r="B147" s="36"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -5551,7 +5694,7 @@
       <c r="Z147" s="6"/>
     </row>
     <row r="148">
-      <c r="A148" s="35"/>
+      <c r="A148" s="38"/>
       <c r="B148" s="36"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -5579,7 +5722,7 @@
       <c r="Z148" s="6"/>
     </row>
     <row r="149">
-      <c r="A149" s="35"/>
+      <c r="A149" s="38"/>
       <c r="B149" s="36"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -5607,7 +5750,7 @@
       <c r="Z149" s="6"/>
     </row>
     <row r="150">
-      <c r="A150" s="35"/>
+      <c r="A150" s="38"/>
       <c r="B150" s="36"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -5635,7 +5778,7 @@
       <c r="Z150" s="6"/>
     </row>
     <row r="151">
-      <c r="A151" s="35"/>
+      <c r="A151" s="38"/>
       <c r="B151" s="36"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -5663,7 +5806,7 @@
       <c r="Z151" s="6"/>
     </row>
     <row r="152">
-      <c r="A152" s="35"/>
+      <c r="A152" s="38"/>
       <c r="B152" s="36"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -5691,7 +5834,7 @@
       <c r="Z152" s="6"/>
     </row>
     <row r="153">
-      <c r="A153" s="35"/>
+      <c r="A153" s="38"/>
       <c r="B153" s="36"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -5719,7 +5862,7 @@
       <c r="Z153" s="6"/>
     </row>
     <row r="154">
-      <c r="A154" s="35"/>
+      <c r="A154" s="38"/>
       <c r="B154" s="36"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -5747,7 +5890,7 @@
       <c r="Z154" s="6"/>
     </row>
     <row r="155">
-      <c r="A155" s="35"/>
+      <c r="A155" s="38"/>
       <c r="B155" s="36"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -5775,7 +5918,7 @@
       <c r="Z155" s="6"/>
     </row>
     <row r="156">
-      <c r="A156" s="35"/>
+      <c r="A156" s="38"/>
       <c r="B156" s="36"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -5803,7 +5946,7 @@
       <c r="Z156" s="6"/>
     </row>
     <row r="157">
-      <c r="A157" s="35"/>
+      <c r="A157" s="38"/>
       <c r="B157" s="36"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -5831,7 +5974,7 @@
       <c r="Z157" s="6"/>
     </row>
     <row r="158">
-      <c r="A158" s="35"/>
+      <c r="A158" s="38"/>
       <c r="B158" s="36"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -5859,7 +6002,7 @@
       <c r="Z158" s="6"/>
     </row>
     <row r="159">
-      <c r="A159" s="35"/>
+      <c r="A159" s="38"/>
       <c r="B159" s="36"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -5887,7 +6030,7 @@
       <c r="Z159" s="6"/>
     </row>
     <row r="160">
-      <c r="A160" s="35"/>
+      <c r="A160" s="38"/>
       <c r="B160" s="36"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -5915,7 +6058,7 @@
       <c r="Z160" s="6"/>
     </row>
     <row r="161">
-      <c r="A161" s="35"/>
+      <c r="A161" s="38"/>
       <c r="B161" s="36"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -5943,7 +6086,7 @@
       <c r="Z161" s="6"/>
     </row>
     <row r="162">
-      <c r="A162" s="35"/>
+      <c r="A162" s="38"/>
       <c r="B162" s="36"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -5971,7 +6114,7 @@
       <c r="Z162" s="6"/>
     </row>
     <row r="163">
-      <c r="A163" s="35"/>
+      <c r="A163" s="38"/>
       <c r="B163" s="36"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -5999,7 +6142,7 @@
       <c r="Z163" s="6"/>
     </row>
     <row r="164">
-      <c r="A164" s="35"/>
+      <c r="A164" s="38"/>
       <c r="B164" s="36"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -6027,7 +6170,7 @@
       <c r="Z164" s="6"/>
     </row>
     <row r="165">
-      <c r="A165" s="35"/>
+      <c r="A165" s="38"/>
       <c r="B165" s="36"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -6055,7 +6198,7 @@
       <c r="Z165" s="6"/>
     </row>
     <row r="166">
-      <c r="A166" s="35"/>
+      <c r="A166" s="38"/>
       <c r="B166" s="36"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -6083,7 +6226,7 @@
       <c r="Z166" s="6"/>
     </row>
     <row r="167">
-      <c r="A167" s="35"/>
+      <c r="A167" s="38"/>
       <c r="B167" s="36"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -6111,7 +6254,7 @@
       <c r="Z167" s="6"/>
     </row>
     <row r="168">
-      <c r="A168" s="35"/>
+      <c r="A168" s="38"/>
       <c r="B168" s="36"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -6139,7 +6282,7 @@
       <c r="Z168" s="6"/>
     </row>
     <row r="169">
-      <c r="A169" s="35"/>
+      <c r="A169" s="38"/>
       <c r="B169" s="36"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -6167,7 +6310,7 @@
       <c r="Z169" s="6"/>
     </row>
     <row r="170">
-      <c r="A170" s="35"/>
+      <c r="A170" s="38"/>
       <c r="B170" s="36"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -6195,7 +6338,7 @@
       <c r="Z170" s="6"/>
     </row>
     <row r="171">
-      <c r="A171" s="35"/>
+      <c r="A171" s="38"/>
       <c r="B171" s="36"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -6223,7 +6366,7 @@
       <c r="Z171" s="6"/>
     </row>
     <row r="172">
-      <c r="A172" s="35"/>
+      <c r="A172" s="38"/>
       <c r="B172" s="36"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -6251,7 +6394,7 @@
       <c r="Z172" s="6"/>
     </row>
     <row r="173">
-      <c r="A173" s="35"/>
+      <c r="A173" s="38"/>
       <c r="B173" s="36"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -6279,7 +6422,7 @@
       <c r="Z173" s="6"/>
     </row>
     <row r="174">
-      <c r="A174" s="35"/>
+      <c r="A174" s="38"/>
       <c r="B174" s="36"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -6307,7 +6450,7 @@
       <c r="Z174" s="6"/>
     </row>
     <row r="175">
-      <c r="A175" s="35"/>
+      <c r="A175" s="38"/>
       <c r="B175" s="36"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -6335,7 +6478,7 @@
       <c r="Z175" s="6"/>
     </row>
     <row r="176">
-      <c r="A176" s="35"/>
+      <c r="A176" s="38"/>
       <c r="B176" s="36"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -6363,7 +6506,7 @@
       <c r="Z176" s="6"/>
     </row>
     <row r="177">
-      <c r="A177" s="35"/>
+      <c r="A177" s="38"/>
       <c r="B177" s="36"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -6391,7 +6534,7 @@
       <c r="Z177" s="6"/>
     </row>
     <row r="178">
-      <c r="A178" s="35"/>
+      <c r="A178" s="38"/>
       <c r="B178" s="36"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -6419,7 +6562,7 @@
       <c r="Z178" s="6"/>
     </row>
     <row r="179">
-      <c r="A179" s="35"/>
+      <c r="A179" s="38"/>
       <c r="B179" s="36"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -6447,7 +6590,7 @@
       <c r="Z179" s="6"/>
     </row>
     <row r="180">
-      <c r="A180" s="35"/>
+      <c r="A180" s="38"/>
       <c r="B180" s="36"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
@@ -6475,7 +6618,7 @@
       <c r="Z180" s="6"/>
     </row>
     <row r="181">
-      <c r="A181" s="35"/>
+      <c r="A181" s="38"/>
       <c r="B181" s="36"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
@@ -6503,7 +6646,7 @@
       <c r="Z181" s="6"/>
     </row>
     <row r="182">
-      <c r="A182" s="35"/>
+      <c r="A182" s="38"/>
       <c r="B182" s="36"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
@@ -6531,7 +6674,7 @@
       <c r="Z182" s="6"/>
     </row>
     <row r="183">
-      <c r="A183" s="35"/>
+      <c r="A183" s="38"/>
       <c r="B183" s="36"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -6559,7 +6702,7 @@
       <c r="Z183" s="6"/>
     </row>
     <row r="184">
-      <c r="A184" s="35"/>
+      <c r="A184" s="38"/>
       <c r="B184" s="36"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
@@ -6587,7 +6730,7 @@
       <c r="Z184" s="6"/>
     </row>
     <row r="185">
-      <c r="A185" s="35"/>
+      <c r="A185" s="38"/>
       <c r="B185" s="36"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -6615,7 +6758,7 @@
       <c r="Z185" s="6"/>
     </row>
     <row r="186">
-      <c r="A186" s="35"/>
+      <c r="A186" s="38"/>
       <c r="B186" s="36"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -6643,7 +6786,7 @@
       <c r="Z186" s="6"/>
     </row>
     <row r="187">
-      <c r="A187" s="35"/>
+      <c r="A187" s="38"/>
       <c r="B187" s="36"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -6671,7 +6814,7 @@
       <c r="Z187" s="6"/>
     </row>
     <row r="188">
-      <c r="A188" s="35"/>
+      <c r="A188" s="38"/>
       <c r="B188" s="36"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -6699,7 +6842,7 @@
       <c r="Z188" s="6"/>
     </row>
     <row r="189">
-      <c r="A189" s="35"/>
+      <c r="A189" s="38"/>
       <c r="B189" s="36"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -6727,7 +6870,7 @@
       <c r="Z189" s="6"/>
     </row>
     <row r="190">
-      <c r="A190" s="35"/>
+      <c r="A190" s="38"/>
       <c r="B190" s="36"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -6755,7 +6898,7 @@
       <c r="Z190" s="6"/>
     </row>
     <row r="191">
-      <c r="A191" s="35"/>
+      <c r="A191" s="38"/>
       <c r="B191" s="36"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
@@ -6783,7 +6926,7 @@
       <c r="Z191" s="6"/>
     </row>
     <row r="192">
-      <c r="A192" s="35"/>
+      <c r="A192" s="38"/>
       <c r="B192" s="36"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -6811,7 +6954,7 @@
       <c r="Z192" s="6"/>
     </row>
     <row r="193">
-      <c r="A193" s="35"/>
+      <c r="A193" s="38"/>
       <c r="B193" s="36"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
@@ -6839,7 +6982,7 @@
       <c r="Z193" s="6"/>
     </row>
     <row r="194">
-      <c r="A194" s="35"/>
+      <c r="A194" s="38"/>
       <c r="B194" s="36"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
@@ -6867,7 +7010,7 @@
       <c r="Z194" s="6"/>
     </row>
     <row r="195">
-      <c r="A195" s="35"/>
+      <c r="A195" s="38"/>
       <c r="B195" s="36"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -6895,7 +7038,7 @@
       <c r="Z195" s="6"/>
     </row>
     <row r="196">
-      <c r="A196" s="35"/>
+      <c r="A196" s="38"/>
       <c r="B196" s="36"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -6923,7 +7066,7 @@
       <c r="Z196" s="6"/>
     </row>
     <row r="197">
-      <c r="A197" s="35"/>
+      <c r="A197" s="38"/>
       <c r="B197" s="36"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -6951,7 +7094,7 @@
       <c r="Z197" s="6"/>
     </row>
     <row r="198">
-      <c r="A198" s="35"/>
+      <c r="A198" s="38"/>
       <c r="B198" s="36"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -6979,7 +7122,7 @@
       <c r="Z198" s="6"/>
     </row>
     <row r="199">
-      <c r="A199" s="35"/>
+      <c r="A199" s="38"/>
       <c r="B199" s="36"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -7007,7 +7150,7 @@
       <c r="Z199" s="6"/>
     </row>
     <row r="200">
-      <c r="A200" s="35"/>
+      <c r="A200" s="38"/>
       <c r="B200" s="36"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -7035,7 +7178,7 @@
       <c r="Z200" s="6"/>
     </row>
     <row r="201">
-      <c r="A201" s="35"/>
+      <c r="A201" s="38"/>
       <c r="B201" s="36"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -7063,7 +7206,7 @@
       <c r="Z201" s="6"/>
     </row>
     <row r="202">
-      <c r="A202" s="35"/>
+      <c r="A202" s="38"/>
       <c r="B202" s="36"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -7091,7 +7234,7 @@
       <c r="Z202" s="6"/>
     </row>
     <row r="203">
-      <c r="A203" s="35"/>
+      <c r="A203" s="38"/>
       <c r="B203" s="36"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -7119,7 +7262,7 @@
       <c r="Z203" s="6"/>
     </row>
     <row r="204">
-      <c r="A204" s="35"/>
+      <c r="A204" s="38"/>
       <c r="B204" s="36"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -7147,7 +7290,7 @@
       <c r="Z204" s="6"/>
     </row>
     <row r="205">
-      <c r="A205" s="35"/>
+      <c r="A205" s="38"/>
       <c r="B205" s="36"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -7175,7 +7318,7 @@
       <c r="Z205" s="6"/>
     </row>
     <row r="206">
-      <c r="A206" s="35"/>
+      <c r="A206" s="38"/>
       <c r="B206" s="36"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -7203,7 +7346,7 @@
       <c r="Z206" s="6"/>
     </row>
     <row r="207">
-      <c r="A207" s="35"/>
+      <c r="A207" s="38"/>
       <c r="B207" s="36"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -7231,7 +7374,7 @@
       <c r="Z207" s="6"/>
     </row>
     <row r="208">
-      <c r="A208" s="35"/>
+      <c r="A208" s="38"/>
       <c r="B208" s="36"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -7259,7 +7402,7 @@
       <c r="Z208" s="6"/>
     </row>
     <row r="209">
-      <c r="A209" s="35"/>
+      <c r="A209" s="38"/>
       <c r="B209" s="36"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
@@ -7287,7 +7430,7 @@
       <c r="Z209" s="6"/>
     </row>
     <row r="210">
-      <c r="A210" s="35"/>
+      <c r="A210" s="38"/>
       <c r="B210" s="36"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
@@ -7315,7 +7458,7 @@
       <c r="Z210" s="6"/>
     </row>
     <row r="211">
-      <c r="A211" s="35"/>
+      <c r="A211" s="38"/>
       <c r="B211" s="36"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -7343,7 +7486,7 @@
       <c r="Z211" s="6"/>
     </row>
     <row r="212">
-      <c r="A212" s="35"/>
+      <c r="A212" s="38"/>
       <c r="B212" s="36"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
@@ -7371,7 +7514,7 @@
       <c r="Z212" s="6"/>
     </row>
     <row r="213">
-      <c r="A213" s="35"/>
+      <c r="A213" s="38"/>
       <c r="B213" s="36"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
@@ -7399,7 +7542,7 @@
       <c r="Z213" s="6"/>
     </row>
     <row r="214">
-      <c r="A214" s="35"/>
+      <c r="A214" s="38"/>
       <c r="B214" s="36"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
@@ -7427,7 +7570,7 @@
       <c r="Z214" s="6"/>
     </row>
     <row r="215">
-      <c r="A215" s="35"/>
+      <c r="A215" s="38"/>
       <c r="B215" s="36"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -7455,7 +7598,7 @@
       <c r="Z215" s="6"/>
     </row>
     <row r="216">
-      <c r="A216" s="35"/>
+      <c r="A216" s="38"/>
       <c r="B216" s="36"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -7483,7 +7626,7 @@
       <c r="Z216" s="6"/>
     </row>
     <row r="217">
-      <c r="A217" s="35"/>
+      <c r="A217" s="38"/>
       <c r="B217" s="36"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -7511,7 +7654,7 @@
       <c r="Z217" s="6"/>
     </row>
     <row r="218">
-      <c r="A218" s="35"/>
+      <c r="A218" s="38"/>
       <c r="B218" s="36"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -7539,7 +7682,7 @@
       <c r="Z218" s="6"/>
     </row>
     <row r="219">
-      <c r="A219" s="35"/>
+      <c r="A219" s="38"/>
       <c r="B219" s="36"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -7567,7 +7710,7 @@
       <c r="Z219" s="6"/>
     </row>
     <row r="220">
-      <c r="A220" s="35"/>
+      <c r="A220" s="38"/>
       <c r="B220" s="36"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -7595,7 +7738,7 @@
       <c r="Z220" s="6"/>
     </row>
     <row r="221">
-      <c r="A221" s="35"/>
+      <c r="A221" s="38"/>
       <c r="B221" s="36"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -7623,7 +7766,7 @@
       <c r="Z221" s="6"/>
     </row>
     <row r="222">
-      <c r="A222" s="35"/>
+      <c r="A222" s="38"/>
       <c r="B222" s="36"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -7651,7 +7794,7 @@
       <c r="Z222" s="6"/>
     </row>
     <row r="223">
-      <c r="A223" s="35"/>
+      <c r="A223" s="38"/>
       <c r="B223" s="36"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -7679,7 +7822,7 @@
       <c r="Z223" s="6"/>
     </row>
     <row r="224">
-      <c r="A224" s="35"/>
+      <c r="A224" s="38"/>
       <c r="B224" s="36"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
@@ -7707,7 +7850,7 @@
       <c r="Z224" s="6"/>
     </row>
     <row r="225">
-      <c r="A225" s="35"/>
+      <c r="A225" s="38"/>
       <c r="B225" s="36"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
@@ -7735,7 +7878,7 @@
       <c r="Z225" s="6"/>
     </row>
     <row r="226">
-      <c r="A226" s="35"/>
+      <c r="A226" s="38"/>
       <c r="B226" s="36"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
@@ -7763,7 +7906,7 @@
       <c r="Z226" s="6"/>
     </row>
     <row r="227">
-      <c r="A227" s="35"/>
+      <c r="A227" s="38"/>
       <c r="B227" s="36"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -7791,7 +7934,7 @@
       <c r="Z227" s="6"/>
     </row>
     <row r="228">
-      <c r="A228" s="35"/>
+      <c r="A228" s="38"/>
       <c r="B228" s="36"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
@@ -7819,7 +7962,7 @@
       <c r="Z228" s="6"/>
     </row>
     <row r="229">
-      <c r="A229" s="35"/>
+      <c r="A229" s="38"/>
       <c r="B229" s="36"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
@@ -7847,7 +7990,7 @@
       <c r="Z229" s="6"/>
     </row>
     <row r="230">
-      <c r="A230" s="35"/>
+      <c r="A230" s="38"/>
       <c r="B230" s="36"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
@@ -7875,7 +8018,7 @@
       <c r="Z230" s="6"/>
     </row>
     <row r="231">
-      <c r="A231" s="35"/>
+      <c r="A231" s="38"/>
       <c r="B231" s="36"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -7903,7 +8046,7 @@
       <c r="Z231" s="6"/>
     </row>
     <row r="232">
-      <c r="A232" s="35"/>
+      <c r="A232" s="38"/>
       <c r="B232" s="36"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
@@ -7931,7 +8074,7 @@
       <c r="Z232" s="6"/>
     </row>
     <row r="233">
-      <c r="A233" s="35"/>
+      <c r="A233" s="38"/>
       <c r="B233" s="36"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
@@ -7959,7 +8102,7 @@
       <c r="Z233" s="6"/>
     </row>
     <row r="234">
-      <c r="A234" s="35"/>
+      <c r="A234" s="38"/>
       <c r="B234" s="36"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
@@ -7987,7 +8130,7 @@
       <c r="Z234" s="6"/>
     </row>
     <row r="235">
-      <c r="A235" s="35"/>
+      <c r="A235" s="38"/>
       <c r="B235" s="36"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -8015,7 +8158,7 @@
       <c r="Z235" s="6"/>
     </row>
     <row r="236">
-      <c r="A236" s="35"/>
+      <c r="A236" s="38"/>
       <c r="B236" s="36"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -8043,7 +8186,7 @@
       <c r="Z236" s="6"/>
     </row>
     <row r="237">
-      <c r="A237" s="35"/>
+      <c r="A237" s="38"/>
       <c r="B237" s="36"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -8071,7 +8214,7 @@
       <c r="Z237" s="6"/>
     </row>
     <row r="238">
-      <c r="A238" s="35"/>
+      <c r="A238" s="38"/>
       <c r="B238" s="36"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -8099,7 +8242,7 @@
       <c r="Z238" s="6"/>
     </row>
     <row r="239">
-      <c r="A239" s="35"/>
+      <c r="A239" s="38"/>
       <c r="B239" s="36"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -8127,7 +8270,7 @@
       <c r="Z239" s="6"/>
     </row>
     <row r="240">
-      <c r="A240" s="35"/>
+      <c r="A240" s="38"/>
       <c r="B240" s="36"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
@@ -8155,7 +8298,7 @@
       <c r="Z240" s="6"/>
     </row>
     <row r="241">
-      <c r="A241" s="35"/>
+      <c r="A241" s="38"/>
       <c r="B241" s="36"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
@@ -8183,7 +8326,7 @@
       <c r="Z241" s="6"/>
     </row>
     <row r="242">
-      <c r="A242" s="35"/>
+      <c r="A242" s="38"/>
       <c r="B242" s="36"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
@@ -8211,7 +8354,7 @@
       <c r="Z242" s="6"/>
     </row>
     <row r="243">
-      <c r="A243" s="35"/>
+      <c r="A243" s="38"/>
       <c r="B243" s="36"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
@@ -8239,7 +8382,7 @@
       <c r="Z243" s="6"/>
     </row>
     <row r="244">
-      <c r="A244" s="35"/>
+      <c r="A244" s="38"/>
       <c r="B244" s="36"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
@@ -8267,7 +8410,7 @@
       <c r="Z244" s="6"/>
     </row>
     <row r="245">
-      <c r="A245" s="35"/>
+      <c r="A245" s="38"/>
       <c r="B245" s="36"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
@@ -8295,7 +8438,7 @@
       <c r="Z245" s="6"/>
     </row>
     <row r="246">
-      <c r="A246" s="35"/>
+      <c r="A246" s="38"/>
       <c r="B246" s="36"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -8323,7 +8466,7 @@
       <c r="Z246" s="6"/>
     </row>
     <row r="247">
-      <c r="A247" s="35"/>
+      <c r="A247" s="38"/>
       <c r="B247" s="36"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -8351,7 +8494,7 @@
       <c r="Z247" s="6"/>
     </row>
     <row r="248">
-      <c r="A248" s="35"/>
+      <c r="A248" s="38"/>
       <c r="B248" s="36"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
@@ -8379,7 +8522,7 @@
       <c r="Z248" s="6"/>
     </row>
     <row r="249">
-      <c r="A249" s="35"/>
+      <c r="A249" s="38"/>
       <c r="B249" s="36"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
@@ -8407,7 +8550,7 @@
       <c r="Z249" s="6"/>
     </row>
     <row r="250">
-      <c r="A250" s="35"/>
+      <c r="A250" s="38"/>
       <c r="B250" s="36"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
@@ -8435,7 +8578,7 @@
       <c r="Z250" s="6"/>
     </row>
     <row r="251">
-      <c r="A251" s="35"/>
+      <c r="A251" s="38"/>
       <c r="B251" s="36"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
@@ -8463,7 +8606,7 @@
       <c r="Z251" s="6"/>
     </row>
     <row r="252">
-      <c r="A252" s="35"/>
+      <c r="A252" s="38"/>
       <c r="B252" s="36"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
@@ -8491,7 +8634,7 @@
       <c r="Z252" s="6"/>
     </row>
     <row r="253">
-      <c r="A253" s="35"/>
+      <c r="A253" s="38"/>
       <c r="B253" s="36"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
@@ -8519,7 +8662,7 @@
       <c r="Z253" s="6"/>
     </row>
     <row r="254">
-      <c r="A254" s="35"/>
+      <c r="A254" s="38"/>
       <c r="B254" s="36"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
@@ -8547,7 +8690,7 @@
       <c r="Z254" s="6"/>
     </row>
     <row r="255">
-      <c r="A255" s="35"/>
+      <c r="A255" s="38"/>
       <c r="B255" s="36"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
@@ -8575,7 +8718,7 @@
       <c r="Z255" s="6"/>
     </row>
     <row r="256">
-      <c r="A256" s="35"/>
+      <c r="A256" s="38"/>
       <c r="B256" s="36"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
@@ -8603,7 +8746,7 @@
       <c r="Z256" s="6"/>
     </row>
     <row r="257">
-      <c r="A257" s="35"/>
+      <c r="A257" s="38"/>
       <c r="B257" s="36"/>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
@@ -8631,7 +8774,7 @@
       <c r="Z257" s="6"/>
     </row>
     <row r="258">
-      <c r="A258" s="35"/>
+      <c r="A258" s="38"/>
       <c r="B258" s="36"/>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
@@ -8659,7 +8802,7 @@
       <c r="Z258" s="6"/>
     </row>
     <row r="259">
-      <c r="A259" s="35"/>
+      <c r="A259" s="38"/>
       <c r="B259" s="36"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
@@ -8687,7 +8830,7 @@
       <c r="Z259" s="6"/>
     </row>
     <row r="260">
-      <c r="A260" s="35"/>
+      <c r="A260" s="38"/>
       <c r="B260" s="36"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
@@ -8715,7 +8858,7 @@
       <c r="Z260" s="6"/>
     </row>
     <row r="261">
-      <c r="A261" s="35"/>
+      <c r="A261" s="38"/>
       <c r="B261" s="36"/>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
@@ -8743,7 +8886,7 @@
       <c r="Z261" s="6"/>
     </row>
     <row r="262">
-      <c r="A262" s="35"/>
+      <c r="A262" s="38"/>
       <c r="B262" s="36"/>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
@@ -8771,7 +8914,7 @@
       <c r="Z262" s="6"/>
     </row>
     <row r="263">
-      <c r="A263" s="35"/>
+      <c r="A263" s="38"/>
       <c r="B263" s="36"/>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
@@ -8799,7 +8942,7 @@
       <c r="Z263" s="6"/>
     </row>
     <row r="264">
-      <c r="A264" s="35"/>
+      <c r="A264" s="38"/>
       <c r="B264" s="36"/>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
@@ -8827,7 +8970,7 @@
       <c r="Z264" s="6"/>
     </row>
     <row r="265">
-      <c r="A265" s="35"/>
+      <c r="A265" s="38"/>
       <c r="B265" s="36"/>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
@@ -8855,7 +8998,7 @@
       <c r="Z265" s="6"/>
     </row>
     <row r="266">
-      <c r="A266" s="35"/>
+      <c r="A266" s="38"/>
       <c r="B266" s="36"/>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
@@ -8883,7 +9026,7 @@
       <c r="Z266" s="6"/>
     </row>
     <row r="267">
-      <c r="A267" s="35"/>
+      <c r="A267" s="38"/>
       <c r="B267" s="36"/>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
@@ -8911,7 +9054,7 @@
       <c r="Z267" s="6"/>
     </row>
     <row r="268">
-      <c r="A268" s="35"/>
+      <c r="A268" s="38"/>
       <c r="B268" s="36"/>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
@@ -8939,7 +9082,7 @@
       <c r="Z268" s="6"/>
     </row>
     <row r="269">
-      <c r="A269" s="35"/>
+      <c r="A269" s="38"/>
       <c r="B269" s="36"/>
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
@@ -8967,7 +9110,7 @@
       <c r="Z269" s="6"/>
     </row>
     <row r="270">
-      <c r="A270" s="35"/>
+      <c r="A270" s="38"/>
       <c r="B270" s="36"/>
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
@@ -8995,7 +9138,7 @@
       <c r="Z270" s="6"/>
     </row>
     <row r="271">
-      <c r="A271" s="35"/>
+      <c r="A271" s="38"/>
       <c r="B271" s="36"/>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
@@ -9023,7 +9166,7 @@
       <c r="Z271" s="6"/>
     </row>
     <row r="272">
-      <c r="A272" s="35"/>
+      <c r="A272" s="38"/>
       <c r="B272" s="36"/>
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
@@ -9051,7 +9194,7 @@
       <c r="Z272" s="6"/>
     </row>
     <row r="273">
-      <c r="A273" s="35"/>
+      <c r="A273" s="38"/>
       <c r="B273" s="36"/>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
@@ -9079,7 +9222,7 @@
       <c r="Z273" s="6"/>
     </row>
     <row r="274">
-      <c r="A274" s="35"/>
+      <c r="A274" s="38"/>
       <c r="B274" s="36"/>
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
@@ -9107,7 +9250,7 @@
       <c r="Z274" s="6"/>
     </row>
     <row r="275">
-      <c r="A275" s="35"/>
+      <c r="A275" s="38"/>
       <c r="B275" s="36"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
@@ -9135,7 +9278,7 @@
       <c r="Z275" s="6"/>
     </row>
     <row r="276">
-      <c r="A276" s="35"/>
+      <c r="A276" s="38"/>
       <c r="B276" s="36"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
@@ -9163,7 +9306,7 @@
       <c r="Z276" s="6"/>
     </row>
     <row r="277">
-      <c r="A277" s="35"/>
+      <c r="A277" s="38"/>
       <c r="B277" s="36"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
@@ -9191,7 +9334,7 @@
       <c r="Z277" s="6"/>
     </row>
     <row r="278">
-      <c r="A278" s="35"/>
+      <c r="A278" s="38"/>
       <c r="B278" s="36"/>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
@@ -9219,7 +9362,7 @@
       <c r="Z278" s="6"/>
     </row>
     <row r="279">
-      <c r="A279" s="35"/>
+      <c r="A279" s="38"/>
       <c r="B279" s="36"/>
       <c r="C279" s="6"/>
       <c r="D279" s="6"/>
@@ -9247,7 +9390,7 @@
       <c r="Z279" s="6"/>
     </row>
     <row r="280">
-      <c r="A280" s="35"/>
+      <c r="A280" s="38"/>
       <c r="B280" s="36"/>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
@@ -9275,7 +9418,7 @@
       <c r="Z280" s="6"/>
     </row>
     <row r="281">
-      <c r="A281" s="35"/>
+      <c r="A281" s="38"/>
       <c r="B281" s="36"/>
       <c r="C281" s="6"/>
       <c r="D281" s="6"/>
@@ -9303,7 +9446,7 @@
       <c r="Z281" s="6"/>
     </row>
     <row r="282">
-      <c r="A282" s="35"/>
+      <c r="A282" s="38"/>
       <c r="B282" s="36"/>
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
@@ -9331,7 +9474,7 @@
       <c r="Z282" s="6"/>
     </row>
     <row r="283">
-      <c r="A283" s="35"/>
+      <c r="A283" s="38"/>
       <c r="B283" s="36"/>
       <c r="C283" s="6"/>
       <c r="D283" s="6"/>
@@ -9359,7 +9502,7 @@
       <c r="Z283" s="6"/>
     </row>
     <row r="284">
-      <c r="A284" s="35"/>
+      <c r="A284" s="38"/>
       <c r="B284" s="36"/>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
@@ -9387,7 +9530,7 @@
       <c r="Z284" s="6"/>
     </row>
     <row r="285">
-      <c r="A285" s="35"/>
+      <c r="A285" s="38"/>
       <c r="B285" s="36"/>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
@@ -9415,7 +9558,7 @@
       <c r="Z285" s="6"/>
     </row>
     <row r="286">
-      <c r="A286" s="35"/>
+      <c r="A286" s="38"/>
       <c r="B286" s="36"/>
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
@@ -9443,7 +9586,7 @@
       <c r="Z286" s="6"/>
     </row>
     <row r="287">
-      <c r="A287" s="35"/>
+      <c r="A287" s="38"/>
       <c r="B287" s="36"/>
       <c r="C287" s="6"/>
       <c r="D287" s="6"/>
@@ -9471,7 +9614,7 @@
       <c r="Z287" s="6"/>
     </row>
     <row r="288">
-      <c r="A288" s="35"/>
+      <c r="A288" s="38"/>
       <c r="B288" s="36"/>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
@@ -9499,7 +9642,7 @@
       <c r="Z288" s="6"/>
     </row>
     <row r="289">
-      <c r="A289" s="35"/>
+      <c r="A289" s="38"/>
       <c r="B289" s="36"/>
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
@@ -9527,7 +9670,7 @@
       <c r="Z289" s="6"/>
     </row>
     <row r="290">
-      <c r="A290" s="35"/>
+      <c r="A290" s="38"/>
       <c r="B290" s="36"/>
       <c r="C290" s="6"/>
       <c r="D290" s="6"/>
@@ -9555,7 +9698,7 @@
       <c r="Z290" s="6"/>
     </row>
     <row r="291">
-      <c r="A291" s="35"/>
+      <c r="A291" s="38"/>
       <c r="B291" s="36"/>
       <c r="C291" s="6"/>
       <c r="D291" s="6"/>
@@ -9583,7 +9726,7 @@
       <c r="Z291" s="6"/>
     </row>
     <row r="292">
-      <c r="A292" s="35"/>
+      <c r="A292" s="38"/>
       <c r="B292" s="36"/>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
@@ -9611,7 +9754,7 @@
       <c r="Z292" s="6"/>
     </row>
     <row r="293">
-      <c r="A293" s="35"/>
+      <c r="A293" s="38"/>
       <c r="B293" s="36"/>
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
@@ -9639,7 +9782,7 @@
       <c r="Z293" s="6"/>
     </row>
     <row r="294">
-      <c r="A294" s="35"/>
+      <c r="A294" s="38"/>
       <c r="B294" s="36"/>
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
@@ -9667,7 +9810,7 @@
       <c r="Z294" s="6"/>
     </row>
     <row r="295">
-      <c r="A295" s="35"/>
+      <c r="A295" s="38"/>
       <c r="B295" s="36"/>
       <c r="C295" s="6"/>
       <c r="D295" s="6"/>
@@ -9695,7 +9838,7 @@
       <c r="Z295" s="6"/>
     </row>
     <row r="296">
-      <c r="A296" s="35"/>
+      <c r="A296" s="38"/>
       <c r="B296" s="36"/>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
@@ -9723,7 +9866,7 @@
       <c r="Z296" s="6"/>
     </row>
     <row r="297">
-      <c r="A297" s="35"/>
+      <c r="A297" s="38"/>
       <c r="B297" s="36"/>
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
@@ -9751,7 +9894,7 @@
       <c r="Z297" s="6"/>
     </row>
     <row r="298">
-      <c r="A298" s="35"/>
+      <c r="A298" s="38"/>
       <c r="B298" s="36"/>
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
@@ -9779,7 +9922,7 @@
       <c r="Z298" s="6"/>
     </row>
     <row r="299">
-      <c r="A299" s="35"/>
+      <c r="A299" s="38"/>
       <c r="B299" s="36"/>
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
@@ -9807,7 +9950,7 @@
       <c r="Z299" s="6"/>
     </row>
     <row r="300">
-      <c r="A300" s="35"/>
+      <c r="A300" s="38"/>
       <c r="B300" s="36"/>
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
@@ -9835,7 +9978,7 @@
       <c r="Z300" s="6"/>
     </row>
     <row r="301">
-      <c r="A301" s="35"/>
+      <c r="A301" s="38"/>
       <c r="B301" s="36"/>
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
@@ -9863,7 +10006,7 @@
       <c r="Z301" s="6"/>
     </row>
     <row r="302">
-      <c r="A302" s="35"/>
+      <c r="A302" s="38"/>
       <c r="B302" s="36"/>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
@@ -9891,7 +10034,7 @@
       <c r="Z302" s="6"/>
     </row>
     <row r="303">
-      <c r="A303" s="35"/>
+      <c r="A303" s="38"/>
       <c r="B303" s="36"/>
       <c r="C303" s="6"/>
       <c r="D303" s="6"/>
@@ -9919,7 +10062,7 @@
       <c r="Z303" s="6"/>
     </row>
     <row r="304">
-      <c r="A304" s="35"/>
+      <c r="A304" s="38"/>
       <c r="B304" s="36"/>
       <c r="C304" s="6"/>
       <c r="D304" s="6"/>
@@ -9947,7 +10090,7 @@
       <c r="Z304" s="6"/>
     </row>
     <row r="305">
-      <c r="A305" s="35"/>
+      <c r="A305" s="38"/>
       <c r="B305" s="36"/>
       <c r="C305" s="6"/>
       <c r="D305" s="6"/>
@@ -9975,7 +10118,7 @@
       <c r="Z305" s="6"/>
     </row>
     <row r="306">
-      <c r="A306" s="35"/>
+      <c r="A306" s="38"/>
       <c r="B306" s="36"/>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
@@ -10003,7 +10146,7 @@
       <c r="Z306" s="6"/>
     </row>
     <row r="307">
-      <c r="A307" s="35"/>
+      <c r="A307" s="38"/>
       <c r="B307" s="36"/>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
@@ -10031,7 +10174,7 @@
       <c r="Z307" s="6"/>
     </row>
     <row r="308">
-      <c r="A308" s="35"/>
+      <c r="A308" s="38"/>
       <c r="B308" s="36"/>
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
@@ -10059,7 +10202,7 @@
       <c r="Z308" s="6"/>
     </row>
     <row r="309">
-      <c r="A309" s="35"/>
+      <c r="A309" s="38"/>
       <c r="B309" s="36"/>
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
@@ -10087,7 +10230,7 @@
       <c r="Z309" s="6"/>
     </row>
     <row r="310">
-      <c r="A310" s="35"/>
+      <c r="A310" s="38"/>
       <c r="B310" s="36"/>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
@@ -10115,7 +10258,7 @@
       <c r="Z310" s="6"/>
     </row>
     <row r="311">
-      <c r="A311" s="35"/>
+      <c r="A311" s="38"/>
       <c r="B311" s="36"/>
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
@@ -10143,7 +10286,7 @@
       <c r="Z311" s="6"/>
     </row>
     <row r="312">
-      <c r="A312" s="35"/>
+      <c r="A312" s="38"/>
       <c r="B312" s="36"/>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
@@ -10171,7 +10314,7 @@
       <c r="Z312" s="6"/>
     </row>
     <row r="313">
-      <c r="A313" s="35"/>
+      <c r="A313" s="38"/>
       <c r="B313" s="36"/>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
@@ -10199,7 +10342,7 @@
       <c r="Z313" s="6"/>
     </row>
     <row r="314">
-      <c r="A314" s="35"/>
+      <c r="A314" s="38"/>
       <c r="B314" s="36"/>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
@@ -10227,7 +10370,7 @@
       <c r="Z314" s="6"/>
     </row>
     <row r="315">
-      <c r="A315" s="35"/>
+      <c r="A315" s="38"/>
       <c r="B315" s="36"/>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
@@ -10255,7 +10398,7 @@
       <c r="Z315" s="6"/>
     </row>
     <row r="316">
-      <c r="A316" s="35"/>
+      <c r="A316" s="38"/>
       <c r="B316" s="36"/>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
@@ -10283,7 +10426,7 @@
       <c r="Z316" s="6"/>
     </row>
     <row r="317">
-      <c r="A317" s="35"/>
+      <c r="A317" s="38"/>
       <c r="B317" s="36"/>
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
@@ -10311,7 +10454,7 @@
       <c r="Z317" s="6"/>
     </row>
     <row r="318">
-      <c r="A318" s="35"/>
+      <c r="A318" s="38"/>
       <c r="B318" s="36"/>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
@@ -10339,7 +10482,7 @@
       <c r="Z318" s="6"/>
     </row>
     <row r="319">
-      <c r="A319" s="35"/>
+      <c r="A319" s="38"/>
       <c r="B319" s="36"/>
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
@@ -10367,7 +10510,7 @@
       <c r="Z319" s="6"/>
     </row>
     <row r="320">
-      <c r="A320" s="35"/>
+      <c r="A320" s="38"/>
       <c r="B320" s="36"/>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
@@ -10395,7 +10538,7 @@
       <c r="Z320" s="6"/>
     </row>
     <row r="321">
-      <c r="A321" s="35"/>
+      <c r="A321" s="38"/>
       <c r="B321" s="36"/>
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
@@ -10423,7 +10566,7 @@
       <c r="Z321" s="6"/>
     </row>
     <row r="322">
-      <c r="A322" s="35"/>
+      <c r="A322" s="38"/>
       <c r="B322" s="36"/>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
@@ -10451,7 +10594,7 @@
       <c r="Z322" s="6"/>
     </row>
     <row r="323">
-      <c r="A323" s="35"/>
+      <c r="A323" s="38"/>
       <c r="B323" s="36"/>
       <c r="C323" s="6"/>
       <c r="D323" s="6"/>
@@ -10479,7 +10622,7 @@
       <c r="Z323" s="6"/>
     </row>
     <row r="324">
-      <c r="A324" s="35"/>
+      <c r="A324" s="38"/>
       <c r="B324" s="36"/>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
@@ -10507,7 +10650,7 @@
       <c r="Z324" s="6"/>
     </row>
     <row r="325">
-      <c r="A325" s="35"/>
+      <c r="A325" s="38"/>
       <c r="B325" s="36"/>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
@@ -10535,7 +10678,7 @@
       <c r="Z325" s="6"/>
     </row>
     <row r="326">
-      <c r="A326" s="35"/>
+      <c r="A326" s="38"/>
       <c r="B326" s="36"/>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
@@ -10563,7 +10706,7 @@
       <c r="Z326" s="6"/>
     </row>
     <row r="327">
-      <c r="A327" s="35"/>
+      <c r="A327" s="38"/>
       <c r="B327" s="36"/>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
@@ -10591,7 +10734,7 @@
       <c r="Z327" s="6"/>
     </row>
     <row r="328">
-      <c r="A328" s="35"/>
+      <c r="A328" s="38"/>
       <c r="B328" s="36"/>
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
@@ -10619,7 +10762,7 @@
       <c r="Z328" s="6"/>
     </row>
     <row r="329">
-      <c r="A329" s="35"/>
+      <c r="A329" s="38"/>
       <c r="B329" s="36"/>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
@@ -10647,7 +10790,7 @@
       <c r="Z329" s="6"/>
     </row>
     <row r="330">
-      <c r="A330" s="35"/>
+      <c r="A330" s="38"/>
       <c r="B330" s="36"/>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
@@ -10675,7 +10818,7 @@
       <c r="Z330" s="6"/>
     </row>
     <row r="331">
-      <c r="A331" s="35"/>
+      <c r="A331" s="38"/>
       <c r="B331" s="36"/>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
@@ -10703,7 +10846,7 @@
       <c r="Z331" s="6"/>
     </row>
     <row r="332">
-      <c r="A332" s="35"/>
+      <c r="A332" s="38"/>
       <c r="B332" s="36"/>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
@@ -10731,7 +10874,7 @@
       <c r="Z332" s="6"/>
     </row>
     <row r="333">
-      <c r="A333" s="35"/>
+      <c r="A333" s="38"/>
       <c r="B333" s="36"/>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
@@ -10759,7 +10902,7 @@
       <c r="Z333" s="6"/>
     </row>
     <row r="334">
-      <c r="A334" s="35"/>
+      <c r="A334" s="38"/>
       <c r="B334" s="36"/>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
@@ -10787,7 +10930,7 @@
       <c r="Z334" s="6"/>
     </row>
     <row r="335">
-      <c r="A335" s="35"/>
+      <c r="A335" s="38"/>
       <c r="B335" s="36"/>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
@@ -10815,7 +10958,7 @@
       <c r="Z335" s="6"/>
     </row>
     <row r="336">
-      <c r="A336" s="35"/>
+      <c r="A336" s="38"/>
       <c r="B336" s="36"/>
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
@@ -10843,7 +10986,7 @@
       <c r="Z336" s="6"/>
     </row>
     <row r="337">
-      <c r="A337" s="35"/>
+      <c r="A337" s="38"/>
       <c r="B337" s="36"/>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
@@ -10871,7 +11014,7 @@
       <c r="Z337" s="6"/>
     </row>
     <row r="338">
-      <c r="A338" s="35"/>
+      <c r="A338" s="38"/>
       <c r="B338" s="36"/>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
@@ -10899,7 +11042,7 @@
       <c r="Z338" s="6"/>
     </row>
     <row r="339">
-      <c r="A339" s="35"/>
+      <c r="A339" s="38"/>
       <c r="B339" s="36"/>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
@@ -10927,7 +11070,7 @@
       <c r="Z339" s="6"/>
     </row>
     <row r="340">
-      <c r="A340" s="35"/>
+      <c r="A340" s="38"/>
       <c r="B340" s="36"/>
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
@@ -10955,7 +11098,7 @@
       <c r="Z340" s="6"/>
     </row>
     <row r="341">
-      <c r="A341" s="35"/>
+      <c r="A341" s="38"/>
       <c r="B341" s="36"/>
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
@@ -10983,7 +11126,7 @@
       <c r="Z341" s="6"/>
     </row>
     <row r="342">
-      <c r="A342" s="35"/>
+      <c r="A342" s="38"/>
       <c r="B342" s="36"/>
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
@@ -11011,7 +11154,7 @@
       <c r="Z342" s="6"/>
     </row>
     <row r="343">
-      <c r="A343" s="35"/>
+      <c r="A343" s="38"/>
       <c r="B343" s="36"/>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
@@ -11039,7 +11182,7 @@
       <c r="Z343" s="6"/>
     </row>
     <row r="344">
-      <c r="A344" s="35"/>
+      <c r="A344" s="38"/>
       <c r="B344" s="36"/>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
@@ -11067,7 +11210,7 @@
       <c r="Z344" s="6"/>
     </row>
     <row r="345">
-      <c r="A345" s="35"/>
+      <c r="A345" s="38"/>
       <c r="B345" s="36"/>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
@@ -11095,7 +11238,7 @@
       <c r="Z345" s="6"/>
     </row>
     <row r="346">
-      <c r="A346" s="35"/>
+      <c r="A346" s="38"/>
       <c r="B346" s="36"/>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
@@ -11123,7 +11266,7 @@
       <c r="Z346" s="6"/>
     </row>
     <row r="347">
-      <c r="A347" s="35"/>
+      <c r="A347" s="38"/>
       <c r="B347" s="36"/>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
@@ -11151,7 +11294,7 @@
       <c r="Z347" s="6"/>
     </row>
     <row r="348">
-      <c r="A348" s="35"/>
+      <c r="A348" s="38"/>
       <c r="B348" s="36"/>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
@@ -11179,7 +11322,7 @@
       <c r="Z348" s="6"/>
     </row>
     <row r="349">
-      <c r="A349" s="35"/>
+      <c r="A349" s="38"/>
       <c r="B349" s="36"/>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
@@ -11207,7 +11350,7 @@
       <c r="Z349" s="6"/>
     </row>
     <row r="350">
-      <c r="A350" s="35"/>
+      <c r="A350" s="38"/>
       <c r="B350" s="36"/>
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
@@ -11235,7 +11378,7 @@
       <c r="Z350" s="6"/>
     </row>
     <row r="351">
-      <c r="A351" s="35"/>
+      <c r="A351" s="38"/>
       <c r="B351" s="36"/>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
@@ -11263,7 +11406,7 @@
       <c r="Z351" s="6"/>
     </row>
     <row r="352">
-      <c r="A352" s="35"/>
+      <c r="A352" s="38"/>
       <c r="B352" s="36"/>
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
@@ -11291,7 +11434,7 @@
       <c r="Z352" s="6"/>
     </row>
     <row r="353">
-      <c r="A353" s="35"/>
+      <c r="A353" s="38"/>
       <c r="B353" s="36"/>
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
@@ -11319,7 +11462,7 @@
       <c r="Z353" s="6"/>
     </row>
     <row r="354">
-      <c r="A354" s="35"/>
+      <c r="A354" s="38"/>
       <c r="B354" s="36"/>
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
@@ -11347,7 +11490,7 @@
       <c r="Z354" s="6"/>
     </row>
     <row r="355">
-      <c r="A355" s="35"/>
+      <c r="A355" s="38"/>
       <c r="B355" s="36"/>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
@@ -11375,7 +11518,7 @@
       <c r="Z355" s="6"/>
     </row>
     <row r="356">
-      <c r="A356" s="35"/>
+      <c r="A356" s="38"/>
       <c r="B356" s="36"/>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
@@ -11403,7 +11546,7 @@
       <c r="Z356" s="6"/>
     </row>
     <row r="357">
-      <c r="A357" s="35"/>
+      <c r="A357" s="38"/>
       <c r="B357" s="36"/>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
@@ -11431,7 +11574,7 @@
       <c r="Z357" s="6"/>
     </row>
     <row r="358">
-      <c r="A358" s="35"/>
+      <c r="A358" s="38"/>
       <c r="B358" s="36"/>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
@@ -11459,7 +11602,7 @@
       <c r="Z358" s="6"/>
     </row>
     <row r="359">
-      <c r="A359" s="35"/>
+      <c r="A359" s="38"/>
       <c r="B359" s="36"/>
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
@@ -11487,7 +11630,7 @@
       <c r="Z359" s="6"/>
     </row>
     <row r="360">
-      <c r="A360" s="35"/>
+      <c r="A360" s="38"/>
       <c r="B360" s="36"/>
       <c r="C360" s="6"/>
       <c r="D360" s="6"/>
@@ -11515,7 +11658,7 @@
       <c r="Z360" s="6"/>
     </row>
     <row r="361">
-      <c r="A361" s="35"/>
+      <c r="A361" s="38"/>
       <c r="B361" s="36"/>
       <c r="C361" s="6"/>
       <c r="D361" s="6"/>
@@ -11543,7 +11686,7 @@
       <c r="Z361" s="6"/>
     </row>
     <row r="362">
-      <c r="A362" s="35"/>
+      <c r="A362" s="38"/>
       <c r="B362" s="36"/>
       <c r="C362" s="6"/>
       <c r="D362" s="6"/>
@@ -11571,7 +11714,7 @@
       <c r="Z362" s="6"/>
     </row>
     <row r="363">
-      <c r="A363" s="35"/>
+      <c r="A363" s="38"/>
       <c r="B363" s="36"/>
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
@@ -11599,7 +11742,7 @@
       <c r="Z363" s="6"/>
     </row>
     <row r="364">
-      <c r="A364" s="35"/>
+      <c r="A364" s="38"/>
       <c r="B364" s="36"/>
       <c r="C364" s="6"/>
       <c r="D364" s="6"/>
@@ -11627,7 +11770,7 @@
       <c r="Z364" s="6"/>
     </row>
     <row r="365">
-      <c r="A365" s="35"/>
+      <c r="A365" s="38"/>
       <c r="B365" s="36"/>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
@@ -11655,7 +11798,7 @@
       <c r="Z365" s="6"/>
     </row>
     <row r="366">
-      <c r="A366" s="35"/>
+      <c r="A366" s="38"/>
       <c r="B366" s="36"/>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
@@ -11683,7 +11826,7 @@
       <c r="Z366" s="6"/>
     </row>
     <row r="367">
-      <c r="A367" s="35"/>
+      <c r="A367" s="38"/>
       <c r="B367" s="36"/>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
@@ -11711,7 +11854,7 @@
       <c r="Z367" s="6"/>
     </row>
     <row r="368">
-      <c r="A368" s="35"/>
+      <c r="A368" s="38"/>
       <c r="B368" s="36"/>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
@@ -11739,7 +11882,7 @@
       <c r="Z368" s="6"/>
     </row>
     <row r="369">
-      <c r="A369" s="35"/>
+      <c r="A369" s="38"/>
       <c r="B369" s="36"/>
       <c r="C369" s="6"/>
       <c r="D369" s="6"/>
@@ -11767,7 +11910,7 @@
       <c r="Z369" s="6"/>
     </row>
     <row r="370">
-      <c r="A370" s="35"/>
+      <c r="A370" s="38"/>
       <c r="B370" s="36"/>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
@@ -11795,7 +11938,7 @@
       <c r="Z370" s="6"/>
     </row>
     <row r="371">
-      <c r="A371" s="35"/>
+      <c r="A371" s="38"/>
       <c r="B371" s="36"/>
       <c r="C371" s="6"/>
       <c r="D371" s="6"/>
@@ -11823,7 +11966,7 @@
       <c r="Z371" s="6"/>
     </row>
     <row r="372">
-      <c r="A372" s="35"/>
+      <c r="A372" s="38"/>
       <c r="B372" s="36"/>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
@@ -11851,7 +11994,7 @@
       <c r="Z372" s="6"/>
     </row>
     <row r="373">
-      <c r="A373" s="35"/>
+      <c r="A373" s="38"/>
       <c r="B373" s="36"/>
       <c r="C373" s="6"/>
       <c r="D373" s="6"/>
@@ -11879,7 +12022,7 @@
       <c r="Z373" s="6"/>
     </row>
     <row r="374">
-      <c r="A374" s="35"/>
+      <c r="A374" s="38"/>
       <c r="B374" s="36"/>
       <c r="C374" s="6"/>
       <c r="D374" s="6"/>
@@ -11907,7 +12050,7 @@
       <c r="Z374" s="6"/>
     </row>
     <row r="375">
-      <c r="A375" s="35"/>
+      <c r="A375" s="38"/>
       <c r="B375" s="36"/>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
@@ -11935,7 +12078,7 @@
       <c r="Z375" s="6"/>
     </row>
     <row r="376">
-      <c r="A376" s="35"/>
+      <c r="A376" s="38"/>
       <c r="B376" s="36"/>
       <c r="C376" s="6"/>
       <c r="D376" s="6"/>
@@ -11963,7 +12106,7 @@
       <c r="Z376" s="6"/>
     </row>
     <row r="377">
-      <c r="A377" s="35"/>
+      <c r="A377" s="38"/>
       <c r="B377" s="36"/>
       <c r="C377" s="6"/>
       <c r="D377" s="6"/>
@@ -11991,7 +12134,7 @@
       <c r="Z377" s="6"/>
     </row>
     <row r="378">
-      <c r="A378" s="35"/>
+      <c r="A378" s="38"/>
       <c r="B378" s="36"/>
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
@@ -12019,7 +12162,7 @@
       <c r="Z378" s="6"/>
     </row>
     <row r="379">
-      <c r="A379" s="35"/>
+      <c r="A379" s="38"/>
       <c r="B379" s="36"/>
       <c r="C379" s="6"/>
       <c r="D379" s="6"/>
@@ -12047,7 +12190,7 @@
       <c r="Z379" s="6"/>
     </row>
     <row r="380">
-      <c r="A380" s="35"/>
+      <c r="A380" s="38"/>
       <c r="B380" s="36"/>
       <c r="C380" s="6"/>
       <c r="D380" s="6"/>
@@ -12075,7 +12218,7 @@
       <c r="Z380" s="6"/>
     </row>
     <row r="381">
-      <c r="A381" s="35"/>
+      <c r="A381" s="38"/>
       <c r="B381" s="36"/>
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
@@ -12103,7 +12246,7 @@
       <c r="Z381" s="6"/>
     </row>
     <row r="382">
-      <c r="A382" s="35"/>
+      <c r="A382" s="38"/>
       <c r="B382" s="36"/>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
@@ -12131,7 +12274,7 @@
       <c r="Z382" s="6"/>
     </row>
     <row r="383">
-      <c r="A383" s="35"/>
+      <c r="A383" s="38"/>
       <c r="B383" s="36"/>
       <c r="C383" s="6"/>
       <c r="D383" s="6"/>
@@ -12159,7 +12302,7 @@
       <c r="Z383" s="6"/>
     </row>
     <row r="384">
-      <c r="A384" s="35"/>
+      <c r="A384" s="38"/>
       <c r="B384" s="36"/>
       <c r="C384" s="6"/>
       <c r="D384" s="6"/>
@@ -12187,7 +12330,7 @@
       <c r="Z384" s="6"/>
     </row>
     <row r="385">
-      <c r="A385" s="35"/>
+      <c r="A385" s="38"/>
       <c r="B385" s="36"/>
       <c r="C385" s="6"/>
       <c r="D385" s="6"/>
@@ -12215,7 +12358,7 @@
       <c r="Z385" s="6"/>
     </row>
     <row r="386">
-      <c r="A386" s="35"/>
+      <c r="A386" s="38"/>
       <c r="B386" s="36"/>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
@@ -12243,7 +12386,7 @@
       <c r="Z386" s="6"/>
     </row>
     <row r="387">
-      <c r="A387" s="35"/>
+      <c r="A387" s="38"/>
       <c r="B387" s="36"/>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
@@ -12271,7 +12414,7 @@
       <c r="Z387" s="6"/>
     </row>
     <row r="388">
-      <c r="A388" s="35"/>
+      <c r="A388" s="38"/>
       <c r="B388" s="36"/>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
@@ -12299,7 +12442,7 @@
       <c r="Z388" s="6"/>
     </row>
     <row r="389">
-      <c r="A389" s="35"/>
+      <c r="A389" s="38"/>
       <c r="B389" s="36"/>
       <c r="C389" s="6"/>
       <c r="D389" s="6"/>
@@ -12327,7 +12470,7 @@
       <c r="Z389" s="6"/>
     </row>
     <row r="390">
-      <c r="A390" s="35"/>
+      <c r="A390" s="38"/>
       <c r="B390" s="36"/>
       <c r="C390" s="6"/>
       <c r="D390" s="6"/>
@@ -12355,7 +12498,7 @@
       <c r="Z390" s="6"/>
     </row>
     <row r="391">
-      <c r="A391" s="35"/>
+      <c r="A391" s="38"/>
       <c r="B391" s="36"/>
       <c r="C391" s="6"/>
       <c r="D391" s="6"/>
@@ -12383,7 +12526,7 @@
       <c r="Z391" s="6"/>
     </row>
     <row r="392">
-      <c r="A392" s="35"/>
+      <c r="A392" s="38"/>
       <c r="B392" s="36"/>
       <c r="C392" s="6"/>
       <c r="D392" s="6"/>
@@ -12411,7 +12554,7 @@
       <c r="Z392" s="6"/>
     </row>
     <row r="393">
-      <c r="A393" s="35"/>
+      <c r="A393" s="38"/>
       <c r="B393" s="36"/>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
@@ -12439,7 +12582,7 @@
       <c r="Z393" s="6"/>
     </row>
     <row r="394">
-      <c r="A394" s="35"/>
+      <c r="A394" s="38"/>
       <c r="B394" s="36"/>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
@@ -12467,7 +12610,7 @@
       <c r="Z394" s="6"/>
     </row>
     <row r="395">
-      <c r="A395" s="35"/>
+      <c r="A395" s="38"/>
       <c r="B395" s="36"/>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
@@ -12495,7 +12638,7 @@
       <c r="Z395" s="6"/>
     </row>
     <row r="396">
-      <c r="A396" s="35"/>
+      <c r="A396" s="38"/>
       <c r="B396" s="36"/>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
@@ -12523,7 +12666,7 @@
       <c r="Z396" s="6"/>
     </row>
     <row r="397">
-      <c r="A397" s="35"/>
+      <c r="A397" s="38"/>
       <c r="B397" s="36"/>
       <c r="C397" s="6"/>
       <c r="D397" s="6"/>
@@ -12551,7 +12694,7 @@
       <c r="Z397" s="6"/>
     </row>
     <row r="398">
-      <c r="A398" s="35"/>
+      <c r="A398" s="38"/>
       <c r="B398" s="36"/>
       <c r="C398" s="6"/>
       <c r="D398" s="6"/>
@@ -12579,7 +12722,7 @@
       <c r="Z398" s="6"/>
     </row>
     <row r="399">
-      <c r="A399" s="35"/>
+      <c r="A399" s="38"/>
       <c r="B399" s="36"/>
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
@@ -12607,7 +12750,7 @@
       <c r="Z399" s="6"/>
     </row>
     <row r="400">
-      <c r="A400" s="35"/>
+      <c r="A400" s="38"/>
       <c r="B400" s="36"/>
       <c r="C400" s="6"/>
       <c r="D400" s="6"/>
@@ -12635,7 +12778,7 @@
       <c r="Z400" s="6"/>
     </row>
     <row r="401">
-      <c r="A401" s="35"/>
+      <c r="A401" s="38"/>
       <c r="B401" s="36"/>
       <c r="C401" s="6"/>
       <c r="D401" s="6"/>
@@ -12663,7 +12806,7 @@
       <c r="Z401" s="6"/>
     </row>
     <row r="402">
-      <c r="A402" s="35"/>
+      <c r="A402" s="38"/>
       <c r="B402" s="36"/>
       <c r="C402" s="6"/>
       <c r="D402" s="6"/>
@@ -12691,7 +12834,7 @@
       <c r="Z402" s="6"/>
     </row>
     <row r="403">
-      <c r="A403" s="35"/>
+      <c r="A403" s="38"/>
       <c r="B403" s="36"/>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
@@ -12719,7 +12862,7 @@
       <c r="Z403" s="6"/>
     </row>
     <row r="404">
-      <c r="A404" s="35"/>
+      <c r="A404" s="38"/>
       <c r="B404" s="36"/>
       <c r="C404" s="6"/>
       <c r="D404" s="6"/>
@@ -12747,7 +12890,7 @@
       <c r="Z404" s="6"/>
     </row>
     <row r="405">
-      <c r="A405" s="35"/>
+      <c r="A405" s="38"/>
       <c r="B405" s="36"/>
       <c r="C405" s="6"/>
       <c r="D405" s="6"/>
@@ -12775,7 +12918,7 @@
       <c r="Z405" s="6"/>
     </row>
     <row r="406">
-      <c r="A406" s="35"/>
+      <c r="A406" s="38"/>
       <c r="B406" s="36"/>
       <c r="C406" s="6"/>
       <c r="D406" s="6"/>
@@ -12803,7 +12946,7 @@
       <c r="Z406" s="6"/>
     </row>
     <row r="407">
-      <c r="A407" s="35"/>
+      <c r="A407" s="38"/>
       <c r="B407" s="36"/>
       <c r="C407" s="6"/>
       <c r="D407" s="6"/>
@@ -12831,7 +12974,7 @@
       <c r="Z407" s="6"/>
     </row>
     <row r="408">
-      <c r="A408" s="35"/>
+      <c r="A408" s="38"/>
       <c r="B408" s="36"/>
       <c r="C408" s="6"/>
       <c r="D408" s="6"/>
@@ -12859,7 +13002,7 @@
       <c r="Z408" s="6"/>
     </row>
     <row r="409">
-      <c r="A409" s="35"/>
+      <c r="A409" s="38"/>
       <c r="B409" s="36"/>
       <c r="C409" s="6"/>
       <c r="D409" s="6"/>
@@ -12887,7 +13030,7 @@
       <c r="Z409" s="6"/>
     </row>
     <row r="410">
-      <c r="A410" s="35"/>
+      <c r="A410" s="38"/>
       <c r="B410" s="36"/>
       <c r="C410" s="6"/>
       <c r="D410" s="6"/>
@@ -12915,7 +13058,7 @@
       <c r="Z410" s="6"/>
     </row>
     <row r="411">
-      <c r="A411" s="35"/>
+      <c r="A411" s="38"/>
       <c r="B411" s="36"/>
       <c r="C411" s="6"/>
       <c r="D411" s="6"/>
@@ -12943,7 +13086,7 @@
       <c r="Z411" s="6"/>
     </row>
     <row r="412">
-      <c r="A412" s="35"/>
+      <c r="A412" s="38"/>
       <c r="B412" s="36"/>
       <c r="C412" s="6"/>
       <c r="D412" s="6"/>
@@ -12971,7 +13114,7 @@
       <c r="Z412" s="6"/>
     </row>
     <row r="413">
-      <c r="A413" s="35"/>
+      <c r="A413" s="38"/>
       <c r="B413" s="36"/>
       <c r="C413" s="6"/>
       <c r="D413" s="6"/>
@@ -12999,7 +13142,7 @@
       <c r="Z413" s="6"/>
     </row>
     <row r="414">
-      <c r="A414" s="35"/>
+      <c r="A414" s="38"/>
       <c r="B414" s="36"/>
       <c r="C414" s="6"/>
       <c r="D414" s="6"/>
@@ -13027,7 +13170,7 @@
       <c r="Z414" s="6"/>
     </row>
     <row r="415">
-      <c r="A415" s="35"/>
+      <c r="A415" s="38"/>
       <c r="B415" s="36"/>
       <c r="C415" s="6"/>
       <c r="D415" s="6"/>
@@ -13055,7 +13198,7 @@
       <c r="Z415" s="6"/>
     </row>
     <row r="416">
-      <c r="A416" s="35"/>
+      <c r="A416" s="38"/>
       <c r="B416" s="36"/>
       <c r="C416" s="6"/>
       <c r="D416" s="6"/>
@@ -13083,7 +13226,7 @@
       <c r="Z416" s="6"/>
     </row>
     <row r="417">
-      <c r="A417" s="35"/>
+      <c r="A417" s="38"/>
       <c r="B417" s="36"/>
       <c r="C417" s="6"/>
       <c r="D417" s="6"/>
@@ -13111,7 +13254,7 @@
       <c r="Z417" s="6"/>
     </row>
     <row r="418">
-      <c r="A418" s="35"/>
+      <c r="A418" s="38"/>
       <c r="B418" s="36"/>
       <c r="C418" s="6"/>
       <c r="D418" s="6"/>
@@ -13139,7 +13282,7 @@
       <c r="Z418" s="6"/>
     </row>
     <row r="419">
-      <c r="A419" s="35"/>
+      <c r="A419" s="38"/>
       <c r="B419" s="36"/>
       <c r="C419" s="6"/>
       <c r="D419" s="6"/>
@@ -13167,7 +13310,7 @@
       <c r="Z419" s="6"/>
     </row>
     <row r="420">
-      <c r="A420" s="35"/>
+      <c r="A420" s="38"/>
       <c r="B420" s="36"/>
       <c r="C420" s="6"/>
       <c r="D420" s="6"/>
@@ -13195,7 +13338,7 @@
       <c r="Z420" s="6"/>
     </row>
     <row r="421">
-      <c r="A421" s="35"/>
+      <c r="A421" s="38"/>
       <c r="B421" s="36"/>
       <c r="C421" s="6"/>
       <c r="D421" s="6"/>
@@ -13223,7 +13366,7 @@
       <c r="Z421" s="6"/>
     </row>
     <row r="422">
-      <c r="A422" s="35"/>
+      <c r="A422" s="38"/>
       <c r="B422" s="36"/>
       <c r="C422" s="6"/>
       <c r="D422" s="6"/>
@@ -13251,7 +13394,7 @@
       <c r="Z422" s="6"/>
     </row>
     <row r="423">
-      <c r="A423" s="35"/>
+      <c r="A423" s="38"/>
       <c r="B423" s="36"/>
       <c r="C423" s="6"/>
       <c r="D423" s="6"/>
@@ -13279,7 +13422,7 @@
       <c r="Z423" s="6"/>
     </row>
     <row r="424">
-      <c r="A424" s="35"/>
+      <c r="A424" s="38"/>
       <c r="B424" s="36"/>
       <c r="C424" s="6"/>
       <c r="D424" s="6"/>
@@ -13307,7 +13450,7 @@
       <c r="Z424" s="6"/>
     </row>
     <row r="425">
-      <c r="A425" s="35"/>
+      <c r="A425" s="38"/>
       <c r="B425" s="36"/>
       <c r="C425" s="6"/>
       <c r="D425" s="6"/>
@@ -13335,7 +13478,7 @@
       <c r="Z425" s="6"/>
     </row>
     <row r="426">
-      <c r="A426" s="35"/>
+      <c r="A426" s="38"/>
       <c r="B426" s="36"/>
       <c r="C426" s="6"/>
       <c r="D426" s="6"/>
@@ -13363,7 +13506,7 @@
       <c r="Z426" s="6"/>
     </row>
     <row r="427">
-      <c r="A427" s="35"/>
+      <c r="A427" s="38"/>
       <c r="B427" s="36"/>
       <c r="C427" s="6"/>
       <c r="D427" s="6"/>
@@ -13391,7 +13534,7 @@
       <c r="Z427" s="6"/>
     </row>
     <row r="428">
-      <c r="A428" s="35"/>
+      <c r="A428" s="38"/>
       <c r="B428" s="36"/>
       <c r="C428" s="6"/>
       <c r="D428" s="6"/>
@@ -13419,7 +13562,7 @@
       <c r="Z428" s="6"/>
     </row>
     <row r="429">
-      <c r="A429" s="35"/>
+      <c r="A429" s="38"/>
       <c r="B429" s="36"/>
       <c r="C429" s="6"/>
       <c r="D429" s="6"/>
@@ -13447,7 +13590,7 @@
       <c r="Z429" s="6"/>
     </row>
     <row r="430">
-      <c r="A430" s="35"/>
+      <c r="A430" s="38"/>
       <c r="B430" s="36"/>
       <c r="C430" s="6"/>
       <c r="D430" s="6"/>
@@ -13475,7 +13618,7 @@
       <c r="Z430" s="6"/>
     </row>
     <row r="431">
-      <c r="A431" s="35"/>
+      <c r="A431" s="38"/>
       <c r="B431" s="36"/>
       <c r="C431" s="6"/>
       <c r="D431" s="6"/>
@@ -13503,7 +13646,7 @@
       <c r="Z431" s="6"/>
     </row>
     <row r="432">
-      <c r="A432" s="35"/>
+      <c r="A432" s="38"/>
       <c r="B432" s="36"/>
       <c r="C432" s="6"/>
       <c r="D432" s="6"/>
@@ -13531,7 +13674,7 @@
       <c r="Z432" s="6"/>
     </row>
     <row r="433">
-      <c r="A433" s="35"/>
+      <c r="A433" s="38"/>
       <c r="B433" s="36"/>
       <c r="C433" s="6"/>
       <c r="D433" s="6"/>
@@ -13559,7 +13702,7 @@
       <c r="Z433" s="6"/>
     </row>
     <row r="434">
-      <c r="A434" s="35"/>
+      <c r="A434" s="38"/>
       <c r="B434" s="36"/>
       <c r="C434" s="6"/>
       <c r="D434" s="6"/>
@@ -13587,7 +13730,7 @@
       <c r="Z434" s="6"/>
     </row>
     <row r="435">
-      <c r="A435" s="35"/>
+      <c r="A435" s="38"/>
       <c r="B435" s="36"/>
       <c r="C435" s="6"/>
       <c r="D435" s="6"/>
@@ -13615,7 +13758,7 @@
       <c r="Z435" s="6"/>
     </row>
     <row r="436">
-      <c r="A436" s="35"/>
+      <c r="A436" s="38"/>
       <c r="B436" s="36"/>
       <c r="C436" s="6"/>
       <c r="D436" s="6"/>
@@ -13643,7 +13786,7 @@
       <c r="Z436" s="6"/>
     </row>
     <row r="437">
-      <c r="A437" s="35"/>
+      <c r="A437" s="38"/>
       <c r="B437" s="36"/>
       <c r="C437" s="6"/>
       <c r="D437" s="6"/>
@@ -13671,7 +13814,7 @@
       <c r="Z437" s="6"/>
     </row>
     <row r="438">
-      <c r="A438" s="35"/>
+      <c r="A438" s="38"/>
       <c r="B438" s="36"/>
       <c r="C438" s="6"/>
       <c r="D438" s="6"/>
@@ -13699,7 +13842,7 @@
       <c r="Z438" s="6"/>
     </row>
     <row r="439">
-      <c r="A439" s="35"/>
+      <c r="A439" s="38"/>
       <c r="B439" s="36"/>
       <c r="C439" s="6"/>
       <c r="D439" s="6"/>
@@ -13727,7 +13870,7 @@
       <c r="Z439" s="6"/>
     </row>
     <row r="440">
-      <c r="A440" s="35"/>
+      <c r="A440" s="38"/>
       <c r="B440" s="36"/>
       <c r="C440" s="6"/>
       <c r="D440" s="6"/>
@@ -13755,7 +13898,7 @@
       <c r="Z440" s="6"/>
     </row>
     <row r="441">
-      <c r="A441" s="35"/>
+      <c r="A441" s="38"/>
       <c r="B441" s="36"/>
       <c r="C441" s="6"/>
       <c r="D441" s="6"/>
@@ -13783,7 +13926,7 @@
       <c r="Z441" s="6"/>
     </row>
     <row r="442">
-      <c r="A442" s="35"/>
+      <c r="A442" s="38"/>
       <c r="B442" s="36"/>
       <c r="C442" s="6"/>
       <c r="D442" s="6"/>
@@ -13811,7 +13954,7 @@
       <c r="Z442" s="6"/>
     </row>
     <row r="443">
-      <c r="A443" s="35"/>
+      <c r="A443" s="38"/>
       <c r="B443" s="36"/>
       <c r="C443" s="6"/>
       <c r="D443" s="6"/>
@@ -13839,7 +13982,7 @@
       <c r="Z443" s="6"/>
     </row>
     <row r="444">
-      <c r="A444" s="35"/>
+      <c r="A444" s="38"/>
       <c r="B444" s="36"/>
       <c r="C444" s="6"/>
       <c r="D444" s="6"/>
@@ -13867,7 +14010,7 @@
       <c r="Z444" s="6"/>
     </row>
     <row r="445">
-      <c r="A445" s="35"/>
+      <c r="A445" s="38"/>
       <c r="B445" s="36"/>
       <c r="C445" s="6"/>
       <c r="D445" s="6"/>
@@ -13895,7 +14038,7 @@
       <c r="Z445" s="6"/>
     </row>
     <row r="446">
-      <c r="A446" s="35"/>
+      <c r="A446" s="38"/>
       <c r="B446" s="36"/>
       <c r="C446" s="6"/>
       <c r="D446" s="6"/>
@@ -13923,7 +14066,7 @@
       <c r="Z446" s="6"/>
     </row>
     <row r="447">
-      <c r="A447" s="35"/>
+      <c r="A447" s="38"/>
       <c r="B447" s="36"/>
       <c r="C447" s="6"/>
       <c r="D447" s="6"/>
@@ -13951,7 +14094,7 @@
       <c r="Z447" s="6"/>
     </row>
     <row r="448">
-      <c r="A448" s="35"/>
+      <c r="A448" s="38"/>
       <c r="B448" s="36"/>
       <c r="C448" s="6"/>
       <c r="D448" s="6"/>
@@ -13979,7 +14122,7 @@
       <c r="Z448" s="6"/>
     </row>
     <row r="449">
-      <c r="A449" s="35"/>
+      <c r="A449" s="38"/>
       <c r="B449" s="36"/>
       <c r="C449" s="6"/>
       <c r="D449" s="6"/>
@@ -14007,7 +14150,7 @@
       <c r="Z449" s="6"/>
     </row>
     <row r="450">
-      <c r="A450" s="35"/>
+      <c r="A450" s="38"/>
       <c r="B450" s="36"/>
       <c r="C450" s="6"/>
       <c r="D450" s="6"/>
@@ -14035,7 +14178,7 @@
       <c r="Z450" s="6"/>
     </row>
     <row r="451">
-      <c r="A451" s="35"/>
+      <c r="A451" s="38"/>
       <c r="B451" s="36"/>
       <c r="C451" s="6"/>
       <c r="D451" s="6"/>
@@ -14063,7 +14206,7 @@
       <c r="Z451" s="6"/>
     </row>
     <row r="452">
-      <c r="A452" s="35"/>
+      <c r="A452" s="38"/>
       <c r="B452" s="36"/>
       <c r="C452" s="6"/>
       <c r="D452" s="6"/>
@@ -14091,7 +14234,7 @@
       <c r="Z452" s="6"/>
     </row>
     <row r="453">
-      <c r="A453" s="35"/>
+      <c r="A453" s="38"/>
       <c r="B453" s="36"/>
       <c r="C453" s="6"/>
       <c r="D453" s="6"/>
@@ -14119,7 +14262,7 @@
       <c r="Z453" s="6"/>
     </row>
     <row r="454">
-      <c r="A454" s="35"/>
+      <c r="A454" s="38"/>
       <c r="B454" s="36"/>
       <c r="C454" s="6"/>
       <c r="D454" s="6"/>
@@ -14147,7 +14290,7 @@
       <c r="Z454" s="6"/>
     </row>
     <row r="455">
-      <c r="A455" s="35"/>
+      <c r="A455" s="38"/>
       <c r="B455" s="36"/>
       <c r="C455" s="6"/>
       <c r="D455" s="6"/>
@@ -14175,7 +14318,7 @@
       <c r="Z455" s="6"/>
     </row>
     <row r="456">
-      <c r="A456" s="35"/>
+      <c r="A456" s="38"/>
       <c r="B456" s="36"/>
       <c r="C456" s="6"/>
       <c r="D456" s="6"/>
@@ -14203,7 +14346,7 @@
       <c r="Z456" s="6"/>
     </row>
     <row r="457">
-      <c r="A457" s="35"/>
+      <c r="A457" s="38"/>
       <c r="B457" s="36"/>
       <c r="C457" s="6"/>
       <c r="D457" s="6"/>
@@ -14231,7 +14374,7 @@
       <c r="Z457" s="6"/>
     </row>
     <row r="458">
-      <c r="A458" s="35"/>
+      <c r="A458" s="38"/>
       <c r="B458" s="36"/>
       <c r="C458" s="6"/>
       <c r="D458" s="6"/>
@@ -14259,7 +14402,7 @@
       <c r="Z458" s="6"/>
     </row>
     <row r="459">
-      <c r="A459" s="35"/>
+      <c r="A459" s="38"/>
       <c r="B459" s="36"/>
       <c r="C459" s="6"/>
       <c r="D459" s="6"/>
@@ -14287,7 +14430,7 @@
       <c r="Z459" s="6"/>
     </row>
     <row r="460">
-      <c r="A460" s="35"/>
+      <c r="A460" s="38"/>
       <c r="B460" s="36"/>
       <c r="C460" s="6"/>
       <c r="D460" s="6"/>
@@ -14315,7 +14458,7 @@
       <c r="Z460" s="6"/>
     </row>
     <row r="461">
-      <c r="A461" s="35"/>
+      <c r="A461" s="38"/>
       <c r="B461" s="36"/>
       <c r="C461" s="6"/>
       <c r="D461" s="6"/>
@@ -14343,7 +14486,7 @@
       <c r="Z461" s="6"/>
     </row>
     <row r="462">
-      <c r="A462" s="35"/>
+      <c r="A462" s="38"/>
       <c r="B462" s="36"/>
       <c r="C462" s="6"/>
       <c r="D462" s="6"/>
@@ -14371,7 +14514,7 @@
       <c r="Z462" s="6"/>
     </row>
     <row r="463">
-      <c r="A463" s="35"/>
+      <c r="A463" s="38"/>
       <c r="B463" s="36"/>
       <c r="C463" s="6"/>
       <c r="D463" s="6"/>
@@ -14399,7 +14542,7 @@
       <c r="Z463" s="6"/>
     </row>
     <row r="464">
-      <c r="A464" s="35"/>
+      <c r="A464" s="38"/>
       <c r="B464" s="36"/>
       <c r="C464" s="6"/>
       <c r="D464" s="6"/>
@@ -14427,7 +14570,7 @@
       <c r="Z464" s="6"/>
     </row>
     <row r="465">
-      <c r="A465" s="35"/>
+      <c r="A465" s="38"/>
       <c r="B465" s="36"/>
       <c r="C465" s="6"/>
       <c r="D465" s="6"/>
@@ -14455,7 +14598,7 @@
       <c r="Z465" s="6"/>
     </row>
     <row r="466">
-      <c r="A466" s="35"/>
+      <c r="A466" s="38"/>
       <c r="B466" s="36"/>
       <c r="C466" s="6"/>
       <c r="D466" s="6"/>
@@ -14483,7 +14626,7 @@
       <c r="Z466" s="6"/>
     </row>
     <row r="467">
-      <c r="A467" s="35"/>
+      <c r="A467" s="38"/>
       <c r="B467" s="36"/>
       <c r="C467" s="6"/>
       <c r="D467" s="6"/>
@@ -14511,7 +14654,7 @@
       <c r="Z467" s="6"/>
     </row>
     <row r="468">
-      <c r="A468" s="35"/>
+      <c r="A468" s="38"/>
       <c r="B468" s="36"/>
       <c r="C468" s="6"/>
       <c r="D468" s="6"/>
@@ -14539,7 +14682,7 @@
       <c r="Z468" s="6"/>
     </row>
     <row r="469">
-      <c r="A469" s="35"/>
+      <c r="A469" s="38"/>
       <c r="B469" s="36"/>
       <c r="C469" s="6"/>
       <c r="D469" s="6"/>
@@ -14567,7 +14710,7 @@
       <c r="Z469" s="6"/>
     </row>
     <row r="470">
-      <c r="A470" s="35"/>
+      <c r="A470" s="38"/>
       <c r="B470" s="36"/>
       <c r="C470" s="6"/>
       <c r="D470" s="6"/>
@@ -14595,7 +14738,7 @@
       <c r="Z470" s="6"/>
     </row>
     <row r="471">
-      <c r="A471" s="35"/>
+      <c r="A471" s="38"/>
       <c r="B471" s="36"/>
       <c r="C471" s="6"/>
       <c r="D471" s="6"/>
@@ -14623,7 +14766,7 @@
       <c r="Z471" s="6"/>
     </row>
     <row r="472">
-      <c r="A472" s="35"/>
+      <c r="A472" s="38"/>
       <c r="B472" s="36"/>
       <c r="C472" s="6"/>
       <c r="D472" s="6"/>
@@ -14651,7 +14794,7 @@
       <c r="Z472" s="6"/>
     </row>
     <row r="473">
-      <c r="A473" s="35"/>
+      <c r="A473" s="38"/>
       <c r="B473" s="36"/>
       <c r="C473" s="6"/>
       <c r="D473" s="6"/>
@@ -14679,7 +14822,7 @@
       <c r="Z473" s="6"/>
     </row>
     <row r="474">
-      <c r="A474" s="35"/>
+      <c r="A474" s="38"/>
       <c r="B474" s="36"/>
       <c r="C474" s="6"/>
       <c r="D474" s="6"/>
@@ -14707,7 +14850,7 @@
       <c r="Z474" s="6"/>
     </row>
     <row r="475">
-      <c r="A475" s="35"/>
+      <c r="A475" s="38"/>
       <c r="B475" s="36"/>
       <c r="C475" s="6"/>
       <c r="D475" s="6"/>
@@ -14735,7 +14878,7 @@
       <c r="Z475" s="6"/>
     </row>
     <row r="476">
-      <c r="A476" s="35"/>
+      <c r="A476" s="38"/>
       <c r="B476" s="36"/>
       <c r="C476" s="6"/>
       <c r="D476" s="6"/>
@@ -14763,7 +14906,7 @@
       <c r="Z476" s="6"/>
     </row>
     <row r="477">
-      <c r="A477" s="35"/>
+      <c r="A477" s="38"/>
       <c r="B477" s="36"/>
       <c r="C477" s="6"/>
       <c r="D477" s="6"/>
@@ -14791,7 +14934,7 @@
       <c r="Z477" s="6"/>
     </row>
     <row r="478">
-      <c r="A478" s="35"/>
+      <c r="A478" s="38"/>
       <c r="B478" s="36"/>
       <c r="C478" s="6"/>
       <c r="D478" s="6"/>
@@ -14819,7 +14962,7 @@
       <c r="Z478" s="6"/>
     </row>
     <row r="479">
-      <c r="A479" s="35"/>
+      <c r="A479" s="38"/>
       <c r="B479" s="36"/>
       <c r="C479" s="6"/>
       <c r="D479" s="6"/>
@@ -14847,7 +14990,7 @@
       <c r="Z479" s="6"/>
     </row>
     <row r="480">
-      <c r="A480" s="35"/>
+      <c r="A480" s="38"/>
       <c r="B480" s="36"/>
       <c r="C480" s="6"/>
       <c r="D480" s="6"/>
@@ -14875,7 +15018,7 @@
       <c r="Z480" s="6"/>
     </row>
     <row r="481">
-      <c r="A481" s="35"/>
+      <c r="A481" s="38"/>
       <c r="B481" s="36"/>
       <c r="C481" s="6"/>
       <c r="D481" s="6"/>
@@ -14903,7 +15046,7 @@
       <c r="Z481" s="6"/>
     </row>
     <row r="482">
-      <c r="A482" s="35"/>
+      <c r="A482" s="38"/>
       <c r="B482" s="36"/>
       <c r="C482" s="6"/>
       <c r="D482" s="6"/>
@@ -14931,7 +15074,7 @@
       <c r="Z482" s="6"/>
     </row>
     <row r="483">
-      <c r="A483" s="35"/>
+      <c r="A483" s="38"/>
       <c r="B483" s="36"/>
       <c r="C483" s="6"/>
       <c r="D483" s="6"/>
@@ -14959,7 +15102,7 @@
       <c r="Z483" s="6"/>
     </row>
     <row r="484">
-      <c r="A484" s="35"/>
+      <c r="A484" s="38"/>
       <c r="B484" s="36"/>
       <c r="C484" s="6"/>
       <c r="D484" s="6"/>
@@ -14987,7 +15130,7 @@
       <c r="Z484" s="6"/>
     </row>
     <row r="485">
-      <c r="A485" s="35"/>
+      <c r="A485" s="38"/>
       <c r="B485" s="36"/>
       <c r="C485" s="6"/>
       <c r="D485" s="6"/>
@@ -15015,7 +15158,7 @@
       <c r="Z485" s="6"/>
     </row>
     <row r="486">
-      <c r="A486" s="35"/>
+      <c r="A486" s="38"/>
       <c r="B486" s="36"/>
       <c r="C486" s="6"/>
       <c r="D486" s="6"/>
@@ -15043,7 +15186,7 @@
       <c r="Z486" s="6"/>
     </row>
     <row r="487">
-      <c r="A487" s="35"/>
+      <c r="A487" s="38"/>
       <c r="B487" s="36"/>
       <c r="C487" s="6"/>
       <c r="D487" s="6"/>
@@ -15071,7 +15214,7 @@
       <c r="Z487" s="6"/>
     </row>
     <row r="488">
-      <c r="A488" s="35"/>
+      <c r="A488" s="38"/>
       <c r="B488" s="36"/>
       <c r="C488" s="6"/>
       <c r="D488" s="6"/>
@@ -15099,7 +15242,7 @@
       <c r="Z488" s="6"/>
     </row>
     <row r="489">
-      <c r="A489" s="35"/>
+      <c r="A489" s="38"/>
       <c r="B489" s="36"/>
       <c r="C489" s="6"/>
       <c r="D489" s="6"/>
@@ -15127,7 +15270,7 @@
       <c r="Z489" s="6"/>
     </row>
     <row r="490">
-      <c r="A490" s="35"/>
+      <c r="A490" s="38"/>
       <c r="B490" s="36"/>
       <c r="C490" s="6"/>
       <c r="D490" s="6"/>
@@ -15155,7 +15298,7 @@
       <c r="Z490" s="6"/>
     </row>
     <row r="491">
-      <c r="A491" s="35"/>
+      <c r="A491" s="38"/>
       <c r="B491" s="36"/>
       <c r="C491" s="6"/>
       <c r="D491" s="6"/>
@@ -15183,7 +15326,7 @@
       <c r="Z491" s="6"/>
     </row>
     <row r="492">
-      <c r="A492" s="35"/>
+      <c r="A492" s="38"/>
       <c r="B492" s="36"/>
       <c r="C492" s="6"/>
       <c r="D492" s="6"/>
@@ -15211,7 +15354,7 @@
       <c r="Z492" s="6"/>
     </row>
     <row r="493">
-      <c r="A493" s="35"/>
+      <c r="A493" s="38"/>
       <c r="B493" s="36"/>
       <c r="C493" s="6"/>
       <c r="D493" s="6"/>
@@ -15239,7 +15382,7 @@
       <c r="Z493" s="6"/>
     </row>
     <row r="494">
-      <c r="A494" s="35"/>
+      <c r="A494" s="38"/>
       <c r="B494" s="36"/>
       <c r="C494" s="6"/>
       <c r="D494" s="6"/>
@@ -15267,7 +15410,7 @@
       <c r="Z494" s="6"/>
     </row>
     <row r="495">
-      <c r="A495" s="35"/>
+      <c r="A495" s="38"/>
       <c r="B495" s="36"/>
       <c r="C495" s="6"/>
       <c r="D495" s="6"/>
@@ -15295,7 +15438,7 @@
       <c r="Z495" s="6"/>
     </row>
     <row r="496">
-      <c r="A496" s="35"/>
+      <c r="A496" s="38"/>
       <c r="B496" s="36"/>
       <c r="C496" s="6"/>
       <c r="D496" s="6"/>
@@ -15323,7 +15466,7 @@
       <c r="Z496" s="6"/>
     </row>
     <row r="497">
-      <c r="A497" s="35"/>
+      <c r="A497" s="38"/>
       <c r="B497" s="36"/>
       <c r="C497" s="6"/>
       <c r="D497" s="6"/>
@@ -15351,7 +15494,7 @@
       <c r="Z497" s="6"/>
     </row>
     <row r="498">
-      <c r="A498" s="35"/>
+      <c r="A498" s="38"/>
       <c r="B498" s="36"/>
       <c r="C498" s="6"/>
       <c r="D498" s="6"/>
@@ -15379,7 +15522,7 @@
       <c r="Z498" s="6"/>
     </row>
     <row r="499">
-      <c r="A499" s="35"/>
+      <c r="A499" s="38"/>
       <c r="B499" s="36"/>
       <c r="C499" s="6"/>
       <c r="D499" s="6"/>
@@ -15407,7 +15550,7 @@
       <c r="Z499" s="6"/>
     </row>
     <row r="500">
-      <c r="A500" s="35"/>
+      <c r="A500" s="38"/>
       <c r="B500" s="36"/>
       <c r="C500" s="6"/>
       <c r="D500" s="6"/>
@@ -15435,7 +15578,7 @@
       <c r="Z500" s="6"/>
     </row>
     <row r="501">
-      <c r="A501" s="35"/>
+      <c r="A501" s="38"/>
       <c r="B501" s="36"/>
       <c r="C501" s="6"/>
       <c r="D501" s="6"/>
@@ -15463,7 +15606,7 @@
       <c r="Z501" s="6"/>
     </row>
     <row r="502">
-      <c r="A502" s="35"/>
+      <c r="A502" s="38"/>
       <c r="B502" s="36"/>
       <c r="C502" s="6"/>
       <c r="D502" s="6"/>
@@ -15491,7 +15634,7 @@
       <c r="Z502" s="6"/>
     </row>
     <row r="503">
-      <c r="A503" s="35"/>
+      <c r="A503" s="38"/>
       <c r="B503" s="36"/>
       <c r="C503" s="6"/>
       <c r="D503" s="6"/>
@@ -15519,7 +15662,7 @@
       <c r="Z503" s="6"/>
     </row>
     <row r="504">
-      <c r="A504" s="35"/>
+      <c r="A504" s="38"/>
       <c r="B504" s="36"/>
       <c r="C504" s="6"/>
       <c r="D504" s="6"/>
@@ -15547,7 +15690,7 @@
       <c r="Z504" s="6"/>
     </row>
     <row r="505">
-      <c r="A505" s="35"/>
+      <c r="A505" s="38"/>
       <c r="B505" s="36"/>
       <c r="C505" s="6"/>
       <c r="D505" s="6"/>
@@ -15575,7 +15718,7 @@
       <c r="Z505" s="6"/>
     </row>
     <row r="506">
-      <c r="A506" s="35"/>
+      <c r="A506" s="38"/>
       <c r="B506" s="36"/>
       <c r="C506" s="6"/>
       <c r="D506" s="6"/>
@@ -15603,7 +15746,7 @@
       <c r="Z506" s="6"/>
     </row>
     <row r="507">
-      <c r="A507" s="35"/>
+      <c r="A507" s="38"/>
       <c r="B507" s="36"/>
       <c r="C507" s="6"/>
       <c r="D507" s="6"/>
@@ -15631,7 +15774,7 @@
       <c r="Z507" s="6"/>
     </row>
     <row r="508">
-      <c r="A508" s="35"/>
+      <c r="A508" s="38"/>
       <c r="B508" s="36"/>
       <c r="C508" s="6"/>
       <c r="D508" s="6"/>
@@ -15659,7 +15802,7 @@
       <c r="Z508" s="6"/>
     </row>
     <row r="509">
-      <c r="A509" s="35"/>
+      <c r="A509" s="38"/>
       <c r="B509" s="36"/>
       <c r="C509" s="6"/>
       <c r="D509" s="6"/>
@@ -15687,7 +15830,7 @@
       <c r="Z509" s="6"/>
     </row>
     <row r="510">
-      <c r="A510" s="35"/>
+      <c r="A510" s="38"/>
       <c r="B510" s="36"/>
       <c r="C510" s="6"/>
       <c r="D510" s="6"/>
@@ -15715,7 +15858,7 @@
       <c r="Z510" s="6"/>
     </row>
     <row r="511">
-      <c r="A511" s="35"/>
+      <c r="A511" s="38"/>
       <c r="B511" s="36"/>
       <c r="C511" s="6"/>
       <c r="D511" s="6"/>
@@ -15743,7 +15886,7 @@
       <c r="Z511" s="6"/>
     </row>
     <row r="512">
-      <c r="A512" s="35"/>
+      <c r="A512" s="38"/>
       <c r="B512" s="36"/>
       <c r="C512" s="6"/>
       <c r="D512" s="6"/>
@@ -15771,7 +15914,7 @@
       <c r="Z512" s="6"/>
     </row>
     <row r="513">
-      <c r="A513" s="35"/>
+      <c r="A513" s="38"/>
       <c r="B513" s="36"/>
       <c r="C513" s="6"/>
       <c r="D513" s="6"/>
@@ -15799,7 +15942,7 @@
       <c r="Z513" s="6"/>
     </row>
     <row r="514">
-      <c r="A514" s="35"/>
+      <c r="A514" s="38"/>
       <c r="B514" s="36"/>
       <c r="C514" s="6"/>
       <c r="D514" s="6"/>
@@ -15827,7 +15970,7 @@
       <c r="Z514" s="6"/>
     </row>
     <row r="515">
-      <c r="A515" s="35"/>
+      <c r="A515" s="38"/>
       <c r="B515" s="36"/>
       <c r="C515" s="6"/>
       <c r="D515" s="6"/>
@@ -15855,7 +15998,7 @@
       <c r="Z515" s="6"/>
     </row>
     <row r="516">
-      <c r="A516" s="35"/>
+      <c r="A516" s="38"/>
       <c r="B516" s="36"/>
       <c r="C516" s="6"/>
       <c r="D516" s="6"/>
@@ -15883,7 +16026,7 @@
       <c r="Z516" s="6"/>
     </row>
     <row r="517">
-      <c r="A517" s="35"/>
+      <c r="A517" s="38"/>
       <c r="B517" s="36"/>
       <c r="C517" s="6"/>
       <c r="D517" s="6"/>
@@ -15911,7 +16054,7 @@
       <c r="Z517" s="6"/>
     </row>
     <row r="518">
-      <c r="A518" s="35"/>
+      <c r="A518" s="38"/>
       <c r="B518" s="36"/>
       <c r="C518" s="6"/>
       <c r="D518" s="6"/>
@@ -15939,7 +16082,7 @@
       <c r="Z518" s="6"/>
     </row>
     <row r="519">
-      <c r="A519" s="35"/>
+      <c r="A519" s="38"/>
       <c r="B519" s="36"/>
       <c r="C519" s="6"/>
       <c r="D519" s="6"/>
@@ -15967,7 +16110,7 @@
       <c r="Z519" s="6"/>
     </row>
     <row r="520">
-      <c r="A520" s="35"/>
+      <c r="A520" s="38"/>
       <c r="B520" s="36"/>
       <c r="C520" s="6"/>
       <c r="D520" s="6"/>
@@ -15995,7 +16138,7 @@
       <c r="Z520" s="6"/>
     </row>
     <row r="521">
-      <c r="A521" s="35"/>
+      <c r="A521" s="38"/>
       <c r="B521" s="36"/>
       <c r="C521" s="6"/>
       <c r="D521" s="6"/>
@@ -16023,7 +16166,7 @@
       <c r="Z521" s="6"/>
     </row>
     <row r="522">
-      <c r="A522" s="35"/>
+      <c r="A522" s="38"/>
       <c r="B522" s="36"/>
       <c r="C522" s="6"/>
       <c r="D522" s="6"/>
@@ -16051,7 +16194,7 @@
       <c r="Z522" s="6"/>
     </row>
     <row r="523">
-      <c r="A523" s="35"/>
+      <c r="A523" s="38"/>
       <c r="B523" s="36"/>
       <c r="C523" s="6"/>
       <c r="D523" s="6"/>
@@ -16079,7 +16222,7 @@
       <c r="Z523" s="6"/>
     </row>
     <row r="524">
-      <c r="A524" s="35"/>
+      <c r="A524" s="38"/>
       <c r="B524" s="36"/>
       <c r="C524" s="6"/>
       <c r="D524" s="6"/>
@@ -16107,7 +16250,7 @@
       <c r="Z524" s="6"/>
     </row>
     <row r="525">
-      <c r="A525" s="35"/>
+      <c r="A525" s="38"/>
       <c r="B525" s="36"/>
       <c r="C525" s="6"/>
       <c r="D525" s="6"/>
@@ -16135,7 +16278,7 @@
       <c r="Z525" s="6"/>
     </row>
     <row r="526">
-      <c r="A526" s="35"/>
+      <c r="A526" s="38"/>
       <c r="B526" s="36"/>
       <c r="C526" s="6"/>
       <c r="D526" s="6"/>
@@ -16163,7 +16306,7 @@
       <c r="Z526" s="6"/>
     </row>
     <row r="527">
-      <c r="A527" s="35"/>
+      <c r="A527" s="38"/>
       <c r="B527" s="36"/>
       <c r="C527" s="6"/>
       <c r="D527" s="6"/>
@@ -16191,7 +16334,7 @@
       <c r="Z527" s="6"/>
     </row>
     <row r="528">
-      <c r="A528" s="35"/>
+      <c r="A528" s="38"/>
       <c r="B528" s="36"/>
       <c r="C528" s="6"/>
       <c r="D528" s="6"/>
@@ -16219,7 +16362,7 @@
       <c r="Z528" s="6"/>
     </row>
     <row r="529">
-      <c r="A529" s="35"/>
+      <c r="A529" s="38"/>
       <c r="B529" s="36"/>
       <c r="C529" s="6"/>
       <c r="D529" s="6"/>
@@ -16247,7 +16390,7 @@
       <c r="Z529" s="6"/>
     </row>
     <row r="530">
-      <c r="A530" s="35"/>
+      <c r="A530" s="38"/>
       <c r="B530" s="36"/>
       <c r="C530" s="6"/>
       <c r="D530" s="6"/>
@@ -16275,7 +16418,7 @@
       <c r="Z530" s="6"/>
     </row>
     <row r="531">
-      <c r="A531" s="35"/>
+      <c r="A531" s="38"/>
       <c r="B531" s="36"/>
       <c r="C531" s="6"/>
       <c r="D531" s="6"/>
@@ -16303,7 +16446,7 @@
       <c r="Z531" s="6"/>
     </row>
     <row r="532">
-      <c r="A532" s="35"/>
+      <c r="A532" s="38"/>
       <c r="B532" s="36"/>
       <c r="C532" s="6"/>
       <c r="D532" s="6"/>
@@ -16331,7 +16474,7 @@
       <c r="Z532" s="6"/>
     </row>
     <row r="533">
-      <c r="A533" s="35"/>
+      <c r="A533" s="38"/>
       <c r="B533" s="36"/>
       <c r="C533" s="6"/>
       <c r="D533" s="6"/>
@@ -16359,7 +16502,7 @@
       <c r="Z533" s="6"/>
     </row>
     <row r="534">
-      <c r="A534" s="35"/>
+      <c r="A534" s="38"/>
       <c r="B534" s="36"/>
       <c r="C534" s="6"/>
       <c r="D534" s="6"/>
@@ -16387,7 +16530,7 @@
       <c r="Z534" s="6"/>
     </row>
     <row r="535">
-      <c r="A535" s="35"/>
+      <c r="A535" s="38"/>
       <c r="B535" s="36"/>
       <c r="C535" s="6"/>
       <c r="D535" s="6"/>
@@ -16415,7 +16558,7 @@
       <c r="Z535" s="6"/>
     </row>
     <row r="536">
-      <c r="A536" s="35"/>
+      <c r="A536" s="38"/>
       <c r="B536" s="36"/>
       <c r="C536" s="6"/>
       <c r="D536" s="6"/>
@@ -16443,7 +16586,7 @@
       <c r="Z536" s="6"/>
     </row>
     <row r="537">
-      <c r="A537" s="35"/>
+      <c r="A537" s="38"/>
       <c r="B537" s="36"/>
       <c r="C537" s="6"/>
       <c r="D537" s="6"/>
@@ -16471,7 +16614,7 @@
       <c r="Z537" s="6"/>
     </row>
     <row r="538">
-      <c r="A538" s="35"/>
+      <c r="A538" s="38"/>
       <c r="B538" s="36"/>
       <c r="C538" s="6"/>
       <c r="D538" s="6"/>
@@ -16499,7 +16642,7 @@
       <c r="Z538" s="6"/>
     </row>
     <row r="539">
-      <c r="A539" s="35"/>
+      <c r="A539" s="38"/>
       <c r="B539" s="36"/>
       <c r="C539" s="6"/>
       <c r="D539" s="6"/>
@@ -16527,7 +16670,7 @@
       <c r="Z539" s="6"/>
     </row>
     <row r="540">
-      <c r="A540" s="35"/>
+      <c r="A540" s="38"/>
       <c r="B540" s="36"/>
       <c r="C540" s="6"/>
       <c r="D540" s="6"/>
@@ -16555,7 +16698,7 @@
       <c r="Z540" s="6"/>
     </row>
     <row r="541">
-      <c r="A541" s="35"/>
+      <c r="A541" s="38"/>
       <c r="B541" s="36"/>
       <c r="C541" s="6"/>
       <c r="D541" s="6"/>
@@ -16583,7 +16726,7 @@
       <c r="Z541" s="6"/>
     </row>
     <row r="542">
-      <c r="A542" s="35"/>
+      <c r="A542" s="38"/>
       <c r="B542" s="36"/>
       <c r="C542" s="6"/>
       <c r="D542" s="6"/>
@@ -16611,7 +16754,7 @@
       <c r="Z542" s="6"/>
     </row>
     <row r="543">
-      <c r="A543" s="35"/>
+      <c r="A543" s="38"/>
       <c r="B543" s="36"/>
       <c r="C543" s="6"/>
       <c r="D543" s="6"/>
@@ -16639,7 +16782,7 @@
       <c r="Z543" s="6"/>
     </row>
     <row r="544">
-      <c r="A544" s="35"/>
+      <c r="A544" s="38"/>
       <c r="B544" s="36"/>
       <c r="C544" s="6"/>
       <c r="D544" s="6"/>
@@ -16667,7 +16810,7 @@
       <c r="Z544" s="6"/>
     </row>
     <row r="545">
-      <c r="A545" s="35"/>
+      <c r="A545" s="38"/>
       <c r="B545" s="36"/>
       <c r="C545" s="6"/>
       <c r="D545" s="6"/>
@@ -16695,7 +16838,7 @@
       <c r="Z545" s="6"/>
     </row>
     <row r="546">
-      <c r="A546" s="35"/>
+      <c r="A546" s="38"/>
       <c r="B546" s="36"/>
       <c r="C546" s="6"/>
       <c r="D546" s="6"/>
@@ -16723,7 +16866,7 @@
       <c r="Z546" s="6"/>
     </row>
     <row r="547">
-      <c r="A547" s="35"/>
+      <c r="A547" s="38"/>
       <c r="B547" s="36"/>
       <c r="C547" s="6"/>
       <c r="D547" s="6"/>
@@ -16751,7 +16894,7 @@
       <c r="Z547" s="6"/>
     </row>
     <row r="548">
-      <c r="A548" s="35"/>
+      <c r="A548" s="38"/>
       <c r="B548" s="36"/>
       <c r="C548" s="6"/>
       <c r="D548" s="6"/>
@@ -16779,7 +16922,7 @@
       <c r="Z548" s="6"/>
     </row>
     <row r="549">
-      <c r="A549" s="35"/>
+      <c r="A549" s="38"/>
       <c r="B549" s="36"/>
       <c r="C549" s="6"/>
       <c r="D549" s="6"/>
@@ -16807,7 +16950,7 @@
       <c r="Z549" s="6"/>
     </row>
     <row r="550">
-      <c r="A550" s="35"/>
+      <c r="A550" s="38"/>
       <c r="B550" s="36"/>
       <c r="C550" s="6"/>
       <c r="D550" s="6"/>
@@ -16835,7 +16978,7 @@
       <c r="Z550" s="6"/>
     </row>
     <row r="551">
-      <c r="A551" s="35"/>
+      <c r="A551" s="38"/>
       <c r="B551" s="36"/>
       <c r="C551" s="6"/>
       <c r="D551" s="6"/>
@@ -16863,7 +17006,7 @@
       <c r="Z551" s="6"/>
     </row>
     <row r="552">
-      <c r="A552" s="35"/>
+      <c r="A552" s="38"/>
       <c r="B552" s="36"/>
       <c r="C552" s="6"/>
       <c r="D552" s="6"/>
@@ -16891,7 +17034,7 @@
       <c r="Z552" s="6"/>
     </row>
     <row r="553">
-      <c r="A553" s="35"/>
+      <c r="A553" s="38"/>
       <c r="B553" s="36"/>
       <c r="C553" s="6"/>
       <c r="D553" s="6"/>
@@ -16919,7 +17062,7 @@
       <c r="Z553" s="6"/>
     </row>
     <row r="554">
-      <c r="A554" s="35"/>
+      <c r="A554" s="38"/>
       <c r="B554" s="36"/>
       <c r="C554" s="6"/>
       <c r="D554" s="6"/>
@@ -16947,7 +17090,7 @@
       <c r="Z554" s="6"/>
     </row>
     <row r="555">
-      <c r="A555" s="35"/>
+      <c r="A555" s="38"/>
       <c r="B555" s="36"/>
       <c r="C555" s="6"/>
       <c r="D555" s="6"/>
@@ -16975,7 +17118,7 @@
       <c r="Z555" s="6"/>
     </row>
     <row r="556">
-      <c r="A556" s="35"/>
+      <c r="A556" s="38"/>
       <c r="B556" s="36"/>
       <c r="C556" s="6"/>
       <c r="D556" s="6"/>
@@ -17003,7 +17146,7 @@
       <c r="Z556" s="6"/>
     </row>
     <row r="557">
-      <c r="A557" s="35"/>
+      <c r="A557" s="38"/>
       <c r="B557" s="36"/>
       <c r="C557" s="6"/>
       <c r="D557" s="6"/>
@@ -17031,7 +17174,7 @@
       <c r="Z557" s="6"/>
     </row>
     <row r="558">
-      <c r="A558" s="35"/>
+      <c r="A558" s="38"/>
       <c r="B558" s="36"/>
       <c r="C558" s="6"/>
       <c r="D558" s="6"/>
@@ -17059,7 +17202,7 @@
       <c r="Z558" s="6"/>
     </row>
     <row r="559">
-      <c r="A559" s="35"/>
+      <c r="A559" s="38"/>
       <c r="B559" s="36"/>
       <c r="C559" s="6"/>
       <c r="D559" s="6"/>
@@ -17087,7 +17230,7 @@
       <c r="Z559" s="6"/>
     </row>
     <row r="560">
-      <c r="A560" s="35"/>
+      <c r="A560" s="38"/>
       <c r="B560" s="36"/>
       <c r="C560" s="6"/>
       <c r="D560" s="6"/>
@@ -17115,7 +17258,7 @@
       <c r="Z560" s="6"/>
     </row>
     <row r="561">
-      <c r="A561" s="35"/>
+      <c r="A561" s="38"/>
       <c r="B561" s="36"/>
       <c r="C561" s="6"/>
       <c r="D561" s="6"/>
@@ -17143,7 +17286,7 @@
       <c r="Z561" s="6"/>
     </row>
     <row r="562">
-      <c r="A562" s="35"/>
+      <c r="A562" s="38"/>
       <c r="B562" s="36"/>
       <c r="C562" s="6"/>
       <c r="D562" s="6"/>
@@ -17171,7 +17314,7 @@
       <c r="Z562" s="6"/>
     </row>
     <row r="563">
-      <c r="A563" s="35"/>
+      <c r="A563" s="38"/>
       <c r="B563" s="36"/>
       <c r="C563" s="6"/>
       <c r="D563" s="6"/>
@@ -17199,7 +17342,7 @@
       <c r="Z563" s="6"/>
     </row>
     <row r="564">
-      <c r="A564" s="35"/>
+      <c r="A564" s="38"/>
       <c r="B564" s="36"/>
       <c r="C564" s="6"/>
       <c r="D564" s="6"/>
@@ -17227,7 +17370,7 @@
       <c r="Z564" s="6"/>
     </row>
     <row r="565">
-      <c r="A565" s="35"/>
+      <c r="A565" s="38"/>
       <c r="B565" s="36"/>
       <c r="C565" s="6"/>
       <c r="D565" s="6"/>
@@ -17255,7 +17398,7 @@
       <c r="Z565" s="6"/>
     </row>
     <row r="566">
-      <c r="A566" s="35"/>
+      <c r="A566" s="38"/>
       <c r="B566" s="36"/>
       <c r="C566" s="6"/>
       <c r="D566" s="6"/>
@@ -17283,7 +17426,7 @@
       <c r="Z566" s="6"/>
     </row>
     <row r="567">
-      <c r="A567" s="35"/>
+      <c r="A567" s="38"/>
       <c r="B567" s="36"/>
       <c r="C567" s="6"/>
       <c r="D567" s="6"/>
@@ -17311,7 +17454,7 @@
       <c r="Z567" s="6"/>
     </row>
     <row r="568">
-      <c r="A568" s="35"/>
+      <c r="A568" s="38"/>
       <c r="B568" s="36"/>
       <c r="C568" s="6"/>
       <c r="D568" s="6"/>
@@ -17339,7 +17482,7 @@
       <c r="Z568" s="6"/>
     </row>
     <row r="569">
-      <c r="A569" s="35"/>
+      <c r="A569" s="38"/>
       <c r="B569" s="36"/>
       <c r="C569" s="6"/>
       <c r="D569" s="6"/>
@@ -17367,7 +17510,7 @@
       <c r="Z569" s="6"/>
     </row>
     <row r="570">
-      <c r="A570" s="35"/>
+      <c r="A570" s="38"/>
       <c r="B570" s="36"/>
       <c r="C570" s="6"/>
       <c r="D570" s="6"/>
@@ -17395,7 +17538,7 @@
       <c r="Z570" s="6"/>
     </row>
     <row r="571">
-      <c r="A571" s="35"/>
+      <c r="A571" s="38"/>
       <c r="B571" s="36"/>
       <c r="C571" s="6"/>
       <c r="D571" s="6"/>
@@ -17423,7 +17566,7 @@
       <c r="Z571" s="6"/>
     </row>
     <row r="572">
-      <c r="A572" s="35"/>
+      <c r="A572" s="38"/>
       <c r="B572" s="36"/>
       <c r="C572" s="6"/>
       <c r="D572" s="6"/>
@@ -17451,7 +17594,7 @@
       <c r="Z572" s="6"/>
     </row>
     <row r="573">
-      <c r="A573" s="35"/>
+      <c r="A573" s="38"/>
       <c r="B573" s="36"/>
       <c r="C573" s="6"/>
       <c r="D573" s="6"/>
@@ -17479,7 +17622,7 @@
       <c r="Z573" s="6"/>
     </row>
     <row r="574">
-      <c r="A574" s="35"/>
+      <c r="A574" s="38"/>
       <c r="B574" s="36"/>
       <c r="C574" s="6"/>
       <c r="D574" s="6"/>
@@ -17507,7 +17650,7 @@
       <c r="Z574" s="6"/>
     </row>
     <row r="575">
-      <c r="A575" s="35"/>
+      <c r="A575" s="38"/>
       <c r="B575" s="36"/>
       <c r="C575" s="6"/>
       <c r="D575" s="6"/>
@@ -17535,7 +17678,7 @@
       <c r="Z575" s="6"/>
     </row>
     <row r="576">
-      <c r="A576" s="35"/>
+      <c r="A576" s="38"/>
       <c r="B576" s="36"/>
       <c r="C576" s="6"/>
       <c r="D576" s="6"/>
@@ -17563,7 +17706,7 @@
       <c r="Z576" s="6"/>
     </row>
     <row r="577">
-      <c r="A577" s="35"/>
+      <c r="A577" s="38"/>
       <c r="B577" s="36"/>
       <c r="C577" s="6"/>
       <c r="D577" s="6"/>
@@ -17591,7 +17734,7 @@
       <c r="Z577" s="6"/>
     </row>
     <row r="578">
-      <c r="A578" s="35"/>
+      <c r="A578" s="38"/>
       <c r="B578" s="36"/>
       <c r="C578" s="6"/>
       <c r="D578" s="6"/>
@@ -17619,7 +17762,7 @@
       <c r="Z578" s="6"/>
     </row>
     <row r="579">
-      <c r="A579" s="35"/>
+      <c r="A579" s="38"/>
       <c r="B579" s="36"/>
       <c r="C579" s="6"/>
       <c r="D579" s="6"/>
@@ -17647,7 +17790,7 @@
       <c r="Z579" s="6"/>
     </row>
     <row r="580">
-      <c r="A580" s="35"/>
+      <c r="A580" s="38"/>
       <c r="B580" s="36"/>
       <c r="C580" s="6"/>
       <c r="D580" s="6"/>
@@ -17675,7 +17818,7 @@
       <c r="Z580" s="6"/>
     </row>
     <row r="581">
-      <c r="A581" s="35"/>
+      <c r="A581" s="38"/>
       <c r="B581" s="36"/>
       <c r="C581" s="6"/>
       <c r="D581" s="6"/>
@@ -17703,7 +17846,7 @@
       <c r="Z581" s="6"/>
     </row>
     <row r="582">
-      <c r="A582" s="35"/>
+      <c r="A582" s="38"/>
       <c r="B582" s="36"/>
       <c r="C582" s="6"/>
       <c r="D582" s="6"/>
@@ -17731,7 +17874,7 @@
       <c r="Z582" s="6"/>
     </row>
     <row r="583">
-      <c r="A583" s="35"/>
+      <c r="A583" s="38"/>
       <c r="B583" s="36"/>
       <c r="C583" s="6"/>
       <c r="D583" s="6"/>
@@ -17759,7 +17902,7 @@
       <c r="Z583" s="6"/>
     </row>
     <row r="584">
-      <c r="A584" s="35"/>
+      <c r="A584" s="38"/>
       <c r="B584" s="36"/>
       <c r="C584" s="6"/>
       <c r="D584" s="6"/>
@@ -17787,7 +17930,7 @@
       <c r="Z584" s="6"/>
     </row>
     <row r="585">
-      <c r="A585" s="35"/>
+      <c r="A585" s="38"/>
       <c r="B585" s="36"/>
       <c r="C585" s="6"/>
       <c r="D585" s="6"/>
@@ -17815,7 +17958,7 @@
       <c r="Z585" s="6"/>
     </row>
     <row r="586">
-      <c r="A586" s="35"/>
+      <c r="A586" s="38"/>
       <c r="B586" s="36"/>
       <c r="C586" s="6"/>
       <c r="D586" s="6"/>
@@ -17843,7 +17986,7 @@
       <c r="Z586" s="6"/>
     </row>
     <row r="587">
-      <c r="A587" s="35"/>
+      <c r="A587" s="38"/>
       <c r="B587" s="36"/>
       <c r="C587" s="6"/>
       <c r="D587" s="6"/>
@@ -17871,7 +18014,7 @@
       <c r="Z587" s="6"/>
     </row>
     <row r="588">
-      <c r="A588" s="35"/>
+      <c r="A588" s="38"/>
       <c r="B588" s="36"/>
       <c r="C588" s="6"/>
       <c r="D588" s="6"/>
@@ -17899,7 +18042,7 @@
       <c r="Z588" s="6"/>
     </row>
     <row r="589">
-      <c r="A589" s="35"/>
+      <c r="A589" s="38"/>
       <c r="B589" s="36"/>
       <c r="C589" s="6"/>
       <c r="D589" s="6"/>
@@ -17927,7 +18070,7 @@
       <c r="Z589" s="6"/>
     </row>
     <row r="590">
-      <c r="A590" s="35"/>
+      <c r="A590" s="38"/>
       <c r="B590" s="36"/>
       <c r="C590" s="6"/>
       <c r="D590" s="6"/>
@@ -17955,7 +18098,7 @@
       <c r="Z590" s="6"/>
     </row>
     <row r="591">
-      <c r="A591" s="35"/>
+      <c r="A591" s="38"/>
       <c r="B591" s="36"/>
       <c r="C591" s="6"/>
       <c r="D591" s="6"/>
@@ -17983,7 +18126,7 @@
       <c r="Z591" s="6"/>
     </row>
     <row r="592">
-      <c r="A592" s="35"/>
+      <c r="A592" s="38"/>
       <c r="B592" s="36"/>
       <c r="C592" s="6"/>
       <c r="D592" s="6"/>
@@ -18011,7 +18154,7 @@
       <c r="Z592" s="6"/>
     </row>
     <row r="593">
-      <c r="A593" s="35"/>
+      <c r="A593" s="38"/>
       <c r="B593" s="36"/>
       <c r="C593" s="6"/>
       <c r="D593" s="6"/>
@@ -18039,7 +18182,7 @@
       <c r="Z593" s="6"/>
     </row>
     <row r="594">
-      <c r="A594" s="35"/>
+      <c r="A594" s="38"/>
       <c r="B594" s="36"/>
       <c r="C594" s="6"/>
       <c r="D594" s="6"/>
@@ -18067,7 +18210,7 @@
       <c r="Z594" s="6"/>
     </row>
     <row r="595">
-      <c r="A595" s="35"/>
+      <c r="A595" s="38"/>
       <c r="B595" s="36"/>
       <c r="C595" s="6"/>
       <c r="D595" s="6"/>
@@ -18095,7 +18238,7 @@
       <c r="Z595" s="6"/>
     </row>
     <row r="596">
-      <c r="A596" s="35"/>
+      <c r="A596" s="38"/>
       <c r="B596" s="36"/>
       <c r="C596" s="6"/>
       <c r="D596" s="6"/>
@@ -18123,7 +18266,7 @@
       <c r="Z596" s="6"/>
     </row>
     <row r="597">
-      <c r="A597" s="35"/>
+      <c r="A597" s="38"/>
       <c r="B597" s="36"/>
       <c r="C597" s="6"/>
       <c r="D597" s="6"/>
@@ -18151,7 +18294,7 @@
       <c r="Z597" s="6"/>
     </row>
     <row r="598">
-      <c r="A598" s="35"/>
+      <c r="A598" s="38"/>
       <c r="B598" s="36"/>
       <c r="C598" s="6"/>
       <c r="D598" s="6"/>
@@ -18179,7 +18322,7 @@
       <c r="Z598" s="6"/>
     </row>
     <row r="599">
-      <c r="A599" s="35"/>
+      <c r="A599" s="38"/>
       <c r="B599" s="36"/>
       <c r="C599" s="6"/>
       <c r="D599" s="6"/>
@@ -18207,7 +18350,7 @@
       <c r="Z599" s="6"/>
     </row>
     <row r="600">
-      <c r="A600" s="35"/>
+      <c r="A600" s="38"/>
       <c r="B600" s="36"/>
       <c r="C600" s="6"/>
       <c r="D600" s="6"/>
@@ -18235,7 +18378,7 @@
       <c r="Z600" s="6"/>
     </row>
     <row r="601">
-      <c r="A601" s="35"/>
+      <c r="A601" s="38"/>
       <c r="B601" s="36"/>
       <c r="C601" s="6"/>
       <c r="D601" s="6"/>
@@ -18263,7 +18406,7 @@
       <c r="Z601" s="6"/>
     </row>
     <row r="602">
-      <c r="A602" s="35"/>
+      <c r="A602" s="38"/>
       <c r="B602" s="36"/>
       <c r="C602" s="6"/>
       <c r="D602" s="6"/>
@@ -18291,7 +18434,7 @@
       <c r="Z602" s="6"/>
     </row>
     <row r="603">
-      <c r="A603" s="35"/>
+      <c r="A603" s="38"/>
       <c r="B603" s="36"/>
       <c r="C603" s="6"/>
       <c r="D603" s="6"/>
@@ -18319,7 +18462,7 @@
       <c r="Z603" s="6"/>
     </row>
     <row r="604">
-      <c r="A604" s="35"/>
+      <c r="A604" s="38"/>
       <c r="B604" s="36"/>
       <c r="C604" s="6"/>
       <c r="D604" s="6"/>
@@ -18347,7 +18490,7 @@
       <c r="Z604" s="6"/>
     </row>
     <row r="605">
-      <c r="A605" s="35"/>
+      <c r="A605" s="38"/>
       <c r="B605" s="36"/>
       <c r="C605" s="6"/>
       <c r="D605" s="6"/>
@@ -18375,7 +18518,7 @@
       <c r="Z605" s="6"/>
     </row>
     <row r="606">
-      <c r="A606" s="35"/>
+      <c r="A606" s="38"/>
       <c r="B606" s="36"/>
       <c r="C606" s="6"/>
       <c r="D606" s="6"/>
@@ -18403,7 +18546,7 @@
       <c r="Z606" s="6"/>
     </row>
     <row r="607">
-      <c r="A607" s="35"/>
+      <c r="A607" s="38"/>
       <c r="B607" s="36"/>
       <c r="C607" s="6"/>
       <c r="D607" s="6"/>
@@ -18431,7 +18574,7 @@
       <c r="Z607" s="6"/>
     </row>
     <row r="608">
-      <c r="A608" s="35"/>
+      <c r="A608" s="38"/>
       <c r="B608" s="36"/>
       <c r="C608" s="6"/>
       <c r="D608" s="6"/>
@@ -18459,7 +18602,7 @@
       <c r="Z608" s="6"/>
     </row>
     <row r="609">
-      <c r="A609" s="35"/>
+      <c r="A609" s="38"/>
       <c r="B609" s="36"/>
       <c r="C609" s="6"/>
       <c r="D609" s="6"/>
@@ -18487,7 +18630,7 @@
       <c r="Z609" s="6"/>
     </row>
     <row r="610">
-      <c r="A610" s="35"/>
+      <c r="A610" s="38"/>
       <c r="B610" s="36"/>
       <c r="C610" s="6"/>
       <c r="D610" s="6"/>
@@ -18515,7 +18658,7 @@
       <c r="Z610" s="6"/>
     </row>
     <row r="611">
-      <c r="A611" s="35"/>
+      <c r="A611" s="38"/>
       <c r="B611" s="36"/>
       <c r="C611" s="6"/>
       <c r="D611" s="6"/>
@@ -18543,7 +18686,7 @@
       <c r="Z611" s="6"/>
     </row>
     <row r="612">
-      <c r="A612" s="35"/>
+      <c r="A612" s="38"/>
       <c r="B612" s="36"/>
       <c r="C612" s="6"/>
       <c r="D612" s="6"/>
@@ -18571,7 +18714,7 @@
       <c r="Z612" s="6"/>
     </row>
     <row r="613">
-      <c r="A613" s="35"/>
+      <c r="A613" s="38"/>
       <c r="B613" s="36"/>
       <c r="C613" s="6"/>
       <c r="D613" s="6"/>
@@ -18599,7 +18742,7 @@
       <c r="Z613" s="6"/>
     </row>
     <row r="614">
-      <c r="A614" s="35"/>
+      <c r="A614" s="38"/>
       <c r="B614" s="36"/>
       <c r="C614" s="6"/>
       <c r="D614" s="6"/>
@@ -18627,7 +18770,7 @@
       <c r="Z614" s="6"/>
     </row>
     <row r="615">
-      <c r="A615" s="35"/>
+      <c r="A615" s="38"/>
       <c r="B615" s="36"/>
       <c r="C615" s="6"/>
       <c r="D615" s="6"/>
@@ -18655,7 +18798,7 @@
       <c r="Z615" s="6"/>
     </row>
     <row r="616">
-      <c r="A616" s="35"/>
+      <c r="A616" s="38"/>
       <c r="B616" s="36"/>
       <c r="C616" s="6"/>
       <c r="D616" s="6"/>
@@ -18683,7 +18826,7 @@
       <c r="Z616" s="6"/>
     </row>
     <row r="617">
-      <c r="A617" s="35"/>
+      <c r="A617" s="38"/>
       <c r="B617" s="36"/>
       <c r="C617" s="6"/>
       <c r="D617" s="6"/>
@@ -18711,7 +18854,7 @@
       <c r="Z617" s="6"/>
     </row>
     <row r="618">
-      <c r="A618" s="35"/>
+      <c r="A618" s="38"/>
       <c r="B618" s="36"/>
       <c r="C618" s="6"/>
       <c r="D618" s="6"/>
@@ -18739,7 +18882,7 @@
       <c r="Z618" s="6"/>
     </row>
     <row r="619">
-      <c r="A619" s="35"/>
+      <c r="A619" s="38"/>
       <c r="B619" s="36"/>
       <c r="C619" s="6"/>
       <c r="D619" s="6"/>
@@ -18767,7 +18910,7 @@
       <c r="Z619" s="6"/>
     </row>
     <row r="620">
-      <c r="A620" s="35"/>
+      <c r="A620" s="38"/>
       <c r="B620" s="36"/>
       <c r="C620" s="6"/>
       <c r="D620" s="6"/>
@@ -18795,7 +18938,7 @@
       <c r="Z620" s="6"/>
     </row>
     <row r="621">
-      <c r="A621" s="35"/>
+      <c r="A621" s="38"/>
       <c r="B621" s="36"/>
       <c r="C621" s="6"/>
       <c r="D621" s="6"/>
@@ -18823,7 +18966,7 @@
       <c r="Z621" s="6"/>
     </row>
     <row r="622">
-      <c r="A622" s="35"/>
+      <c r="A622" s="38"/>
       <c r="B622" s="36"/>
       <c r="C622" s="6"/>
       <c r="D622" s="6"/>
@@ -18851,7 +18994,7 @@
       <c r="Z622" s="6"/>
     </row>
     <row r="623">
-      <c r="A623" s="35"/>
+      <c r="A623" s="38"/>
       <c r="B623" s="36"/>
       <c r="C623" s="6"/>
       <c r="D623" s="6"/>
@@ -18879,7 +19022,7 @@
       <c r="Z623" s="6"/>
     </row>
     <row r="624">
-      <c r="A624" s="35"/>
+      <c r="A624" s="38"/>
       <c r="B624" s="36"/>
       <c r="C624" s="6"/>
       <c r="D624" s="6"/>
@@ -18907,7 +19050,7 @@
       <c r="Z624" s="6"/>
     </row>
     <row r="625">
-      <c r="A625" s="35"/>
+      <c r="A625" s="38"/>
       <c r="B625" s="36"/>
       <c r="C625" s="6"/>
       <c r="D625" s="6"/>
@@ -18935,7 +19078,7 @@
       <c r="Z625" s="6"/>
     </row>
     <row r="626">
-      <c r="A626" s="35"/>
+      <c r="A626" s="38"/>
       <c r="B626" s="36"/>
       <c r="C626" s="6"/>
       <c r="D626" s="6"/>
@@ -18963,7 +19106,7 @@
       <c r="Z626" s="6"/>
     </row>
     <row r="627">
-      <c r="A627" s="35"/>
+      <c r="A627" s="38"/>
       <c r="B627" s="36"/>
       <c r="C627" s="6"/>
       <c r="D627" s="6"/>
@@ -18991,7 +19134,7 @@
       <c r="Z627" s="6"/>
     </row>
     <row r="628">
-      <c r="A628" s="35"/>
+      <c r="A628" s="38"/>
       <c r="B628" s="36"/>
       <c r="C628" s="6"/>
       <c r="D628" s="6"/>
@@ -19019,7 +19162,7 @@
       <c r="Z628" s="6"/>
     </row>
     <row r="629">
-      <c r="A629" s="35"/>
+      <c r="A629" s="38"/>
       <c r="B629" s="36"/>
       <c r="C629" s="6"/>
       <c r="D629" s="6"/>
@@ -19047,7 +19190,7 @@
       <c r="Z629" s="6"/>
     </row>
     <row r="630">
-      <c r="A630" s="35"/>
+      <c r="A630" s="38"/>
       <c r="B630" s="36"/>
       <c r="C630" s="6"/>
       <c r="D630" s="6"/>
@@ -19075,7 +19218,7 @@
       <c r="Z630" s="6"/>
     </row>
     <row r="631">
-      <c r="A631" s="35"/>
+      <c r="A631" s="38"/>
       <c r="B631" s="36"/>
       <c r="C631" s="6"/>
       <c r="D631" s="6"/>
@@ -19103,7 +19246,7 @@
       <c r="Z631" s="6"/>
     </row>
     <row r="632">
-      <c r="A632" s="35"/>
+      <c r="A632" s="38"/>
       <c r="B632" s="36"/>
       <c r="C632" s="6"/>
       <c r="D632" s="6"/>
@@ -19131,7 +19274,7 @@
       <c r="Z632" s="6"/>
     </row>
     <row r="633">
-      <c r="A633" s="35"/>
+      <c r="A633" s="38"/>
       <c r="B633" s="36"/>
       <c r="C633" s="6"/>
       <c r="D633" s="6"/>
@@ -19159,7 +19302,7 @@
       <c r="Z633" s="6"/>
     </row>
     <row r="634">
-      <c r="A634" s="35"/>
+      <c r="A634" s="38"/>
       <c r="B634" s="36"/>
       <c r="C634" s="6"/>
       <c r="D634" s="6"/>
@@ -19187,7 +19330,7 @@
       <c r="Z634" s="6"/>
     </row>
     <row r="635">
-      <c r="A635" s="35"/>
+      <c r="A635" s="38"/>
       <c r="B635" s="36"/>
       <c r="C635" s="6"/>
       <c r="D635" s="6"/>
@@ -19215,7 +19358,7 @@
       <c r="Z635" s="6"/>
     </row>
     <row r="636">
-      <c r="A636" s="35"/>
+      <c r="A636" s="38"/>
       <c r="B636" s="36"/>
       <c r="C636" s="6"/>
       <c r="D636" s="6"/>
@@ -19243,7 +19386,7 @@
       <c r="Z636" s="6"/>
     </row>
     <row r="637">
-      <c r="A637" s="35"/>
+      <c r="A637" s="38"/>
       <c r="B637" s="36"/>
       <c r="C637" s="6"/>
       <c r="D637" s="6"/>
@@ -19271,7 +19414,7 @@
       <c r="Z637" s="6"/>
     </row>
     <row r="638">
-      <c r="A638" s="35"/>
+      <c r="A638" s="38"/>
       <c r="B638" s="36"/>
       <c r="C638" s="6"/>
       <c r="D638" s="6"/>
@@ -19299,7 +19442,7 @@
       <c r="Z638" s="6"/>
     </row>
     <row r="639">
-      <c r="A639" s="35"/>
+      <c r="A639" s="38"/>
       <c r="B639" s="36"/>
       <c r="C639" s="6"/>
       <c r="D639" s="6"/>
@@ -19327,7 +19470,7 @@
       <c r="Z639" s="6"/>
     </row>
     <row r="640">
-      <c r="A640" s="35"/>
+      <c r="A640" s="38"/>
       <c r="B640" s="36"/>
       <c r="C640" s="6"/>
       <c r="D640" s="6"/>
@@ -19355,7 +19498,7 @@
       <c r="Z640" s="6"/>
     </row>
     <row r="641">
-      <c r="A641" s="35"/>
+      <c r="A641" s="38"/>
       <c r="B641" s="36"/>
       <c r="C641" s="6"/>
       <c r="D641" s="6"/>
@@ -19383,7 +19526,7 @@
       <c r="Z641" s="6"/>
     </row>
     <row r="642">
-      <c r="A642" s="35"/>
+      <c r="A642" s="38"/>
       <c r="B642" s="36"/>
       <c r="C642" s="6"/>
       <c r="D642" s="6"/>
@@ -19411,7 +19554,7 @@
       <c r="Z642" s="6"/>
     </row>
     <row r="643">
-      <c r="A643" s="35"/>
+      <c r="A643" s="38"/>
       <c r="B643" s="36"/>
       <c r="C643" s="6"/>
       <c r="D643" s="6"/>
@@ -19439,7 +19582,7 @@
       <c r="Z643" s="6"/>
     </row>
     <row r="644">
-      <c r="A644" s="35"/>
+      <c r="A644" s="38"/>
       <c r="B644" s="36"/>
       <c r="C644" s="6"/>
       <c r="D644" s="6"/>
@@ -19467,7 +19610,7 @@
       <c r="Z644" s="6"/>
     </row>
     <row r="645">
-      <c r="A645" s="35"/>
+      <c r="A645" s="38"/>
       <c r="B645" s="36"/>
       <c r="C645" s="6"/>
       <c r="D645" s="6"/>
@@ -19495,7 +19638,7 @@
       <c r="Z645" s="6"/>
     </row>
     <row r="646">
-      <c r="A646" s="35"/>
+      <c r="A646" s="38"/>
       <c r="B646" s="36"/>
       <c r="C646" s="6"/>
       <c r="D646" s="6"/>
@@ -19523,7 +19666,7 @@
       <c r="Z646" s="6"/>
     </row>
     <row r="647">
-      <c r="A647" s="35"/>
+      <c r="A647" s="38"/>
       <c r="B647" s="36"/>
       <c r="C647" s="6"/>
       <c r="D647" s="6"/>
@@ -19551,7 +19694,7 @@
       <c r="Z647" s="6"/>
     </row>
     <row r="648">
-      <c r="A648" s="35"/>
+      <c r="A648" s="38"/>
       <c r="B648" s="36"/>
       <c r="C648" s="6"/>
       <c r="D648" s="6"/>
@@ -19579,7 +19722,7 @@
       <c r="Z648" s="6"/>
     </row>
     <row r="649">
-      <c r="A649" s="35"/>
+      <c r="A649" s="38"/>
       <c r="B649" s="36"/>
       <c r="C649" s="6"/>
       <c r="D649" s="6"/>
@@ -19607,7 +19750,7 @@
       <c r="Z649" s="6"/>
     </row>
     <row r="650">
-      <c r="A650" s="35"/>
+      <c r="A650" s="38"/>
       <c r="B650" s="36"/>
       <c r="C650" s="6"/>
       <c r="D650" s="6"/>
@@ -19635,7 +19778,7 @@
       <c r="Z650" s="6"/>
     </row>
     <row r="651">
-      <c r="A651" s="35"/>
+      <c r="A651" s="38"/>
       <c r="B651" s="36"/>
       <c r="C651" s="6"/>
       <c r="D651" s="6"/>
@@ -19663,7 +19806,7 @@
       <c r="Z651" s="6"/>
     </row>
     <row r="652">
-      <c r="A652" s="35"/>
+      <c r="A652" s="38"/>
       <c r="B652" s="36"/>
       <c r="C652" s="6"/>
       <c r="D652" s="6"/>
@@ -19691,7 +19834,7 @@
       <c r="Z652" s="6"/>
     </row>
     <row r="653">
-      <c r="A653" s="35"/>
+      <c r="A653" s="38"/>
       <c r="B653" s="36"/>
       <c r="C653" s="6"/>
       <c r="D653" s="6"/>
@@ -19719,7 +19862,7 @@
       <c r="Z653" s="6"/>
     </row>
     <row r="654">
-      <c r="A654" s="35"/>
+      <c r="A654" s="38"/>
       <c r="B654" s="36"/>
       <c r="C654" s="6"/>
       <c r="D654" s="6"/>
@@ -19747,7 +19890,7 @@
       <c r="Z654" s="6"/>
     </row>
     <row r="655">
-      <c r="A655" s="35"/>
+      <c r="A655" s="38"/>
       <c r="B655" s="36"/>
       <c r="C655" s="6"/>
       <c r="D655" s="6"/>
@@ -19775,7 +19918,7 @@
       <c r="Z655" s="6"/>
     </row>
     <row r="656">
-      <c r="A656" s="35"/>
+      <c r="A656" s="38"/>
       <c r="B656" s="36"/>
       <c r="C656" s="6"/>
       <c r="D656" s="6"/>
@@ -19803,7 +19946,7 @@
       <c r="Z656" s="6"/>
     </row>
     <row r="657">
-      <c r="A657" s="35"/>
+      <c r="A657" s="38"/>
       <c r="B657" s="36"/>
       <c r="C657" s="6"/>
       <c r="D657" s="6"/>
@@ -19831,7 +19974,7 @@
       <c r="Z657" s="6"/>
     </row>
     <row r="658">
-      <c r="A658" s="35"/>
+      <c r="A658" s="38"/>
       <c r="B658" s="36"/>
       <c r="C658" s="6"/>
       <c r="D658" s="6"/>
@@ -19859,7 +20002,7 @@
       <c r="Z658" s="6"/>
     </row>
     <row r="659">
-      <c r="A659" s="35"/>
+      <c r="A659" s="38"/>
       <c r="B659" s="36"/>
       <c r="C659" s="6"/>
       <c r="D659" s="6"/>
@@ -19887,7 +20030,7 @@
       <c r="Z659" s="6"/>
     </row>
     <row r="660">
-      <c r="A660" s="35"/>
+      <c r="A660" s="38"/>
       <c r="B660" s="36"/>
       <c r="C660" s="6"/>
       <c r="D660" s="6"/>
@@ -19915,7 +20058,7 @@
       <c r="Z660" s="6"/>
     </row>
     <row r="661">
-      <c r="A661" s="35"/>
+      <c r="A661" s="38"/>
       <c r="B661" s="36"/>
       <c r="C661" s="6"/>
       <c r="D661" s="6"/>
@@ -19943,7 +20086,7 @@
       <c r="Z661" s="6"/>
     </row>
     <row r="662">
-      <c r="A662" s="35"/>
+      <c r="A662" s="38"/>
       <c r="B662" s="36"/>
       <c r="C662" s="6"/>
       <c r="D662" s="6"/>
@@ -19971,7 +20114,7 @@
       <c r="Z662" s="6"/>
     </row>
     <row r="663">
-      <c r="A663" s="35"/>
+      <c r="A663" s="38"/>
       <c r="B663" s="36"/>
       <c r="C663" s="6"/>
       <c r="D663" s="6"/>
@@ -19999,7 +20142,7 @@
       <c r="Z663" s="6"/>
     </row>
     <row r="664">
-      <c r="A664" s="35"/>
+      <c r="A664" s="38"/>
       <c r="B664" s="36"/>
       <c r="C664" s="6"/>
       <c r="D664" s="6"/>
@@ -20027,7 +20170,7 @@
       <c r="Z664" s="6"/>
     </row>
     <row r="665">
-      <c r="A665" s="35"/>
+      <c r="A665" s="38"/>
       <c r="B665" s="36"/>
       <c r="C665" s="6"/>
       <c r="D665" s="6"/>
@@ -20055,7 +20198,7 @@
       <c r="Z665" s="6"/>
     </row>
     <row r="666">
-      <c r="A666" s="35"/>
+      <c r="A666" s="38"/>
       <c r="B666" s="36"/>
       <c r="C666" s="6"/>
       <c r="D666" s="6"/>
@@ -20083,7 +20226,7 @@
       <c r="Z666" s="6"/>
     </row>
     <row r="667">
-      <c r="A667" s="35"/>
+      <c r="A667" s="38"/>
       <c r="B667" s="36"/>
       <c r="C667" s="6"/>
       <c r="D667" s="6"/>
@@ -20111,7 +20254,7 @@
       <c r="Z667" s="6"/>
     </row>
     <row r="668">
-      <c r="A668" s="35"/>
+      <c r="A668" s="38"/>
       <c r="B668" s="36"/>
       <c r="C668" s="6"/>
       <c r="D668" s="6"/>
@@ -20139,7 +20282,7 @@
       <c r="Z668" s="6"/>
     </row>
     <row r="669">
-      <c r="A669" s="35"/>
+      <c r="A669" s="38"/>
       <c r="B669" s="36"/>
       <c r="C669" s="6"/>
       <c r="D669" s="6"/>
@@ -20167,7 +20310,7 @@
       <c r="Z669" s="6"/>
     </row>
     <row r="670">
-      <c r="A670" s="35"/>
+      <c r="A670" s="38"/>
       <c r="B670" s="36"/>
       <c r="C670" s="6"/>
       <c r="D670" s="6"/>
@@ -20195,7 +20338,7 @@
       <c r="Z670" s="6"/>
     </row>
     <row r="671">
-      <c r="A671" s="35"/>
+      <c r="A671" s="38"/>
       <c r="B671" s="36"/>
       <c r="C671" s="6"/>
       <c r="D671" s="6"/>
@@ -20223,7 +20366,7 @@
       <c r="Z671" s="6"/>
     </row>
     <row r="672">
-      <c r="A672" s="35"/>
+      <c r="A672" s="38"/>
       <c r="B672" s="36"/>
       <c r="C672" s="6"/>
       <c r="D672" s="6"/>
@@ -20251,7 +20394,7 @@
       <c r="Z672" s="6"/>
     </row>
     <row r="673">
-      <c r="A673" s="35"/>
+      <c r="A673" s="38"/>
       <c r="B673" s="36"/>
       <c r="C673" s="6"/>
       <c r="D673" s="6"/>
@@ -20279,7 +20422,7 @@
       <c r="Z673" s="6"/>
     </row>
     <row r="674">
-      <c r="A674" s="35"/>
+      <c r="A674" s="38"/>
       <c r="B674" s="36"/>
       <c r="C674" s="6"/>
       <c r="D674" s="6"/>
@@ -20307,7 +20450,7 @@
       <c r="Z674" s="6"/>
     </row>
     <row r="675">
-      <c r="A675" s="35"/>
+      <c r="A675" s="38"/>
       <c r="B675" s="36"/>
       <c r="C675" s="6"/>
       <c r="D675" s="6"/>
@@ -20335,7 +20478,7 @@
       <c r="Z675" s="6"/>
     </row>
     <row r="676">
-      <c r="A676" s="35"/>
+      <c r="A676" s="38"/>
       <c r="B676" s="36"/>
       <c r="C676" s="6"/>
       <c r="D676" s="6"/>
@@ -20363,7 +20506,7 @@
       <c r="Z676" s="6"/>
     </row>
     <row r="677">
-      <c r="A677" s="35"/>
+      <c r="A677" s="38"/>
       <c r="B677" s="36"/>
       <c r="C677" s="6"/>
       <c r="D677" s="6"/>
@@ -20391,7 +20534,7 @@
       <c r="Z677" s="6"/>
     </row>
     <row r="678">
-      <c r="A678" s="35"/>
+      <c r="A678" s="38"/>
       <c r="B678" s="36"/>
       <c r="C678" s="6"/>
       <c r="D678" s="6"/>
@@ -20419,7 +20562,7 @@
       <c r="Z678" s="6"/>
     </row>
     <row r="679">
-      <c r="A679" s="35"/>
+      <c r="A679" s="38"/>
       <c r="B679" s="36"/>
       <c r="C679" s="6"/>
       <c r="D679" s="6"/>
@@ -20447,7 +20590,7 @@
       <c r="Z679" s="6"/>
     </row>
     <row r="680">
-      <c r="A680" s="35"/>
+      <c r="A680" s="38"/>
       <c r="B680" s="36"/>
       <c r="C680" s="6"/>
       <c r="D680" s="6"/>
@@ -20475,7 +20618,7 @@
       <c r="Z680" s="6"/>
     </row>
     <row r="681">
-      <c r="A681" s="35"/>
+      <c r="A681" s="38"/>
       <c r="B681" s="36"/>
       <c r="C681" s="6"/>
       <c r="D681" s="6"/>
@@ -20503,7 +20646,7 @@
       <c r="Z681" s="6"/>
     </row>
     <row r="682">
-      <c r="A682" s="35"/>
+      <c r="A682" s="38"/>
       <c r="B682" s="36"/>
       <c r="C682" s="6"/>
       <c r="D682" s="6"/>
@@ -20531,7 +20674,7 @@
       <c r="Z682" s="6"/>
     </row>
     <row r="683">
-      <c r="A683" s="35"/>
+      <c r="A683" s="38"/>
       <c r="B683" s="36"/>
       <c r="C683" s="6"/>
       <c r="D683" s="6"/>
@@ -20559,7 +20702,7 @@
       <c r="Z683" s="6"/>
     </row>
     <row r="684">
-      <c r="A684" s="35"/>
+      <c r="A684" s="38"/>
       <c r="B684" s="36"/>
       <c r="C684" s="6"/>
       <c r="D684" s="6"/>
@@ -20587,7 +20730,7 @@
       <c r="Z684" s="6"/>
     </row>
     <row r="685">
-      <c r="A685" s="35"/>
+      <c r="A685" s="38"/>
       <c r="B685" s="36"/>
       <c r="C685" s="6"/>
       <c r="D685" s="6"/>
@@ -20615,7 +20758,7 @@
       <c r="Z685" s="6"/>
     </row>
     <row r="686">
-      <c r="A686" s="35"/>
+      <c r="A686" s="38"/>
       <c r="B686" s="36"/>
       <c r="C686" s="6"/>
       <c r="D686" s="6"/>
@@ -20643,7 +20786,7 @@
       <c r="Z686" s="6"/>
     </row>
     <row r="687">
-      <c r="A687" s="35"/>
+      <c r="A687" s="38"/>
       <c r="B687" s="36"/>
       <c r="C687" s="6"/>
       <c r="D687" s="6"/>
@@ -20671,7 +20814,7 @@
       <c r="Z687" s="6"/>
     </row>
     <row r="688">
-      <c r="A688" s="35"/>
+      <c r="A688" s="38"/>
       <c r="B688" s="36"/>
       <c r="C688" s="6"/>
       <c r="D688" s="6"/>
@@ -20699,7 +20842,7 @@
       <c r="Z688" s="6"/>
     </row>
     <row r="689">
-      <c r="A689" s="35"/>
+      <c r="A689" s="38"/>
       <c r="B689" s="36"/>
       <c r="C689" s="6"/>
       <c r="D689" s="6"/>
@@ -20727,7 +20870,7 @@
       <c r="Z689" s="6"/>
     </row>
     <row r="690">
-      <c r="A690" s="35"/>
+      <c r="A690" s="38"/>
       <c r="B690" s="36"/>
       <c r="C690" s="6"/>
       <c r="D690" s="6"/>
@@ -20755,7 +20898,7 @@
       <c r="Z690" s="6"/>
     </row>
     <row r="691">
-      <c r="A691" s="35"/>
+      <c r="A691" s="38"/>
       <c r="B691" s="36"/>
       <c r="C691" s="6"/>
       <c r="D691" s="6"/>
@@ -20783,7 +20926,7 @@
       <c r="Z691" s="6"/>
     </row>
     <row r="692">
-      <c r="A692" s="35"/>
+      <c r="A692" s="38"/>
       <c r="B692" s="36"/>
       <c r="C692" s="6"/>
       <c r="D692" s="6"/>
@@ -20811,7 +20954,7 @@
       <c r="Z692" s="6"/>
     </row>
     <row r="693">
-      <c r="A693" s="35"/>
+      <c r="A693" s="38"/>
       <c r="B693" s="36"/>
       <c r="C693" s="6"/>
       <c r="D693" s="6"/>
@@ -20839,7 +20982,7 @@
       <c r="Z693" s="6"/>
     </row>
     <row r="694">
-      <c r="A694" s="35"/>
+      <c r="A694" s="38"/>
       <c r="B694" s="36"/>
       <c r="C694" s="6"/>
       <c r="D694" s="6"/>
@@ -20867,7 +21010,7 @@
       <c r="Z694" s="6"/>
     </row>
     <row r="695">
-      <c r="A695" s="35"/>
+      <c r="A695" s="38"/>
       <c r="B695" s="36"/>
       <c r="C695" s="6"/>
       <c r="D695" s="6"/>
@@ -20895,7 +21038,7 @@
       <c r="Z695" s="6"/>
     </row>
     <row r="696">
-      <c r="A696" s="35"/>
+      <c r="A696" s="38"/>
       <c r="B696" s="36"/>
       <c r="C696" s="6"/>
       <c r="D696" s="6"/>
@@ -20923,7 +21066,7 @@
       <c r="Z696" s="6"/>
     </row>
     <row r="697">
-      <c r="A697" s="35"/>
+      <c r="A697" s="38"/>
       <c r="B697" s="36"/>
       <c r="C697" s="6"/>
       <c r="D697" s="6"/>
@@ -20951,7 +21094,7 @@
       <c r="Z697" s="6"/>
     </row>
     <row r="698">
-      <c r="A698" s="35"/>
+      <c r="A698" s="38"/>
       <c r="B698" s="36"/>
       <c r="C698" s="6"/>
       <c r="D698" s="6"/>
@@ -20979,7 +21122,7 @@
       <c r="Z698" s="6"/>
     </row>
     <row r="699">
-      <c r="A699" s="35"/>
+      <c r="A699" s="38"/>
       <c r="B699" s="36"/>
       <c r="C699" s="6"/>
       <c r="D699" s="6"/>
@@ -21007,7 +21150,7 @@
       <c r="Z699" s="6"/>
     </row>
     <row r="700">
-      <c r="A700" s="35"/>
+      <c r="A700" s="38"/>
       <c r="B700" s="36"/>
       <c r="C700" s="6"/>
       <c r="D700" s="6"/>
@@ -21035,7 +21178,7 @@
       <c r="Z700" s="6"/>
     </row>
     <row r="701">
-      <c r="A701" s="35"/>
+      <c r="A701" s="38"/>
       <c r="B701" s="36"/>
       <c r="C701" s="6"/>
       <c r="D701" s="6"/>
@@ -21063,7 +21206,7 @@
       <c r="Z701" s="6"/>
     </row>
     <row r="702">
-      <c r="A702" s="35"/>
+      <c r="A702" s="38"/>
       <c r="B702" s="36"/>
       <c r="C702" s="6"/>
       <c r="D702" s="6"/>
@@ -21091,7 +21234,7 @@
       <c r="Z702" s="6"/>
     </row>
     <row r="703">
-      <c r="A703" s="35"/>
+      <c r="A703" s="38"/>
       <c r="B703" s="36"/>
       <c r="C703" s="6"/>
       <c r="D703" s="6"/>
@@ -21119,7 +21262,7 @@
       <c r="Z703" s="6"/>
     </row>
     <row r="704">
-      <c r="A704" s="35"/>
+      <c r="A704" s="38"/>
       <c r="B704" s="36"/>
       <c r="C704" s="6"/>
       <c r="D704" s="6"/>
@@ -21147,7 +21290,7 @@
       <c r="Z704" s="6"/>
     </row>
     <row r="705">
-      <c r="A705" s="35"/>
+      <c r="A705" s="38"/>
       <c r="B705" s="36"/>
       <c r="C705" s="6"/>
       <c r="D705" s="6"/>
@@ -21175,7 +21318,7 @@
       <c r="Z705" s="6"/>
     </row>
     <row r="706">
-      <c r="A706" s="35"/>
+      <c r="A706" s="38"/>
       <c r="B706" s="36"/>
       <c r="C706" s="6"/>
       <c r="D706" s="6"/>
@@ -21203,7 +21346,7 @@
       <c r="Z706" s="6"/>
     </row>
     <row r="707">
-      <c r="A707" s="35"/>
+      <c r="A707" s="38"/>
       <c r="B707" s="36"/>
       <c r="C707" s="6"/>
       <c r="D707" s="6"/>
@@ -21231,7 +21374,7 @@
       <c r="Z707" s="6"/>
     </row>
     <row r="708">
-      <c r="A708" s="35"/>
+      <c r="A708" s="38"/>
       <c r="B708" s="36"/>
       <c r="C708" s="6"/>
       <c r="D708" s="6"/>
@@ -21259,7 +21402,7 @@
       <c r="Z708" s="6"/>
     </row>
     <row r="709">
-      <c r="A709" s="35"/>
+      <c r="A709" s="38"/>
       <c r="B709" s="36"/>
       <c r="C709" s="6"/>
       <c r="D709" s="6"/>
@@ -21287,7 +21430,7 @@
       <c r="Z709" s="6"/>
     </row>
     <row r="710">
-      <c r="A710" s="35"/>
+      <c r="A710" s="38"/>
       <c r="B710" s="36"/>
       <c r="C710" s="6"/>
       <c r="D710" s="6"/>
@@ -21315,7 +21458,7 @@
       <c r="Z710" s="6"/>
     </row>
     <row r="711">
-      <c r="A711" s="35"/>
+      <c r="A711" s="38"/>
       <c r="B711" s="36"/>
       <c r="C711" s="6"/>
       <c r="D711" s="6"/>
@@ -21343,7 +21486,7 @@
       <c r="Z711" s="6"/>
     </row>
     <row r="712">
-      <c r="A712" s="35"/>
+      <c r="A712" s="38"/>
       <c r="B712" s="36"/>
       <c r="C712" s="6"/>
       <c r="D712" s="6"/>
@@ -21371,7 +21514,7 @@
       <c r="Z712" s="6"/>
     </row>
     <row r="713">
-      <c r="A713" s="35"/>
+      <c r="A713" s="38"/>
       <c r="B713" s="36"/>
       <c r="C713" s="6"/>
       <c r="D713" s="6"/>
@@ -21399,7 +21542,7 @@
       <c r="Z713" s="6"/>
     </row>
     <row r="714">
-      <c r="A714" s="35"/>
+      <c r="A714" s="38"/>
       <c r="B714" s="36"/>
       <c r="C714" s="6"/>
       <c r="D714" s="6"/>
@@ -21427,7 +21570,7 @@
       <c r="Z714" s="6"/>
     </row>
     <row r="715">
-      <c r="A715" s="35"/>
+      <c r="A715" s="38"/>
       <c r="B715" s="36"/>
       <c r="C715" s="6"/>
       <c r="D715" s="6"/>
@@ -21455,7 +21598,7 @@
       <c r="Z715" s="6"/>
     </row>
     <row r="716">
-      <c r="A716" s="35"/>
+      <c r="A716" s="38"/>
       <c r="B716" s="36"/>
       <c r="C716" s="6"/>
       <c r="D716" s="6"/>
@@ -21483,7 +21626,7 @@
       <c r="Z716" s="6"/>
     </row>
     <row r="717">
-      <c r="A717" s="35"/>
+      <c r="A717" s="38"/>
       <c r="B717" s="36"/>
       <c r="C717" s="6"/>
       <c r="D717" s="6"/>
@@ -21511,7 +21654,7 @@
       <c r="Z717" s="6"/>
     </row>
     <row r="718">
-      <c r="A718" s="35"/>
+      <c r="A718" s="38"/>
       <c r="B718" s="36"/>
       <c r="C718" s="6"/>
       <c r="D718" s="6"/>
@@ -21539,7 +21682,7 @@
       <c r="Z718" s="6"/>
     </row>
     <row r="719">
-      <c r="A719" s="35"/>
+      <c r="A719" s="38"/>
       <c r="B719" s="36"/>
       <c r="C719" s="6"/>
       <c r="D719" s="6"/>
@@ -21567,7 +21710,7 @@
       <c r="Z719" s="6"/>
     </row>
     <row r="720">
-      <c r="A720" s="35"/>
+      <c r="A720" s="38"/>
       <c r="B720" s="36"/>
       <c r="C720" s="6"/>
       <c r="D720" s="6"/>
@@ -21595,7 +21738,7 @@
       <c r="Z720" s="6"/>
     </row>
     <row r="721">
-      <c r="A721" s="35"/>
+      <c r="A721" s="38"/>
       <c r="B721" s="36"/>
       <c r="C721" s="6"/>
       <c r="D721" s="6"/>
@@ -21623,7 +21766,7 @@
       <c r="Z721" s="6"/>
     </row>
     <row r="722">
-      <c r="A722" s="35"/>
+      <c r="A722" s="38"/>
       <c r="B722" s="36"/>
       <c r="C722" s="6"/>
       <c r="D722" s="6"/>
@@ -21651,7 +21794,7 @@
       <c r="Z722" s="6"/>
     </row>
     <row r="723">
-      <c r="A723" s="35"/>
+      <c r="A723" s="38"/>
       <c r="B723" s="36"/>
       <c r="C723" s="6"/>
       <c r="D723" s="6"/>
@@ -21679,7 +21822,7 @@
       <c r="Z723" s="6"/>
     </row>
     <row r="724">
-      <c r="A724" s="35"/>
+      <c r="A724" s="38"/>
       <c r="B724" s="36"/>
       <c r="C724" s="6"/>
       <c r="D724" s="6"/>
@@ -21707,7 +21850,7 @@
       <c r="Z724" s="6"/>
     </row>
     <row r="725">
-      <c r="A725" s="35"/>
+      <c r="A725" s="38"/>
       <c r="B725" s="36"/>
       <c r="C725" s="6"/>
       <c r="D725" s="6"/>
@@ -21735,7 +21878,7 @@
       <c r="Z725" s="6"/>
     </row>
     <row r="726">
-      <c r="A726" s="35"/>
+      <c r="A726" s="38"/>
       <c r="B726" s="36"/>
       <c r="C726" s="6"/>
       <c r="D726" s="6"/>
@@ -21763,7 +21906,7 @@
       <c r="Z726" s="6"/>
     </row>
     <row r="727">
-      <c r="A727" s="35"/>
+      <c r="A727" s="38"/>
       <c r="B727" s="36"/>
       <c r="C727" s="6"/>
       <c r="D727" s="6"/>
@@ -21791,7 +21934,7 @@
       <c r="Z727" s="6"/>
     </row>
     <row r="728">
-      <c r="A728" s="35"/>
+      <c r="A728" s="38"/>
       <c r="B728" s="36"/>
       <c r="C728" s="6"/>
       <c r="D728" s="6"/>
@@ -21819,7 +21962,7 @@
       <c r="Z728" s="6"/>
     </row>
     <row r="729">
-      <c r="A729" s="35"/>
+      <c r="A729" s="38"/>
       <c r="B729" s="36"/>
       <c r="C729" s="6"/>
       <c r="D729" s="6"/>
@@ -21847,7 +21990,7 @@
       <c r="Z729" s="6"/>
     </row>
     <row r="730">
-      <c r="A730" s="35"/>
+      <c r="A730" s="38"/>
       <c r="B730" s="36"/>
       <c r="C730" s="6"/>
       <c r="D730" s="6"/>
@@ -21875,7 +22018,7 @@
       <c r="Z730" s="6"/>
     </row>
     <row r="731">
-      <c r="A731" s="35"/>
+      <c r="A731" s="38"/>
       <c r="B731" s="36"/>
       <c r="C731" s="6"/>
       <c r="D731" s="6"/>
@@ -21903,7 +22046,7 @@
       <c r="Z731" s="6"/>
     </row>
     <row r="732">
-      <c r="A732" s="35"/>
+      <c r="A732" s="38"/>
       <c r="B732" s="36"/>
       <c r="C732" s="6"/>
       <c r="D732" s="6"/>
@@ -21931,7 +22074,7 @@
       <c r="Z732" s="6"/>
     </row>
     <row r="733">
-      <c r="A733" s="35"/>
+      <c r="A733" s="38"/>
       <c r="B733" s="36"/>
       <c r="C733" s="6"/>
       <c r="D733" s="6"/>
@@ -21959,7 +22102,7 @@
       <c r="Z733" s="6"/>
     </row>
     <row r="734">
-      <c r="A734" s="35"/>
+      <c r="A734" s="38"/>
       <c r="B734" s="36"/>
       <c r="C734" s="6"/>
       <c r="D734" s="6"/>
@@ -21987,7 +22130,7 @@
       <c r="Z734" s="6"/>
     </row>
     <row r="735">
-      <c r="A735" s="35"/>
+      <c r="A735" s="38"/>
       <c r="B735" s="36"/>
       <c r="C735" s="6"/>
       <c r="D735" s="6"/>
@@ -22015,7 +22158,7 @@
       <c r="Z735" s="6"/>
     </row>
     <row r="736">
-      <c r="A736" s="35"/>
+      <c r="A736" s="38"/>
       <c r="B736" s="36"/>
       <c r="C736" s="6"/>
       <c r="D736" s="6"/>
@@ -22043,7 +22186,7 @@
       <c r="Z736" s="6"/>
     </row>
     <row r="737">
-      <c r="A737" s="35"/>
+      <c r="A737" s="38"/>
       <c r="B737" s="36"/>
       <c r="C737" s="6"/>
       <c r="D737" s="6"/>
@@ -22071,7 +22214,7 @@
       <c r="Z737" s="6"/>
     </row>
     <row r="738">
-      <c r="A738" s="35"/>
+      <c r="A738" s="38"/>
       <c r="B738" s="36"/>
       <c r="C738" s="6"/>
       <c r="D738" s="6"/>
@@ -22099,7 +22242,7 @@
       <c r="Z738" s="6"/>
     </row>
     <row r="739">
-      <c r="A739" s="35"/>
+      <c r="A739" s="38"/>
       <c r="B739" s="36"/>
       <c r="C739" s="6"/>
       <c r="D739" s="6"/>
@@ -22127,7 +22270,7 @@
       <c r="Z739" s="6"/>
     </row>
     <row r="740">
-      <c r="A740" s="35"/>
+      <c r="A740" s="38"/>
       <c r="B740" s="36"/>
       <c r="C740" s="6"/>
       <c r="D740" s="6"/>
@@ -22155,7 +22298,7 @@
       <c r="Z740" s="6"/>
     </row>
     <row r="741">
-      <c r="A741" s="35"/>
+      <c r="A741" s="38"/>
       <c r="B741" s="36"/>
       <c r="C741" s="6"/>
       <c r="D741" s="6"/>
@@ -22183,7 +22326,7 @@
       <c r="Z741" s="6"/>
     </row>
     <row r="742">
-      <c r="A742" s="35"/>
+      <c r="A742" s="38"/>
       <c r="B742" s="36"/>
       <c r="C742" s="6"/>
       <c r="D742" s="6"/>
@@ -22211,7 +22354,7 @@
       <c r="Z742" s="6"/>
     </row>
     <row r="743">
-      <c r="A743" s="35"/>
+      <c r="A743" s="38"/>
       <c r="B743" s="36"/>
       <c r="C743" s="6"/>
       <c r="D743" s="6"/>
@@ -22239,7 +22382,7 @@
       <c r="Z743" s="6"/>
     </row>
     <row r="744">
-      <c r="A744" s="35"/>
+      <c r="A744" s="38"/>
       <c r="B744" s="36"/>
       <c r="C744" s="6"/>
       <c r="D744" s="6"/>
@@ -22267,7 +22410,7 @@
       <c r="Z744" s="6"/>
     </row>
     <row r="745">
-      <c r="A745" s="35"/>
+      <c r="A745" s="38"/>
       <c r="B745" s="36"/>
       <c r="C745" s="6"/>
       <c r="D745" s="6"/>
@@ -22295,7 +22438,7 @@
       <c r="Z745" s="6"/>
     </row>
     <row r="746">
-      <c r="A746" s="35"/>
+      <c r="A746" s="38"/>
       <c r="B746" s="36"/>
       <c r="C746" s="6"/>
       <c r="D746" s="6"/>
@@ -22323,7 +22466,7 @@
       <c r="Z746" s="6"/>
     </row>
     <row r="747">
-      <c r="A747" s="35"/>
+      <c r="A747" s="38"/>
       <c r="B747" s="36"/>
       <c r="C747" s="6"/>
       <c r="D747" s="6"/>
@@ -22351,7 +22494,7 @@
       <c r="Z747" s="6"/>
     </row>
     <row r="748">
-      <c r="A748" s="35"/>
+      <c r="A748" s="38"/>
       <c r="B748" s="36"/>
       <c r="C748" s="6"/>
       <c r="D748" s="6"/>
@@ -22379,7 +22522,7 @@
       <c r="Z748" s="6"/>
     </row>
     <row r="749">
-      <c r="A749" s="35"/>
+      <c r="A749" s="38"/>
       <c r="B749" s="36"/>
       <c r="C749" s="6"/>
       <c r="D749" s="6"/>
@@ -22407,7 +22550,7 @@
       <c r="Z749" s="6"/>
     </row>
     <row r="750">
-      <c r="A750" s="35"/>
+      <c r="A750" s="38"/>
       <c r="B750" s="36"/>
       <c r="C750" s="6"/>
       <c r="D750" s="6"/>
@@ -22435,7 +22578,7 @@
       <c r="Z750" s="6"/>
     </row>
     <row r="751">
-      <c r="A751" s="35"/>
+      <c r="A751" s="38"/>
       <c r="B751" s="36"/>
       <c r="C751" s="6"/>
       <c r="D751" s="6"/>
@@ -22463,7 +22606,7 @@
       <c r="Z751" s="6"/>
     </row>
     <row r="752">
-      <c r="A752" s="35"/>
+      <c r="A752" s="38"/>
       <c r="B752" s="36"/>
       <c r="C752" s="6"/>
       <c r="D752" s="6"/>
@@ -22491,7 +22634,7 @@
       <c r="Z752" s="6"/>
     </row>
     <row r="753">
-      <c r="A753" s="35"/>
+      <c r="A753" s="38"/>
       <c r="B753" s="36"/>
       <c r="C753" s="6"/>
       <c r="D753" s="6"/>
@@ -22519,7 +22662,7 @@
       <c r="Z753" s="6"/>
     </row>
     <row r="754">
-      <c r="A754" s="35"/>
+      <c r="A754" s="38"/>
       <c r="B754" s="36"/>
       <c r="C754" s="6"/>
       <c r="D754" s="6"/>
@@ -22547,7 +22690,7 @@
       <c r="Z754" s="6"/>
     </row>
     <row r="755">
-      <c r="A755" s="35"/>
+      <c r="A755" s="38"/>
       <c r="B755" s="36"/>
       <c r="C755" s="6"/>
       <c r="D755" s="6"/>
@@ -22575,7 +22718,7 @@
       <c r="Z755" s="6"/>
     </row>
     <row r="756">
-      <c r="A756" s="35"/>
+      <c r="A756" s="38"/>
       <c r="B756" s="36"/>
       <c r="C756" s="6"/>
       <c r="D756" s="6"/>
@@ -22603,7 +22746,7 @@
       <c r="Z756" s="6"/>
     </row>
     <row r="757">
-      <c r="A757" s="35"/>
+      <c r="A757" s="38"/>
       <c r="B757" s="36"/>
       <c r="C757" s="6"/>
       <c r="D757" s="6"/>
@@ -22631,7 +22774,7 @@
       <c r="Z757" s="6"/>
     </row>
     <row r="758">
-      <c r="A758" s="35"/>
+      <c r="A758" s="38"/>
       <c r="B758" s="36"/>
       <c r="C758" s="6"/>
       <c r="D758" s="6"/>
@@ -22659,7 +22802,7 @@
       <c r="Z758" s="6"/>
     </row>
     <row r="759">
-      <c r="A759" s="35"/>
+      <c r="A759" s="38"/>
       <c r="B759" s="36"/>
       <c r="C759" s="6"/>
       <c r="D759" s="6"/>
@@ -22687,7 +22830,7 @@
       <c r="Z759" s="6"/>
     </row>
     <row r="760">
-      <c r="A760" s="35"/>
+      <c r="A760" s="38"/>
       <c r="B760" s="36"/>
       <c r="C760" s="6"/>
       <c r="D760" s="6"/>
@@ -22715,7 +22858,7 @@
       <c r="Z760" s="6"/>
     </row>
     <row r="761">
-      <c r="A761" s="35"/>
+      <c r="A761" s="38"/>
       <c r="B761" s="36"/>
       <c r="C761" s="6"/>
       <c r="D761" s="6"/>
@@ -22743,7 +22886,7 @@
       <c r="Z761" s="6"/>
     </row>
     <row r="762">
-      <c r="A762" s="35"/>
+      <c r="A762" s="38"/>
       <c r="B762" s="36"/>
       <c r="C762" s="6"/>
       <c r="D762" s="6"/>
@@ -22771,7 +22914,7 @@
       <c r="Z762" s="6"/>
     </row>
     <row r="763">
-      <c r="A763" s="35"/>
+      <c r="A763" s="38"/>
       <c r="B763" s="36"/>
       <c r="C763" s="6"/>
       <c r="D763" s="6"/>
@@ -22799,7 +22942,7 @@
       <c r="Z763" s="6"/>
     </row>
     <row r="764">
-      <c r="A764" s="35"/>
+      <c r="A764" s="38"/>
       <c r="B764" s="36"/>
       <c r="C764" s="6"/>
       <c r="D764" s="6"/>
@@ -22827,7 +22970,7 @@
       <c r="Z764" s="6"/>
     </row>
     <row r="765">
-      <c r="A765" s="35"/>
+      <c r="A765" s="38"/>
       <c r="B765" s="36"/>
       <c r="C765" s="6"/>
       <c r="D765" s="6"/>
@@ -22855,7 +22998,7 @@
       <c r="Z765" s="6"/>
     </row>
     <row r="766">
-      <c r="A766" s="35"/>
+      <c r="A766" s="38"/>
       <c r="B766" s="36"/>
       <c r="C766" s="6"/>
       <c r="D766" s="6"/>
@@ -22883,7 +23026,7 @@
       <c r="Z766" s="6"/>
     </row>
     <row r="767">
-      <c r="A767" s="35"/>
+      <c r="A767" s="38"/>
       <c r="B767" s="36"/>
       <c r="C767" s="6"/>
       <c r="D767" s="6"/>
@@ -22911,7 +23054,7 @@
       <c r="Z767" s="6"/>
     </row>
     <row r="768">
-      <c r="A768" s="35"/>
+      <c r="A768" s="38"/>
       <c r="B768" s="36"/>
       <c r="C768" s="6"/>
       <c r="D768" s="6"/>
@@ -22939,7 +23082,7 @@
       <c r="Z768" s="6"/>
     </row>
     <row r="769">
-      <c r="A769" s="35"/>
+      <c r="A769" s="38"/>
       <c r="B769" s="36"/>
       <c r="C769" s="6"/>
       <c r="D769" s="6"/>
@@ -22967,7 +23110,7 @@
       <c r="Z769" s="6"/>
     </row>
     <row r="770">
-      <c r="A770" s="35"/>
+      <c r="A770" s="38"/>
       <c r="B770" s="36"/>
       <c r="C770" s="6"/>
       <c r="D770" s="6"/>
@@ -22995,7 +23138,7 @@
       <c r="Z770" s="6"/>
     </row>
     <row r="771">
-      <c r="A771" s="35"/>
+      <c r="A771" s="38"/>
       <c r="B771" s="36"/>
       <c r="C771" s="6"/>
       <c r="D771" s="6"/>
@@ -23023,7 +23166,7 @@
       <c r="Z771" s="6"/>
     </row>
     <row r="772">
-      <c r="A772" s="35"/>
+      <c r="A772" s="38"/>
       <c r="B772" s="36"/>
       <c r="C772" s="6"/>
       <c r="D772" s="6"/>
@@ -23051,7 +23194,7 @@
       <c r="Z772" s="6"/>
     </row>
     <row r="773">
-      <c r="A773" s="35"/>
+      <c r="A773" s="38"/>
       <c r="B773" s="36"/>
       <c r="C773" s="6"/>
       <c r="D773" s="6"/>
@@ -23079,7 +23222,7 @@
       <c r="Z773" s="6"/>
     </row>
     <row r="774">
-      <c r="A774" s="35"/>
+      <c r="A774" s="38"/>
       <c r="B774" s="36"/>
       <c r="C774" s="6"/>
       <c r="D774" s="6"/>
@@ -23107,7 +23250,7 @@
       <c r="Z774" s="6"/>
     </row>
     <row r="775">
-      <c r="A775" s="35"/>
+      <c r="A775" s="38"/>
       <c r="B775" s="36"/>
       <c r="C775" s="6"/>
       <c r="D775" s="6"/>
@@ -23135,7 +23278,7 @@
       <c r="Z775" s="6"/>
     </row>
     <row r="776">
-      <c r="A776" s="35"/>
+      <c r="A776" s="38"/>
       <c r="B776" s="36"/>
       <c r="C776" s="6"/>
       <c r="D776" s="6"/>
@@ -23163,7 +23306,7 @@
       <c r="Z776" s="6"/>
     </row>
     <row r="777">
-      <c r="A777" s="35"/>
+      <c r="A777" s="38"/>
       <c r="B777" s="36"/>
       <c r="C777" s="6"/>
       <c r="D777" s="6"/>
@@ -23191,7 +23334,7 @@
       <c r="Z777" s="6"/>
     </row>
     <row r="778">
-      <c r="A778" s="35"/>
+      <c r="A778" s="38"/>
       <c r="B778" s="36"/>
       <c r="C778" s="6"/>
       <c r="D778" s="6"/>
@@ -23219,7 +23362,7 @@
       <c r="Z778" s="6"/>
     </row>
     <row r="779">
-      <c r="A779" s="35"/>
+      <c r="A779" s="38"/>
       <c r="B779" s="36"/>
       <c r="C779" s="6"/>
       <c r="D779" s="6"/>
@@ -23247,7 +23390,7 @@
       <c r="Z779" s="6"/>
     </row>
     <row r="780">
-      <c r="A780" s="35"/>
+      <c r="A780" s="38"/>
       <c r="B780" s="36"/>
       <c r="C780" s="6"/>
       <c r="D780" s="6"/>
@@ -23275,7 +23418,7 @@
       <c r="Z780" s="6"/>
     </row>
     <row r="781">
-      <c r="A781" s="35"/>
+      <c r="A781" s="38"/>
       <c r="B781" s="36"/>
       <c r="C781" s="6"/>
       <c r="D781" s="6"/>
@@ -23303,7 +23446,7 @@
       <c r="Z781" s="6"/>
     </row>
     <row r="782">
-      <c r="A782" s="35"/>
+      <c r="A782" s="38"/>
       <c r="B782" s="36"/>
       <c r="C782" s="6"/>
       <c r="D782" s="6"/>
@@ -23331,7 +23474,7 @@
       <c r="Z782" s="6"/>
     </row>
     <row r="783">
-      <c r="A783" s="35"/>
+      <c r="A783" s="38"/>
       <c r="B783" s="36"/>
       <c r="C783" s="6"/>
       <c r="D783" s="6"/>
@@ -23359,7 +23502,7 @@
       <c r="Z783" s="6"/>
     </row>
     <row r="784">
-      <c r="A784" s="35"/>
+      <c r="A784" s="38"/>
       <c r="B784" s="36"/>
       <c r="C784" s="6"/>
       <c r="D784" s="6"/>
@@ -23387,7 +23530,7 @@
       <c r="Z784" s="6"/>
     </row>
     <row r="785">
-      <c r="A785" s="35"/>
+      <c r="A785" s="38"/>
       <c r="B785" s="36"/>
       <c r="C785" s="6"/>
       <c r="D785" s="6"/>
@@ -23415,7 +23558,7 @@
       <c r="Z785" s="6"/>
     </row>
     <row r="786">
-      <c r="A786" s="35"/>
+      <c r="A786" s="38"/>
       <c r="B786" s="36"/>
       <c r="C786" s="6"/>
       <c r="D786" s="6"/>
@@ -23443,7 +23586,7 @@
       <c r="Z786" s="6"/>
     </row>
     <row r="787">
-      <c r="A787" s="35"/>
+      <c r="A787" s="38"/>
       <c r="B787" s="36"/>
       <c r="C787" s="6"/>
       <c r="D787" s="6"/>
@@ -23471,7 +23614,7 @@
       <c r="Z787" s="6"/>
     </row>
     <row r="788">
-      <c r="A788" s="35"/>
+      <c r="A788" s="38"/>
       <c r="B788" s="36"/>
       <c r="C788" s="6"/>
       <c r="D788" s="6"/>
@@ -23499,7 +23642,7 @@
       <c r="Z788" s="6"/>
     </row>
     <row r="789">
-      <c r="A789" s="35"/>
+      <c r="A789" s="38"/>
       <c r="B789" s="36"/>
       <c r="C789" s="6"/>
       <c r="D789" s="6"/>
@@ -23527,7 +23670,7 @@
       <c r="Z789" s="6"/>
     </row>
     <row r="790">
-      <c r="A790" s="35"/>
+      <c r="A790" s="38"/>
       <c r="B790" s="36"/>
       <c r="C790" s="6"/>
       <c r="D790" s="6"/>
@@ -23555,7 +23698,7 @@
       <c r="Z790" s="6"/>
     </row>
     <row r="791">
-      <c r="A791" s="35"/>
+      <c r="A791" s="38"/>
       <c r="B791" s="36"/>
       <c r="C791" s="6"/>
       <c r="D791" s="6"/>
@@ -23583,7 +23726,7 @@
       <c r="Z791" s="6"/>
     </row>
     <row r="792">
-      <c r="A792" s="35"/>
+      <c r="A792" s="38"/>
       <c r="B792" s="36"/>
       <c r="C792" s="6"/>
       <c r="D792" s="6"/>
@@ -23611,7 +23754,7 @@
       <c r="Z792" s="6"/>
     </row>
     <row r="793">
-      <c r="A793" s="35"/>
+      <c r="A793" s="38"/>
       <c r="B793" s="36"/>
       <c r="C793" s="6"/>
       <c r="D793" s="6"/>
@@ -23639,7 +23782,7 @@
       <c r="Z793" s="6"/>
     </row>
     <row r="794">
-      <c r="A794" s="35"/>
+      <c r="A794" s="38"/>
       <c r="B794" s="36"/>
       <c r="C794" s="6"/>
       <c r="D794" s="6"/>
@@ -23667,7 +23810,7 @@
       <c r="Z794" s="6"/>
     </row>
     <row r="795">
-      <c r="A795" s="35"/>
+      <c r="A795" s="38"/>
       <c r="B795" s="36"/>
       <c r="C795" s="6"/>
       <c r="D795" s="6"/>
@@ -23695,7 +23838,7 @@
       <c r="Z795" s="6"/>
     </row>
     <row r="796">
-      <c r="A796" s="35"/>
+      <c r="A796" s="38"/>
       <c r="B796" s="36"/>
       <c r="C796" s="6"/>
       <c r="D796" s="6"/>
@@ -23723,7 +23866,7 @@
       <c r="Z796" s="6"/>
     </row>
     <row r="797">
-      <c r="A797" s="35"/>
+      <c r="A797" s="38"/>
       <c r="B797" s="36"/>
       <c r="C797" s="6"/>
       <c r="D797" s="6"/>
@@ -23751,7 +23894,7 @@
       <c r="Z797" s="6"/>
     </row>
     <row r="798">
-      <c r="A798" s="35"/>
+      <c r="A798" s="38"/>
       <c r="B798" s="36"/>
       <c r="C798" s="6"/>
       <c r="D798" s="6"/>
@@ -23779,7 +23922,7 @@
       <c r="Z798" s="6"/>
     </row>
     <row r="799">
-      <c r="A799" s="35"/>
+      <c r="A799" s="38"/>
       <c r="B799" s="36"/>
       <c r="C799" s="6"/>
       <c r="D799" s="6"/>
@@ -23807,7 +23950,7 @@
       <c r="Z799" s="6"/>
     </row>
     <row r="800">
-      <c r="A800" s="35"/>
+      <c r="A800" s="38"/>
       <c r="B800" s="36"/>
       <c r="C800" s="6"/>
       <c r="D800" s="6"/>
@@ -23835,7 +23978,7 @@
       <c r="Z800" s="6"/>
     </row>
     <row r="801">
-      <c r="A801" s="35"/>
+      <c r="A801" s="38"/>
       <c r="B801" s="36"/>
       <c r="C801" s="6"/>
       <c r="D801" s="6"/>
@@ -23863,7 +24006,7 @@
       <c r="Z801" s="6"/>
     </row>
     <row r="802">
-      <c r="A802" s="35"/>
+      <c r="A802" s="38"/>
       <c r="B802" s="36"/>
       <c r="C802" s="6"/>
       <c r="D802" s="6"/>
@@ -23891,7 +24034,7 @@
       <c r="Z802" s="6"/>
     </row>
     <row r="803">
-      <c r="A803" s="35"/>
+      <c r="A803" s="38"/>
       <c r="B803" s="36"/>
       <c r="C803" s="6"/>
       <c r="D803" s="6"/>
@@ -23919,7 +24062,7 @@
       <c r="Z803" s="6"/>
     </row>
     <row r="804">
-      <c r="A804" s="35"/>
+      <c r="A804" s="38"/>
       <c r="B804" s="36"/>
       <c r="C804" s="6"/>
       <c r="D804" s="6"/>
@@ -23947,7 +24090,7 @@
       <c r="Z804" s="6"/>
     </row>
     <row r="805">
-      <c r="A805" s="35"/>
+      <c r="A805" s="38"/>
       <c r="B805" s="36"/>
       <c r="C805" s="6"/>
       <c r="D805" s="6"/>
@@ -23975,7 +24118,7 @@
       <c r="Z805" s="6"/>
     </row>
     <row r="806">
-      <c r="A806" s="35"/>
+      <c r="A806" s="38"/>
       <c r="B806" s="36"/>
       <c r="C806" s="6"/>
       <c r="D806" s="6"/>
@@ -24003,7 +24146,7 @@
       <c r="Z806" s="6"/>
     </row>
     <row r="807">
-      <c r="A807" s="35"/>
+      <c r="A807" s="38"/>
       <c r="B807" s="36"/>
       <c r="C807" s="6"/>
       <c r="D807" s="6"/>
@@ -24031,7 +24174,7 @@
       <c r="Z807" s="6"/>
     </row>
     <row r="808">
-      <c r="A808" s="35"/>
+      <c r="A808" s="38"/>
       <c r="B808" s="36"/>
       <c r="C808" s="6"/>
       <c r="D808" s="6"/>
@@ -24059,7 +24202,7 @@
       <c r="Z808" s="6"/>
     </row>
     <row r="809">
-      <c r="A809" s="35"/>
+      <c r="A809" s="38"/>
       <c r="B809" s="36"/>
       <c r="C809" s="6"/>
       <c r="D809" s="6"/>
@@ -24087,7 +24230,7 @@
       <c r="Z809" s="6"/>
     </row>
     <row r="810">
-      <c r="A810" s="35"/>
+      <c r="A810" s="38"/>
       <c r="B810" s="36"/>
       <c r="C810" s="6"/>
       <c r="D810" s="6"/>
@@ -24115,7 +24258,7 @@
       <c r="Z810" s="6"/>
     </row>
     <row r="811">
-      <c r="A811" s="35"/>
+      <c r="A811" s="38"/>
       <c r="B811" s="36"/>
       <c r="C811" s="6"/>
       <c r="D811" s="6"/>
@@ -24143,7 +24286,7 @@
       <c r="Z811" s="6"/>
     </row>
     <row r="812">
-      <c r="A812" s="35"/>
+      <c r="A812" s="38"/>
       <c r="B812" s="36"/>
       <c r="C812" s="6"/>
       <c r="D812" s="6"/>
@@ -24171,7 +24314,7 @@
       <c r="Z812" s="6"/>
     </row>
     <row r="813">
-      <c r="A813" s="35"/>
+      <c r="A813" s="38"/>
       <c r="B813" s="36"/>
       <c r="C813" s="6"/>
       <c r="D813" s="6"/>
@@ -24199,7 +24342,7 @@
       <c r="Z813" s="6"/>
     </row>
     <row r="814">
-      <c r="A814" s="35"/>
+      <c r="A814" s="38"/>
       <c r="B814" s="36"/>
       <c r="C814" s="6"/>
       <c r="D814" s="6"/>
@@ -24227,7 +24370,7 @@
       <c r="Z814" s="6"/>
     </row>
     <row r="815">
-      <c r="A815" s="35"/>
+      <c r="A815" s="38"/>
       <c r="B815" s="36"/>
       <c r="C815" s="6"/>
       <c r="D815" s="6"/>
@@ -24255,7 +24398,7 @@
       <c r="Z815" s="6"/>
     </row>
     <row r="816">
-      <c r="A816" s="35"/>
+      <c r="A816" s="38"/>
       <c r="B816" s="36"/>
       <c r="C816" s="6"/>
       <c r="D816" s="6"/>
@@ -24283,7 +24426,7 @@
       <c r="Z816" s="6"/>
     </row>
     <row r="817">
-      <c r="A817" s="35"/>
+      <c r="A817" s="38"/>
       <c r="B817" s="36"/>
       <c r="C817" s="6"/>
       <c r="D817" s="6"/>
@@ -24311,7 +24454,7 @@
       <c r="Z817" s="6"/>
     </row>
     <row r="818">
-      <c r="A818" s="35"/>
+      <c r="A818" s="38"/>
       <c r="B818" s="36"/>
       <c r="C818" s="6"/>
       <c r="D818" s="6"/>
@@ -24339,7 +24482,7 @@
       <c r="Z818" s="6"/>
     </row>
     <row r="819">
-      <c r="A819" s="35"/>
+      <c r="A819" s="38"/>
       <c r="B819" s="36"/>
       <c r="C819" s="6"/>
       <c r="D819" s="6"/>
@@ -24367,7 +24510,7 @@
       <c r="Z819" s="6"/>
     </row>
     <row r="820">
-      <c r="A820" s="35"/>
+      <c r="A820" s="38"/>
       <c r="B820" s="36"/>
       <c r="C820" s="6"/>
       <c r="D820" s="6"/>
@@ -24395,7 +24538,7 @@
       <c r="Z820" s="6"/>
     </row>
     <row r="821">
-      <c r="A821" s="35"/>
+      <c r="A821" s="38"/>
       <c r="B821" s="36"/>
       <c r="C821" s="6"/>
       <c r="D821" s="6"/>
@@ -24423,7 +24566,7 @@
       <c r="Z821" s="6"/>
     </row>
     <row r="822">
-      <c r="A822" s="35"/>
+      <c r="A822" s="38"/>
       <c r="B822" s="36"/>
       <c r="C822" s="6"/>
       <c r="D822" s="6"/>
@@ -24451,7 +24594,7 @@
       <c r="Z822" s="6"/>
     </row>
     <row r="823">
-      <c r="A823" s="35"/>
+      <c r="A823" s="38"/>
       <c r="B823" s="36"/>
       <c r="C823" s="6"/>
       <c r="D823" s="6"/>
@@ -24479,7 +24622,7 @@
       <c r="Z823" s="6"/>
     </row>
     <row r="824">
-      <c r="A824" s="35"/>
+      <c r="A824" s="38"/>
       <c r="B824" s="36"/>
       <c r="C824" s="6"/>
       <c r="D824" s="6"/>
@@ -24507,7 +24650,7 @@
       <c r="Z824" s="6"/>
     </row>
     <row r="825">
-      <c r="A825" s="35"/>
+      <c r="A825" s="38"/>
       <c r="B825" s="36"/>
       <c r="C825" s="6"/>
       <c r="D825" s="6"/>
@@ -24535,7 +24678,7 @@
       <c r="Z825" s="6"/>
     </row>
     <row r="826">
-      <c r="A826" s="35"/>
+      <c r="A826" s="38"/>
       <c r="B826" s="36"/>
       <c r="C826" s="6"/>
       <c r="D826" s="6"/>
@@ -24563,7 +24706,7 @@
       <c r="Z826" s="6"/>
     </row>
     <row r="827">
-      <c r="A827" s="35"/>
+      <c r="A827" s="38"/>
       <c r="B827" s="36"/>
       <c r="C827" s="6"/>
       <c r="D827" s="6"/>
@@ -24591,7 +24734,7 @@
       <c r="Z827" s="6"/>
     </row>
     <row r="828">
-      <c r="A828" s="35"/>
+      <c r="A828" s="38"/>
       <c r="B828" s="36"/>
       <c r="C828" s="6"/>
       <c r="D828" s="6"/>
@@ -24619,7 +24762,7 @@
       <c r="Z828" s="6"/>
     </row>
     <row r="829">
-      <c r="A829" s="35"/>
+      <c r="A829" s="38"/>
       <c r="B829" s="36"/>
       <c r="C829" s="6"/>
       <c r="D829" s="6"/>
@@ -24647,7 +24790,7 @@
       <c r="Z829" s="6"/>
     </row>
     <row r="830">
-      <c r="A830" s="35"/>
+      <c r="A830" s="38"/>
       <c r="B830" s="36"/>
       <c r="C830" s="6"/>
       <c r="D830" s="6"/>
@@ -24675,7 +24818,7 @@
       <c r="Z830" s="6"/>
     </row>
     <row r="831">
-      <c r="A831" s="35"/>
+      <c r="A831" s="38"/>
       <c r="B831" s="36"/>
       <c r="C831" s="6"/>
       <c r="D831" s="6"/>
@@ -24703,7 +24846,7 @@
       <c r="Z831" s="6"/>
     </row>
     <row r="832">
-      <c r="A832" s="35"/>
+      <c r="A832" s="38"/>
       <c r="B832" s="36"/>
       <c r="C832" s="6"/>
       <c r="D832" s="6"/>
@@ -24731,7 +24874,7 @@
       <c r="Z832" s="6"/>
     </row>
     <row r="833">
-      <c r="A833" s="35"/>
+      <c r="A833" s="38"/>
       <c r="B833" s="36"/>
       <c r="C833" s="6"/>
       <c r="D833" s="6"/>
@@ -24759,7 +24902,7 @@
       <c r="Z833" s="6"/>
     </row>
     <row r="834">
-      <c r="A834" s="35"/>
+      <c r="A834" s="38"/>
       <c r="B834" s="36"/>
       <c r="C834" s="6"/>
       <c r="D834" s="6"/>
@@ -24787,7 +24930,7 @@
       <c r="Z834" s="6"/>
     </row>
     <row r="835">
-      <c r="A835" s="35"/>
+      <c r="A835" s="38"/>
       <c r="B835" s="36"/>
       <c r="C835" s="6"/>
       <c r="D835" s="6"/>
@@ -24815,7 +24958,7 @@
       <c r="Z835" s="6"/>
     </row>
     <row r="836">
-      <c r="A836" s="35"/>
+      <c r="A836" s="38"/>
       <c r="B836" s="36"/>
       <c r="C836" s="6"/>
       <c r="D836" s="6"/>
@@ -24843,7 +24986,7 @@
       <c r="Z836" s="6"/>
     </row>
     <row r="837">
-      <c r="A837" s="35"/>
+      <c r="A837" s="38"/>
       <c r="B837" s="36"/>
       <c r="C837" s="6"/>
       <c r="D837" s="6"/>
@@ -24871,7 +25014,7 @@
       <c r="Z837" s="6"/>
     </row>
     <row r="838">
-      <c r="A838" s="35"/>
+      <c r="A838" s="38"/>
       <c r="B838" s="36"/>
       <c r="C838" s="6"/>
       <c r="D838" s="6"/>
@@ -24899,7 +25042,7 @@
       <c r="Z838" s="6"/>
     </row>
     <row r="839">
-      <c r="A839" s="35"/>
+      <c r="A839" s="38"/>
       <c r="B839" s="36"/>
       <c r="C839" s="6"/>
       <c r="D839" s="6"/>
@@ -24927,7 +25070,7 @@
       <c r="Z839" s="6"/>
     </row>
     <row r="840">
-      <c r="A840" s="35"/>
+      <c r="A840" s="38"/>
       <c r="B840" s="36"/>
       <c r="C840" s="6"/>
       <c r="D840" s="6"/>
@@ -24955,7 +25098,7 @@
       <c r="Z840" s="6"/>
     </row>
     <row r="841">
-      <c r="A841" s="35"/>
+      <c r="A841" s="38"/>
       <c r="B841" s="36"/>
       <c r="C841" s="6"/>
       <c r="D841" s="6"/>
@@ -24983,7 +25126,7 @@
       <c r="Z841" s="6"/>
     </row>
     <row r="842">
-      <c r="A842" s="35"/>
+      <c r="A842" s="38"/>
       <c r="B842" s="36"/>
       <c r="C842" s="6"/>
       <c r="D842" s="6"/>
@@ -25011,7 +25154,7 @@
       <c r="Z842" s="6"/>
     </row>
     <row r="843">
-      <c r="A843" s="35"/>
+      <c r="A843" s="38"/>
       <c r="B843" s="36"/>
       <c r="C843" s="6"/>
       <c r="D843" s="6"/>
@@ -25039,7 +25182,7 @@
       <c r="Z843" s="6"/>
     </row>
     <row r="844">
-      <c r="A844" s="35"/>
+      <c r="A844" s="38"/>
       <c r="B844" s="36"/>
       <c r="C844" s="6"/>
       <c r="D844" s="6"/>
@@ -25067,7 +25210,7 @@
       <c r="Z844" s="6"/>
     </row>
     <row r="845">
-      <c r="A845" s="35"/>
+      <c r="A845" s="38"/>
       <c r="B845" s="36"/>
       <c r="C845" s="6"/>
       <c r="D845" s="6"/>
@@ -25095,7 +25238,7 @@
       <c r="Z845" s="6"/>
     </row>
     <row r="846">
-      <c r="A846" s="35"/>
+      <c r="A846" s="38"/>
       <c r="B846" s="36"/>
       <c r="C846" s="6"/>
       <c r="D846" s="6"/>
@@ -25123,7 +25266,7 @@
       <c r="Z846" s="6"/>
     </row>
     <row r="847">
-      <c r="A847" s="35"/>
+      <c r="A847" s="38"/>
       <c r="B847" s="36"/>
       <c r="C847" s="6"/>
       <c r="D847" s="6"/>
@@ -25151,7 +25294,7 @@
       <c r="Z847" s="6"/>
     </row>
     <row r="848">
-      <c r="A848" s="35"/>
+      <c r="A848" s="38"/>
       <c r="B848" s="36"/>
       <c r="C848" s="6"/>
       <c r="D848" s="6"/>
@@ -25179,7 +25322,7 @@
       <c r="Z848" s="6"/>
     </row>
     <row r="849">
-      <c r="A849" s="35"/>
+      <c r="A849" s="38"/>
       <c r="B849" s="36"/>
       <c r="C849" s="6"/>
       <c r="D849" s="6"/>
@@ -25207,7 +25350,7 @@
       <c r="Z849" s="6"/>
     </row>
     <row r="850">
-      <c r="A850" s="35"/>
+      <c r="A850" s="38"/>
       <c r="B850" s="36"/>
       <c r="C850" s="6"/>
       <c r="D850" s="6"/>
@@ -25235,7 +25378,7 @@
       <c r="Z850" s="6"/>
     </row>
     <row r="851">
-      <c r="A851" s="35"/>
+      <c r="A851" s="38"/>
       <c r="B851" s="36"/>
       <c r="C851" s="6"/>
       <c r="D851" s="6"/>
@@ -25263,7 +25406,7 @@
       <c r="Z851" s="6"/>
     </row>
     <row r="852">
-      <c r="A852" s="35"/>
+      <c r="A852" s="38"/>
       <c r="B852" s="36"/>
       <c r="C852" s="6"/>
       <c r="D852" s="6"/>
@@ -25291,7 +25434,7 @@
       <c r="Z852" s="6"/>
     </row>
     <row r="853">
-      <c r="A853" s="35"/>
+      <c r="A853" s="38"/>
       <c r="B853" s="36"/>
       <c r="C853" s="6"/>
       <c r="D853" s="6"/>
@@ -25319,7 +25462,7 @@
       <c r="Z853" s="6"/>
     </row>
     <row r="854">
-      <c r="A854" s="35"/>
+      <c r="A854" s="38"/>
       <c r="B854" s="36"/>
       <c r="C854" s="6"/>
       <c r="D854" s="6"/>
@@ -25347,7 +25490,7 @@
       <c r="Z854" s="6"/>
     </row>
     <row r="855">
-      <c r="A855" s="35"/>
+      <c r="A855" s="38"/>
       <c r="B855" s="36"/>
       <c r="C855" s="6"/>
       <c r="D855" s="6"/>
@@ -25375,7 +25518,7 @@
       <c r="Z855" s="6"/>
     </row>
     <row r="856">
-      <c r="A856" s="35"/>
+      <c r="A856" s="38"/>
       <c r="B856" s="36"/>
       <c r="C856" s="6"/>
       <c r="D856" s="6"/>
@@ -25403,7 +25546,7 @@
       <c r="Z856" s="6"/>
     </row>
     <row r="857">
-      <c r="A857" s="35"/>
+      <c r="A857" s="38"/>
       <c r="B857" s="36"/>
       <c r="C857" s="6"/>
       <c r="D857" s="6"/>
@@ -25431,7 +25574,7 @@
       <c r="Z857" s="6"/>
     </row>
     <row r="858">
-      <c r="A858" s="35"/>
+      <c r="A858" s="38"/>
       <c r="B858" s="36"/>
       <c r="C858" s="6"/>
       <c r="D858" s="6"/>
@@ -25459,7 +25602,7 @@
       <c r="Z858" s="6"/>
     </row>
     <row r="859">
-      <c r="A859" s="35"/>
+      <c r="A859" s="38"/>
       <c r="B859" s="36"/>
       <c r="C859" s="6"/>
       <c r="D859" s="6"/>
@@ -25487,7 +25630,7 @@
       <c r="Z859" s="6"/>
     </row>
     <row r="860">
-      <c r="A860" s="35"/>
+      <c r="A860" s="38"/>
       <c r="B860" s="36"/>
       <c r="C860" s="6"/>
       <c r="D860" s="6"/>
@@ -25515,7 +25658,7 @@
       <c r="Z860" s="6"/>
     </row>
     <row r="861">
-      <c r="A861" s="35"/>
+      <c r="A861" s="38"/>
       <c r="B861" s="36"/>
       <c r="C861" s="6"/>
       <c r="D861" s="6"/>
@@ -25543,7 +25686,7 @@
       <c r="Z861" s="6"/>
     </row>
     <row r="862">
-      <c r="A862" s="35"/>
+      <c r="A862" s="38"/>
       <c r="B862" s="36"/>
       <c r="C862" s="6"/>
       <c r="D862" s="6"/>
@@ -25571,7 +25714,7 @@
       <c r="Z862" s="6"/>
     </row>
     <row r="863">
-      <c r="A863" s="35"/>
+      <c r="A863" s="38"/>
       <c r="B863" s="36"/>
       <c r="C863" s="6"/>
       <c r="D863" s="6"/>
@@ -25599,7 +25742,7 @@
       <c r="Z863" s="6"/>
     </row>
     <row r="864">
-      <c r="A864" s="35"/>
+      <c r="A864" s="38"/>
       <c r="B864" s="36"/>
       <c r="C864" s="6"/>
       <c r="D864" s="6"/>
@@ -25627,7 +25770,7 @@
       <c r="Z864" s="6"/>
     </row>
     <row r="865">
-      <c r="A865" s="35"/>
+      <c r="A865" s="38"/>
       <c r="B865" s="36"/>
       <c r="C865" s="6"/>
       <c r="D865" s="6"/>
@@ -25655,7 +25798,7 @@
       <c r="Z865" s="6"/>
     </row>
     <row r="866">
-      <c r="A866" s="35"/>
+      <c r="A866" s="38"/>
       <c r="B866" s="36"/>
       <c r="C866" s="6"/>
       <c r="D866" s="6"/>
@@ -25683,7 +25826,7 @@
       <c r="Z866" s="6"/>
     </row>
     <row r="867">
-      <c r="A867" s="35"/>
+      <c r="A867" s="38"/>
       <c r="B867" s="36"/>
       <c r="C867" s="6"/>
       <c r="D867" s="6"/>
@@ -25711,7 +25854,7 @@
       <c r="Z867" s="6"/>
     </row>
     <row r="868">
-      <c r="A868" s="35"/>
+      <c r="A868" s="38"/>
       <c r="B868" s="36"/>
       <c r="C868" s="6"/>
       <c r="D868" s="6"/>
@@ -25739,7 +25882,7 @@
       <c r="Z868" s="6"/>
     </row>
     <row r="869">
-      <c r="A869" s="35"/>
+      <c r="A869" s="38"/>
       <c r="B869" s="36"/>
       <c r="C869" s="6"/>
       <c r="D869" s="6"/>
@@ -25767,7 +25910,7 @@
       <c r="Z869" s="6"/>
     </row>
     <row r="870">
-      <c r="A870" s="35"/>
+      <c r="A870" s="38"/>
       <c r="B870" s="36"/>
       <c r="C870" s="6"/>
       <c r="D870" s="6"/>
@@ -25795,7 +25938,7 @@
       <c r="Z870" s="6"/>
     </row>
     <row r="871">
-      <c r="A871" s="35"/>
+      <c r="A871" s="38"/>
       <c r="B871" s="36"/>
       <c r="C871" s="6"/>
       <c r="D871" s="6"/>
@@ -25823,7 +25966,7 @@
       <c r="Z871" s="6"/>
     </row>
     <row r="872">
-      <c r="A872" s="35"/>
+      <c r="A872" s="38"/>
       <c r="B872" s="36"/>
       <c r="C872" s="6"/>
       <c r="D872" s="6"/>
@@ -25851,7 +25994,7 @@
       <c r="Z872" s="6"/>
     </row>
     <row r="873">
-      <c r="A873" s="35"/>
+      <c r="A873" s="38"/>
       <c r="B873" s="36"/>
       <c r="C873" s="6"/>
       <c r="D873" s="6"/>
@@ -25879,7 +26022,7 @@
       <c r="Z873" s="6"/>
     </row>
     <row r="874">
-      <c r="A874" s="35"/>
+      <c r="A874" s="38"/>
       <c r="B874" s="36"/>
       <c r="C874" s="6"/>
       <c r="D874" s="6"/>
@@ -25907,7 +26050,7 @@
       <c r="Z874" s="6"/>
     </row>
     <row r="875">
-      <c r="A875" s="35"/>
+      <c r="A875" s="38"/>
       <c r="B875" s="36"/>
       <c r="C875" s="6"/>
       <c r="D875" s="6"/>
@@ -25935,7 +26078,7 @@
       <c r="Z875" s="6"/>
     </row>
     <row r="876">
-      <c r="A876" s="35"/>
+      <c r="A876" s="38"/>
       <c r="B876" s="36"/>
       <c r="C876" s="6"/>
       <c r="D876" s="6"/>
@@ -25963,7 +26106,7 @@
       <c r="Z876" s="6"/>
     </row>
     <row r="877">
-      <c r="A877" s="35"/>
+      <c r="A877" s="38"/>
       <c r="B877" s="36"/>
       <c r="C877" s="6"/>
       <c r="D877" s="6"/>
@@ -25991,7 +26134,7 @@
       <c r="Z877" s="6"/>
     </row>
     <row r="878">
-      <c r="A878" s="35"/>
+      <c r="A878" s="38"/>
       <c r="B878" s="36"/>
       <c r="C878" s="6"/>
       <c r="D878" s="6"/>
@@ -26019,7 +26162,7 @@
       <c r="Z878" s="6"/>
     </row>
     <row r="879">
-      <c r="A879" s="35"/>
+      <c r="A879" s="38"/>
       <c r="B879" s="36"/>
       <c r="C879" s="6"/>
       <c r="D879" s="6"/>
@@ -26047,7 +26190,7 @@
       <c r="Z879" s="6"/>
     </row>
     <row r="880">
-      <c r="A880" s="35"/>
+      <c r="A880" s="38"/>
       <c r="B880" s="36"/>
       <c r="C880" s="6"/>
       <c r="D880" s="6"/>
@@ -26075,7 +26218,7 @@
       <c r="Z880" s="6"/>
     </row>
     <row r="881">
-      <c r="A881" s="35"/>
+      <c r="A881" s="38"/>
       <c r="B881" s="36"/>
       <c r="C881" s="6"/>
       <c r="D881" s="6"/>
@@ -26103,7 +26246,7 @@
       <c r="Z881" s="6"/>
     </row>
     <row r="882">
-      <c r="A882" s="35"/>
+      <c r="A882" s="38"/>
       <c r="B882" s="36"/>
       <c r="C882" s="6"/>
       <c r="D882" s="6"/>
@@ -26131,7 +26274,7 @@
       <c r="Z882" s="6"/>
     </row>
     <row r="883">
-      <c r="A883" s="35"/>
+      <c r="A883" s="38"/>
       <c r="B883" s="36"/>
       <c r="C883" s="6"/>
       <c r="D883" s="6"/>
@@ -26159,7 +26302,7 @@
       <c r="Z883" s="6"/>
     </row>
     <row r="884">
-      <c r="A884" s="35"/>
+      <c r="A884" s="38"/>
       <c r="B884" s="36"/>
       <c r="C884" s="6"/>
       <c r="D884" s="6"/>
@@ -26187,7 +26330,7 @@
       <c r="Z884" s="6"/>
     </row>
     <row r="885">
-      <c r="A885" s="35"/>
+      <c r="A885" s="38"/>
       <c r="B885" s="36"/>
       <c r="C885" s="6"/>
       <c r="D885" s="6"/>
@@ -26215,7 +26358,7 @@
       <c r="Z885" s="6"/>
     </row>
     <row r="886">
-      <c r="A886" s="35"/>
+      <c r="A886" s="38"/>
       <c r="B886" s="36"/>
       <c r="C886" s="6"/>
       <c r="D886" s="6"/>
@@ -26243,7 +26386,7 @@
       <c r="Z886" s="6"/>
     </row>
     <row r="887">
-      <c r="A887" s="35"/>
+      <c r="A887" s="38"/>
       <c r="B887" s="36"/>
       <c r="C887" s="6"/>
       <c r="D887" s="6"/>
@@ -26271,7 +26414,7 @@
       <c r="Z887" s="6"/>
     </row>
     <row r="888">
-      <c r="A888" s="35"/>
+      <c r="A888" s="38"/>
       <c r="B888" s="36"/>
       <c r="C888" s="6"/>
       <c r="D888" s="6"/>
@@ -26299,7 +26442,7 @@
       <c r="Z888" s="6"/>
     </row>
     <row r="889">
-      <c r="A889" s="35"/>
+      <c r="A889" s="38"/>
       <c r="B889" s="36"/>
       <c r="C889" s="6"/>
       <c r="D889" s="6"/>
@@ -26327,7 +26470,7 @@
       <c r="Z889" s="6"/>
     </row>
     <row r="890">
-      <c r="A890" s="35"/>
+      <c r="A890" s="38"/>
       <c r="B890" s="36"/>
       <c r="C890" s="6"/>
       <c r="D890" s="6"/>
@@ -26355,7 +26498,7 @@
       <c r="Z890" s="6"/>
     </row>
     <row r="891">
-      <c r="A891" s="35"/>
+      <c r="A891" s="38"/>
       <c r="B891" s="36"/>
       <c r="C891" s="6"/>
       <c r="D891" s="6"/>
@@ -26383,7 +26526,7 @@
       <c r="Z891" s="6"/>
     </row>
     <row r="892">
-      <c r="A892" s="35"/>
+      <c r="A892" s="38"/>
       <c r="B892" s="36"/>
       <c r="C892" s="6"/>
       <c r="D892" s="6"/>
@@ -26411,7 +26554,7 @@
       <c r="Z892" s="6"/>
     </row>
     <row r="893">
-      <c r="A893" s="35"/>
+      <c r="A893" s="38"/>
       <c r="B893" s="36"/>
       <c r="C893" s="6"/>
       <c r="D893" s="6"/>
@@ -26439,7 +26582,7 @@
       <c r="Z893" s="6"/>
     </row>
     <row r="894">
-      <c r="A894" s="35"/>
+      <c r="A894" s="38"/>
       <c r="B894" s="36"/>
       <c r="C894" s="6"/>
       <c r="D894" s="6"/>
@@ -26467,7 +26610,7 @@
       <c r="Z894" s="6"/>
     </row>
     <row r="895">
-      <c r="A895" s="35"/>
+      <c r="A895" s="38"/>
       <c r="B895" s="36"/>
       <c r="C895" s="6"/>
       <c r="D895" s="6"/>
@@ -26495,7 +26638,7 @@
       <c r="Z895" s="6"/>
     </row>
     <row r="896">
-      <c r="A896" s="35"/>
+      <c r="A896" s="38"/>
       <c r="B896" s="36"/>
       <c r="C896" s="6"/>
       <c r="D896" s="6"/>
@@ -26523,7 +26666,7 @@
       <c r="Z896" s="6"/>
     </row>
     <row r="897">
-      <c r="A897" s="35"/>
+      <c r="A897" s="38"/>
       <c r="B897" s="36"/>
       <c r="C897" s="6"/>
       <c r="D897" s="6"/>
@@ -26551,7 +26694,7 @@
       <c r="Z897" s="6"/>
     </row>
     <row r="898">
-      <c r="A898" s="35"/>
+      <c r="A898" s="38"/>
       <c r="B898" s="36"/>
       <c r="C898" s="6"/>
       <c r="D898" s="6"/>
@@ -26579,7 +26722,7 @@
       <c r="Z898" s="6"/>
     </row>
     <row r="899">
-      <c r="A899" s="35"/>
+      <c r="A899" s="38"/>
       <c r="B899" s="36"/>
       <c r="C899" s="6"/>
       <c r="D899" s="6"/>
@@ -26607,7 +26750,7 @@
       <c r="Z899" s="6"/>
     </row>
     <row r="900">
-      <c r="A900" s="35"/>
+      <c r="A900" s="38"/>
       <c r="B900" s="36"/>
       <c r="C900" s="6"/>
       <c r="D900" s="6"/>
@@ -26635,7 +26778,7 @@
       <c r="Z900" s="6"/>
     </row>
     <row r="901">
-      <c r="A901" s="35"/>
+      <c r="A901" s="38"/>
       <c r="B901" s="36"/>
       <c r="C901" s="6"/>
       <c r="D901" s="6"/>
@@ -26663,7 +26806,7 @@
       <c r="Z901" s="6"/>
     </row>
     <row r="902">
-      <c r="A902" s="35"/>
+      <c r="A902" s="38"/>
       <c r="B902" s="36"/>
       <c r="C902" s="6"/>
       <c r="D902" s="6"/>
@@ -26691,7 +26834,7 @@
       <c r="Z902" s="6"/>
     </row>
     <row r="903">
-      <c r="A903" s="35"/>
+      <c r="A903" s="38"/>
       <c r="B903" s="36"/>
       <c r="C903" s="6"/>
       <c r="D903" s="6"/>
@@ -26719,7 +26862,7 @@
       <c r="Z903" s="6"/>
     </row>
     <row r="904">
-      <c r="A904" s="35"/>
+      <c r="A904" s="38"/>
       <c r="B904" s="36"/>
       <c r="C904" s="6"/>
       <c r="D904" s="6"/>
@@ -26747,7 +26890,7 @@
       <c r="Z904" s="6"/>
     </row>
     <row r="905">
-      <c r="A905" s="35"/>
+      <c r="A905" s="38"/>
       <c r="B905" s="36"/>
       <c r="C905" s="6"/>
       <c r="D905" s="6"/>
@@ -26775,7 +26918,7 @@
       <c r="Z905" s="6"/>
     </row>
     <row r="906">
-      <c r="A906" s="35"/>
+      <c r="A906" s="38"/>
       <c r="B906" s="36"/>
       <c r="C906" s="6"/>
       <c r="D906" s="6"/>
@@ -26803,7 +26946,7 @@
       <c r="Z906" s="6"/>
     </row>
     <row r="907">
-      <c r="A907" s="35"/>
+      <c r="A907" s="38"/>
       <c r="B907" s="36"/>
       <c r="C907" s="6"/>
       <c r="D907" s="6"/>
@@ -26831,7 +26974,7 @@
       <c r="Z907" s="6"/>
     </row>
     <row r="908">
-      <c r="A908" s="35"/>
+      <c r="A908" s="38"/>
       <c r="B908" s="36"/>
       <c r="C908" s="6"/>
       <c r="D908" s="6"/>
@@ -26859,7 +27002,7 @@
       <c r="Z908" s="6"/>
     </row>
     <row r="909">
-      <c r="A909" s="35"/>
+      <c r="A909" s="38"/>
       <c r="B909" s="36"/>
       <c r="C909" s="6"/>
       <c r="D909" s="6"/>
@@ -26887,7 +27030,7 @@
       <c r="Z909" s="6"/>
     </row>
     <row r="910">
-      <c r="A910" s="35"/>
+      <c r="A910" s="38"/>
       <c r="B910" s="36"/>
       <c r="C910" s="6"/>
       <c r="D910" s="6"/>
@@ -26915,7 +27058,7 @@
       <c r="Z910" s="6"/>
     </row>
     <row r="911">
-      <c r="A911" s="35"/>
+      <c r="A911" s="38"/>
       <c r="B911" s="36"/>
       <c r="C911" s="6"/>
       <c r="D911" s="6"/>
@@ -26943,7 +27086,7 @@
       <c r="Z911" s="6"/>
     </row>
     <row r="912">
-      <c r="A912" s="35"/>
+      <c r="A912" s="38"/>
       <c r="B912" s="36"/>
       <c r="C912" s="6"/>
       <c r="D912" s="6"/>
@@ -26971,7 +27114,7 @@
       <c r="Z912" s="6"/>
     </row>
     <row r="913">
-      <c r="A913" s="35"/>
+      <c r="A913" s="38"/>
       <c r="B913" s="36"/>
       <c r="C913" s="6"/>
       <c r="D913" s="6"/>
@@ -26999,7 +27142,7 @@
       <c r="Z913" s="6"/>
     </row>
     <row r="914">
-      <c r="A914" s="35"/>
+      <c r="A914" s="38"/>
       <c r="B914" s="36"/>
       <c r="C914" s="6"/>
       <c r="D914" s="6"/>
@@ -27027,7 +27170,7 @@
       <c r="Z914" s="6"/>
     </row>
     <row r="915">
-      <c r="A915" s="35"/>
+      <c r="A915" s="38"/>
       <c r="B915" s="36"/>
       <c r="C915" s="6"/>
       <c r="D915" s="6"/>
@@ -27055,7 +27198,7 @@
       <c r="Z915" s="6"/>
     </row>
     <row r="916">
-      <c r="A916" s="35"/>
+      <c r="A916" s="38"/>
       <c r="B916" s="36"/>
       <c r="C916" s="6"/>
       <c r="D916" s="6"/>
@@ -27083,7 +27226,7 @@
       <c r="Z916" s="6"/>
     </row>
     <row r="917">
-      <c r="A917" s="35"/>
+      <c r="A917" s="38"/>
       <c r="B917" s="36"/>
       <c r="C917" s="6"/>
       <c r="D917" s="6"/>
@@ -27111,7 +27254,7 @@
       <c r="Z917" s="6"/>
     </row>
     <row r="918">
-      <c r="A918" s="35"/>
+      <c r="A918" s="38"/>
       <c r="B918" s="36"/>
       <c r="C918" s="6"/>
       <c r="D918" s="6"/>
@@ -27139,7 +27282,7 @@
       <c r="Z918" s="6"/>
     </row>
     <row r="919">
-      <c r="A919" s="35"/>
+      <c r="A919" s="38"/>
       <c r="B919" s="36"/>
       <c r="C919" s="6"/>
       <c r="D919" s="6"/>
@@ -27167,7 +27310,7 @@
       <c r="Z919" s="6"/>
     </row>
     <row r="920">
-      <c r="A920" s="35"/>
+      <c r="A920" s="38"/>
       <c r="B920" s="36"/>
       <c r="C920" s="6"/>
       <c r="D920" s="6"/>
@@ -27195,7 +27338,7 @@
       <c r="Z920" s="6"/>
     </row>
     <row r="921">
-      <c r="A921" s="35"/>
+      <c r="A921" s="38"/>
       <c r="B921" s="36"/>
       <c r="C921" s="6"/>
       <c r="D921" s="6"/>
@@ -27223,7 +27366,7 @@
       <c r="Z921" s="6"/>
     </row>
     <row r="922">
-      <c r="A922" s="35"/>
+      <c r="A922" s="38"/>
       <c r="B922" s="36"/>
       <c r="C922" s="6"/>
       <c r="D922" s="6"/>
@@ -27251,7 +27394,7 @@
       <c r="Z922" s="6"/>
     </row>
     <row r="923">
-      <c r="A923" s="35"/>
+      <c r="A923" s="38"/>
       <c r="B923" s="36"/>
       <c r="C923" s="6"/>
       <c r="D923" s="6"/>
@@ -27279,7 +27422,7 @@
       <c r="Z923" s="6"/>
     </row>
     <row r="924">
-      <c r="A924" s="35"/>
+      <c r="A924" s="38"/>
       <c r="B924" s="36"/>
       <c r="C924" s="6"/>
       <c r="D924" s="6"/>
@@ -27307,7 +27450,7 @@
       <c r="Z924" s="6"/>
     </row>
     <row r="925">
-      <c r="A925" s="35"/>
+      <c r="A925" s="38"/>
       <c r="B925" s="36"/>
       <c r="C925" s="6"/>
       <c r="D925" s="6"/>
@@ -27335,7 +27478,7 @@
       <c r="Z925" s="6"/>
     </row>
     <row r="926">
-      <c r="A926" s="35"/>
+      <c r="A926" s="38"/>
       <c r="B926" s="36"/>
       <c r="C926" s="6"/>
       <c r="D926" s="6"/>
@@ -27363,7 +27506,7 @@
       <c r="Z926" s="6"/>
     </row>
     <row r="927">
-      <c r="A927" s="35"/>
+      <c r="A927" s="38"/>
       <c r="B927" s="36"/>
       <c r="C927" s="6"/>
       <c r="D927" s="6"/>
@@ -27391,7 +27534,7 @@
       <c r="Z927" s="6"/>
     </row>
     <row r="928">
-      <c r="A928" s="35"/>
+      <c r="A928" s="38"/>
       <c r="B928" s="36"/>
       <c r="C928" s="6"/>
       <c r="D928" s="6"/>
@@ -27419,7 +27562,7 @@
       <c r="Z928" s="6"/>
     </row>
     <row r="929">
-      <c r="A929" s="35"/>
+      <c r="A929" s="38"/>
       <c r="B929" s="36"/>
       <c r="C929" s="6"/>
       <c r="D929" s="6"/>
@@ -27447,7 +27590,7 @@
       <c r="Z929" s="6"/>
     </row>
     <row r="930">
-      <c r="A930" s="35"/>
+      <c r="A930" s="38"/>
       <c r="B930" s="36"/>
       <c r="C930" s="6"/>
       <c r="D930" s="6"/>
@@ -27475,7 +27618,7 @@
       <c r="Z930" s="6"/>
     </row>
     <row r="931">
-      <c r="A931" s="35"/>
+      <c r="A931" s="38"/>
       <c r="B931" s="36"/>
       <c r="C931" s="6"/>
       <c r="D931" s="6"/>
@@ -27503,7 +27646,7 @@
       <c r="Z931" s="6"/>
     </row>
     <row r="932">
-      <c r="A932" s="35"/>
+      <c r="A932" s="38"/>
       <c r="B932" s="36"/>
       <c r="C932" s="6"/>
       <c r="D932" s="6"/>
@@ -27531,7 +27674,7 @@
       <c r="Z932" s="6"/>
     </row>
     <row r="933">
-      <c r="A933" s="35"/>
+      <c r="A933" s="38"/>
       <c r="B933" s="36"/>
       <c r="C933" s="6"/>
       <c r="D933" s="6"/>
@@ -27559,7 +27702,7 @@
       <c r="Z933" s="6"/>
     </row>
     <row r="934">
-      <c r="A934" s="35"/>
+      <c r="A934" s="38"/>
       <c r="B934" s="36"/>
       <c r="C934" s="6"/>
       <c r="D934" s="6"/>
@@ -27587,7 +27730,7 @@
       <c r="Z934" s="6"/>
     </row>
     <row r="935">
-      <c r="A935" s="35"/>
+      <c r="A935" s="38"/>
       <c r="B935" s="36"/>
       <c r="C935" s="6"/>
       <c r="D935" s="6"/>
@@ -27615,7 +27758,7 @@
       <c r="Z935" s="6"/>
     </row>
     <row r="936">
-      <c r="A936" s="35"/>
+      <c r="A936" s="38"/>
       <c r="B936" s="36"/>
       <c r="C936" s="6"/>
       <c r="D936" s="6"/>
@@ -27643,7 +27786,7 @@
       <c r="Z936" s="6"/>
     </row>
     <row r="937">
-      <c r="A937" s="35"/>
+      <c r="A937" s="38"/>
       <c r="B937" s="36"/>
       <c r="C937" s="6"/>
       <c r="D937" s="6"/>
@@ -27671,7 +27814,7 @@
       <c r="Z937" s="6"/>
     </row>
     <row r="938">
-      <c r="A938" s="35"/>
+      <c r="A938" s="38"/>
       <c r="B938" s="36"/>
       <c r="C938" s="6"/>
       <c r="D938" s="6"/>
@@ -27699,7 +27842,7 @@
       <c r="Z938" s="6"/>
     </row>
     <row r="939">
-      <c r="A939" s="35"/>
+      <c r="A939" s="38"/>
       <c r="B939" s="36"/>
       <c r="C939" s="6"/>
       <c r="D939" s="6"/>
@@ -27727,7 +27870,7 @@
       <c r="Z939" s="6"/>
     </row>
     <row r="940">
-      <c r="A940" s="35"/>
+      <c r="A940" s="38"/>
       <c r="B940" s="36"/>
       <c r="C940" s="6"/>
       <c r="D940" s="6"/>
@@ -27755,7 +27898,7 @@
       <c r="Z940" s="6"/>
     </row>
     <row r="941">
-      <c r="A941" s="35"/>
+      <c r="A941" s="38"/>
       <c r="B941" s="36"/>
       <c r="C941" s="6"/>
       <c r="D941" s="6"/>
@@ -27783,7 +27926,7 @@
       <c r="Z941" s="6"/>
     </row>
     <row r="942">
-      <c r="A942" s="35"/>
+      <c r="A942" s="38"/>
       <c r="B942" s="36"/>
       <c r="C942" s="6"/>
       <c r="D942" s="6"/>
@@ -27811,7 +27954,7 @@
       <c r="Z942" s="6"/>
     </row>
     <row r="943">
-      <c r="A943" s="35"/>
+      <c r="A943" s="38"/>
       <c r="B943" s="36"/>
       <c r="C943" s="6"/>
       <c r="D943" s="6"/>
@@ -27839,7 +27982,7 @@
       <c r="Z943" s="6"/>
     </row>
     <row r="944">
-      <c r="A944" s="35"/>
+      <c r="A944" s="38"/>
       <c r="B944" s="36"/>
       <c r="C944" s="6"/>
       <c r="D944" s="6"/>
@@ -27867,7 +28010,7 @@
       <c r="Z944" s="6"/>
     </row>
     <row r="945">
-      <c r="A945" s="35"/>
+      <c r="A945" s="38"/>
       <c r="B945" s="36"/>
       <c r="C945" s="6"/>
       <c r="D945" s="6"/>
@@ -27895,7 +28038,7 @@
       <c r="Z945" s="6"/>
     </row>
     <row r="946">
-      <c r="A946" s="35"/>
+      <c r="A946" s="38"/>
       <c r="B946" s="36"/>
       <c r="C946" s="6"/>
       <c r="D946" s="6"/>
@@ -27923,7 +28066,7 @@
       <c r="Z946" s="6"/>
     </row>
     <row r="947">
-      <c r="A947" s="35"/>
+      <c r="A947" s="38"/>
       <c r="B947" s="36"/>
       <c r="C947" s="6"/>
       <c r="D947" s="6"/>
@@ -27951,7 +28094,7 @@
       <c r="Z947" s="6"/>
     </row>
     <row r="948">
-      <c r="A948" s="35"/>
+      <c r="A948" s="38"/>
       <c r="B948" s="36"/>
       <c r="C948" s="6"/>
       <c r="D948" s="6"/>
@@ -27979,7 +28122,7 @@
       <c r="Z948" s="6"/>
     </row>
     <row r="949">
-      <c r="A949" s="35"/>
+      <c r="A949" s="38"/>
       <c r="B949" s="36"/>
       <c r="C949" s="6"/>
       <c r="D949" s="6"/>
@@ -28007,7 +28150,7 @@
       <c r="Z949" s="6"/>
     </row>
     <row r="950">
-      <c r="A950" s="35"/>
+      <c r="A950" s="38"/>
       <c r="B950" s="36"/>
       <c r="C950" s="6"/>
       <c r="D950" s="6"/>
@@ -28035,7 +28178,7 @@
       <c r="Z950" s="6"/>
     </row>
     <row r="951">
-      <c r="A951" s="35"/>
+      <c r="A951" s="38"/>
       <c r="B951" s="36"/>
       <c r="C951" s="6"/>
       <c r="D951" s="6"/>
@@ -28063,7 +28206,7 @@
       <c r="Z951" s="6"/>
     </row>
     <row r="952">
-      <c r="A952" s="35"/>
+      <c r="A952" s="38"/>
       <c r="B952" s="36"/>
       <c r="C952" s="6"/>
       <c r="D952" s="6"/>
@@ -28091,7 +28234,7 @@
       <c r="Z952" s="6"/>
     </row>
     <row r="953">
-      <c r="A953" s="35"/>
+      <c r="A953" s="38"/>
       <c r="B953" s="36"/>
       <c r="C953" s="6"/>
       <c r="D953" s="6"/>
@@ -28119,7 +28262,7 @@
       <c r="Z953" s="6"/>
     </row>
     <row r="954">
-      <c r="A954" s="35"/>
+      <c r="A954" s="38"/>
       <c r="B954" s="36"/>
       <c r="C954" s="6"/>
       <c r="D954" s="6"/>
@@ -28147,7 +28290,7 @@
       <c r="Z954" s="6"/>
     </row>
     <row r="955">
-      <c r="A955" s="35"/>
+      <c r="A955" s="38"/>
       <c r="B955" s="36"/>
       <c r="C955" s="6"/>
       <c r="D955" s="6"/>
@@ -28175,7 +28318,7 @@
       <c r="Z955" s="6"/>
     </row>
     <row r="956">
-      <c r="A956" s="35"/>
+      <c r="A956" s="38"/>
       <c r="B956" s="36"/>
       <c r="C956" s="6"/>
       <c r="D956" s="6"/>
@@ -28203,7 +28346,7 @@
       <c r="Z956" s="6"/>
     </row>
     <row r="957">
-      <c r="A957" s="35"/>
+      <c r="A957" s="38"/>
       <c r="B957" s="36"/>
       <c r="C957" s="6"/>
       <c r="D957" s="6"/>
@@ -28231,7 +28374,7 @@
       <c r="Z957" s="6"/>
     </row>
     <row r="958">
-      <c r="A958" s="35"/>
+      <c r="A958" s="38"/>
       <c r="B958" s="36"/>
       <c r="C958" s="6"/>
       <c r="D958" s="6"/>
@@ -28259,7 +28402,7 @@
       <c r="Z958" s="6"/>
     </row>
     <row r="959">
-      <c r="A959" s="35"/>
+      <c r="A959" s="38"/>
       <c r="B959" s="36"/>
       <c r="C959" s="6"/>
       <c r="D959" s="6"/>
@@ -28287,7 +28430,7 @@
       <c r="Z959" s="6"/>
     </row>
     <row r="960">
-      <c r="A960" s="35"/>
+      <c r="A960" s="38"/>
       <c r="B960" s="36"/>
       <c r="C960" s="6"/>
       <c r="D960" s="6"/>
@@ -28315,7 +28458,7 @@
       <c r="Z960" s="6"/>
     </row>
     <row r="961">
-      <c r="A961" s="35"/>
+      <c r="A961" s="38"/>
       <c r="B961" s="36"/>
       <c r="C961" s="6"/>
       <c r="D961" s="6"/>
@@ -28343,7 +28486,7 @@
       <c r="Z961" s="6"/>
     </row>
     <row r="962">
-      <c r="A962" s="35"/>
+      <c r="A962" s="38"/>
       <c r="B962" s="36"/>
       <c r="C962" s="6"/>
       <c r="D962" s="6"/>
@@ -28371,7 +28514,7 @@
       <c r="Z962" s="6"/>
     </row>
     <row r="963">
-      <c r="A963" s="35"/>
+      <c r="A963" s="38"/>
       <c r="B963" s="36"/>
       <c r="C963" s="6"/>
       <c r="D963" s="6"/>
@@ -28399,7 +28542,7 @@
       <c r="Z963" s="6"/>
     </row>
     <row r="964">
-      <c r="A964" s="35"/>
+      <c r="A964" s="38"/>
       <c r="B964" s="36"/>
       <c r="C964" s="6"/>
       <c r="D964" s="6"/>
@@ -28427,7 +28570,7 @@
       <c r="Z964" s="6"/>
     </row>
     <row r="965">
-      <c r="A965" s="35"/>
+      <c r="A965" s="38"/>
       <c r="B965" s="36"/>
       <c r="C965" s="6"/>
       <c r="D965" s="6"/>
@@ -28455,7 +28598,7 @@
       <c r="Z965" s="6"/>
     </row>
     <row r="966">
-      <c r="A966" s="35"/>
+      <c r="A966" s="38"/>
       <c r="B966" s="36"/>
       <c r="C966" s="6"/>
       <c r="D966" s="6"/>
@@ -28483,7 +28626,7 @@
       <c r="Z966" s="6"/>
     </row>
     <row r="967">
-      <c r="A967" s="35"/>
+      <c r="A967" s="38"/>
       <c r="B967" s="36"/>
       <c r="C967" s="6"/>
       <c r="D967" s="6"/>
@@ -28511,7 +28654,7 @@
       <c r="Z967" s="6"/>
     </row>
     <row r="968">
-      <c r="A968" s="35"/>
+      <c r="A968" s="38"/>
       <c r="B968" s="36"/>
       <c r="C968" s="6"/>
       <c r="D968" s="6"/>
@@ -28539,7 +28682,7 @@
       <c r="Z968" s="6"/>
     </row>
     <row r="969">
-      <c r="A969" s="35"/>
+      <c r="A969" s="38"/>
       <c r="B969" s="36"/>
       <c r="C969" s="6"/>
       <c r="D969" s="6"/>
@@ -28567,7 +28710,7 @@
       <c r="Z969" s="6"/>
     </row>
     <row r="970">
-      <c r="A970" s="35"/>
+      <c r="A970" s="38"/>
       <c r="B970" s="36"/>
       <c r="C970" s="6"/>
       <c r="D970" s="6"/>
@@ -28595,7 +28738,7 @@
       <c r="Z970" s="6"/>
     </row>
     <row r="971">
-      <c r="A971" s="35"/>
+      <c r="A971" s="38"/>
       <c r="B971" s="36"/>
       <c r="C971" s="6"/>
       <c r="D971" s="6"/>
@@ -28623,7 +28766,7 @@
       <c r="Z971" s="6"/>
     </row>
     <row r="972">
-      <c r="A972" s="35"/>
+      <c r="A972" s="38"/>
       <c r="B972" s="36"/>
       <c r="C972" s="6"/>
       <c r="D972" s="6"/>
@@ -28651,7 +28794,7 @@
       <c r="Z972" s="6"/>
     </row>
     <row r="973">
-      <c r="A973" s="35"/>
+      <c r="A973" s="38"/>
       <c r="B973" s="36"/>
       <c r="C973" s="6"/>
       <c r="D973" s="6"/>
@@ -28679,7 +28822,7 @@
       <c r="Z973" s="6"/>
     </row>
     <row r="974">
-      <c r="A974" s="35"/>
+      <c r="A974" s="38"/>
       <c r="B974" s="36"/>
       <c r="C974" s="6"/>
       <c r="D974" s="6"/>
@@ -28707,7 +28850,7 @@
       <c r="Z974" s="6"/>
     </row>
     <row r="975">
-      <c r="A975" s="35"/>
+      <c r="A975" s="38"/>
       <c r="B975" s="36"/>
       <c r="C975" s="6"/>
       <c r="D975" s="6"/>
@@ -28735,7 +28878,7 @@
       <c r="Z975" s="6"/>
     </row>
     <row r="976">
-      <c r="A976" s="35"/>
+      <c r="A976" s="38"/>
       <c r="B976" s="36"/>
       <c r="C976" s="6"/>
       <c r="D976" s="6"/>
@@ -28763,7 +28906,7 @@
       <c r="Z976" s="6"/>
     </row>
     <row r="977">
-      <c r="A977" s="35"/>
+      <c r="A977" s="38"/>
       <c r="B977" s="36"/>
       <c r="C977" s="6"/>
       <c r="D977" s="6"/>
@@ -28791,7 +28934,7 @@
       <c r="Z977" s="6"/>
     </row>
     <row r="978">
-      <c r="A978" s="35"/>
+      <c r="A978" s="38"/>
       <c r="B978" s="36"/>
       <c r="C978" s="6"/>
       <c r="D978" s="6"/>
@@ -28819,7 +28962,7 @@
       <c r="Z978" s="6"/>
     </row>
     <row r="979">
-      <c r="A979" s="35"/>
+      <c r="A979" s="38"/>
       <c r="B979" s="36"/>
       <c r="C979" s="6"/>
       <c r="D979" s="6"/>
@@ -28847,7 +28990,7 @@
       <c r="Z979" s="6"/>
     </row>
     <row r="980">
-      <c r="A980" s="35"/>
+      <c r="A980" s="38"/>
       <c r="B980" s="36"/>
       <c r="C980" s="6"/>
       <c r="D980" s="6"/>
@@ -28875,7 +29018,7 @@
       <c r="Z980" s="6"/>
     </row>
     <row r="981">
-      <c r="A981" s="35"/>
+      <c r="A981" s="38"/>
       <c r="B981" s="36"/>
       <c r="C981" s="6"/>
       <c r="D981" s="6"/>
@@ -28903,7 +29046,7 @@
       <c r="Z981" s="6"/>
     </row>
     <row r="982">
-      <c r="A982" s="35"/>
+      <c r="A982" s="38"/>
       <c r="B982" s="36"/>
       <c r="C982" s="6"/>
       <c r="D982" s="6"/>
@@ -28931,7 +29074,7 @@
       <c r="Z982" s="6"/>
     </row>
     <row r="983">
-      <c r="A983" s="35"/>
+      <c r="A983" s="38"/>
       <c r="B983" s="36"/>
       <c r="C983" s="6"/>
       <c r="D983" s="6"/>
@@ -28959,7 +29102,7 @@
       <c r="Z983" s="6"/>
     </row>
     <row r="984">
-      <c r="A984" s="35"/>
+      <c r="A984" s="38"/>
       <c r="B984" s="36"/>
       <c r="C984" s="6"/>
       <c r="D984" s="6"/>
@@ -28987,7 +29130,7 @@
       <c r="Z984" s="6"/>
     </row>
     <row r="985">
-      <c r="A985" s="35"/>
+      <c r="A985" s="38"/>
       <c r="B985" s="36"/>
       <c r="C985" s="6"/>
       <c r="D985" s="6"/>
@@ -29015,7 +29158,7 @@
       <c r="Z985" s="6"/>
     </row>
     <row r="986">
-      <c r="A986" s="35"/>
+      <c r="A986" s="38"/>
       <c r="B986" s="36"/>
       <c r="C986" s="6"/>
       <c r="D986" s="6"/>
@@ -29043,7 +29186,7 @@
       <c r="Z986" s="6"/>
     </row>
     <row r="987">
-      <c r="A987" s="35"/>
+      <c r="A987" s="38"/>
       <c r="B987" s="36"/>
       <c r="C987" s="6"/>
       <c r="D987" s="6"/>
@@ -29071,7 +29214,7 @@
       <c r="Z987" s="6"/>
     </row>
     <row r="988">
-      <c r="A988" s="35"/>
+      <c r="A988" s="38"/>
       <c r="B988" s="36"/>
       <c r="C988" s="6"/>
       <c r="D988" s="6"/>
@@ -29099,7 +29242,7 @@
       <c r="Z988" s="6"/>
     </row>
     <row r="989">
-      <c r="A989" s="35"/>
+      <c r="A989" s="38"/>
       <c r="B989" s="36"/>
       <c r="C989" s="6"/>
       <c r="D989" s="6"/>
@@ -29127,7 +29270,7 @@
       <c r="Z989" s="6"/>
     </row>
     <row r="990">
-      <c r="A990" s="35"/>
+      <c r="A990" s="38"/>
       <c r="B990" s="36"/>
       <c r="C990" s="6"/>
       <c r="D990" s="6"/>
@@ -29155,7 +29298,7 @@
       <c r="Z990" s="6"/>
     </row>
     <row r="991">
-      <c r="A991" s="35"/>
+      <c r="A991" s="38"/>
       <c r="B991" s="36"/>
       <c r="C991" s="6"/>
       <c r="D991" s="6"/>
@@ -29183,7 +29326,7 @@
       <c r="Z991" s="6"/>
     </row>
     <row r="992">
-      <c r="A992" s="35"/>
+      <c r="A992" s="38"/>
       <c r="B992" s="36"/>
       <c r="C992" s="6"/>
       <c r="D992" s="6"/>
@@ -29211,7 +29354,7 @@
       <c r="Z992" s="6"/>
     </row>
     <row r="993">
-      <c r="A993" s="35"/>
+      <c r="A993" s="38"/>
       <c r="B993" s="36"/>
       <c r="C993" s="6"/>
       <c r="D993" s="6"/>
@@ -29239,7 +29382,7 @@
       <c r="Z993" s="6"/>
     </row>
     <row r="994">
-      <c r="A994" s="35"/>
+      <c r="A994" s="38"/>
       <c r="B994" s="36"/>
       <c r="C994" s="6"/>
       <c r="D994" s="6"/>
@@ -29267,7 +29410,7 @@
       <c r="Z994" s="6"/>
     </row>
     <row r="995">
-      <c r="A995" s="35"/>
+      <c r="A995" s="38"/>
       <c r="B995" s="36"/>
       <c r="C995" s="6"/>
       <c r="D995" s="6"/>
@@ -29295,7 +29438,7 @@
       <c r="Z995" s="6"/>
     </row>
     <row r="996">
-      <c r="A996" s="35"/>
+      <c r="A996" s="38"/>
       <c r="B996" s="36"/>
       <c r="C996" s="6"/>
       <c r="D996" s="6"/>
@@ -29323,7 +29466,7 @@
       <c r="Z996" s="6"/>
     </row>
     <row r="997">
-      <c r="A997" s="35"/>
+      <c r="A997" s="38"/>
       <c r="B997" s="36"/>
       <c r="C997" s="6"/>
       <c r="D997" s="6"/>
@@ -29351,7 +29494,7 @@
       <c r="Z997" s="6"/>
     </row>
     <row r="998">
-      <c r="A998" s="35"/>
+      <c r="A998" s="38"/>
       <c r="B998" s="36"/>
       <c r="C998" s="6"/>
       <c r="D998" s="6"/>
@@ -29379,7 +29522,7 @@
       <c r="Z998" s="6"/>
     </row>
     <row r="999">
-      <c r="A999" s="35"/>
+      <c r="A999" s="38"/>
       <c r="B999" s="36"/>
       <c r="C999" s="6"/>
       <c r="D999" s="6"/>
@@ -29407,7 +29550,7 @@
       <c r="Z999" s="6"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="35"/>
+      <c r="A1000" s="38"/>
       <c r="B1000" s="36"/>
       <c r="C1000" s="6"/>
       <c r="D1000" s="6"/>
